--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_9_36.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_9_36.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3280733.980182137</v>
+        <v>3389875.233742265</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12383593.4843585</v>
+        <v>12134429.06144739</v>
       </c>
     </row>
     <row r="8">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8046162.193520043</v>
+        <v>8068609.069002066</v>
       </c>
     </row>
     <row r="11">
@@ -659,10 +661,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>256.8449182533346</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -671,13 +673,13 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>11.54770277295399</v>
+        <v>412.2877386950441</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247047</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,22 +709,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>123.4522153987944</v>
+        <v>140.3157839734241</v>
       </c>
       <c r="T2" t="n">
-        <v>206.6581849802338</v>
+        <v>209.8976922291835</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>255.3094789506152</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -750,13 +752,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>135.3343964518635</v>
+        <v>135.7303505775365</v>
       </c>
       <c r="H3" t="n">
-        <v>92.83156789269626</v>
+        <v>96.65565115906499</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705012</v>
+        <v>33.85559031833737</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -786,13 +788,13 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>134.3646350838588</v>
+        <v>141.7193093041456</v>
       </c>
       <c r="T3" t="n">
-        <v>192.0665623188214</v>
+        <v>193.6625353078282</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8092030868072</v>
+        <v>225.8352527003384</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
@@ -814,10 +816,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>175.7221540029782</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -826,16 +828,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>150.2028876639205</v>
       </c>
       <c r="I4" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,13 +864,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>101.5575724195736</v>
+        <v>113.0340800183712</v>
       </c>
       <c r="S4" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>222.1670476323163</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -877,13 +879,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>229.6767712435926</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -902,16 +904,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>11.54770277295399</v>
+        <v>11.52502338186935</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>300.7862872484598</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -947,22 +949,22 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>206.6581849802338</v>
+        <v>206.5589059457607</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.0434357771752</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>39.76150183011045</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -987,13 +989,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>135.3343964518635</v>
+        <v>135.3222619078506</v>
       </c>
       <c r="H6" t="n">
-        <v>92.83156789269626</v>
+        <v>92.71437374394026</v>
       </c>
       <c r="I6" t="n">
-        <v>20.22295923705012</v>
+        <v>19.80516901555396</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1023,13 +1025,13 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>134.3646350838588</v>
+        <v>134.1392412509879</v>
       </c>
       <c r="T6" t="n">
-        <v>192.0665623188214</v>
+        <v>192.01765159098</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8092030868072</v>
+        <v>225.8084047615432</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
@@ -1057,22 +1059,22 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>24.6841235910636</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.2964268507295</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>104.7965952039006</v>
+        <v>104.4906595130011</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,19 +1101,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>101.5575724195736</v>
+        <v>101.1001486205444</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>194.4851693340911</v>
       </c>
       <c r="T7" t="n">
-        <v>220.7486959972119</v>
+        <v>220.7052287134384</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2271541212006</v>
+        <v>65.16086162663871</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -1133,7 +1135,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>41.24068147581188</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -1145,10 +1147,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>11.54770277295399</v>
+        <v>411.5250233818693</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>300.7862872484598</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1181,16 +1183,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4522153987944</v>
+        <v>122.9354087744531</v>
       </c>
       <c r="T8" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.045250128462</v>
+        <v>251.0434357771752</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>288.4734419966395</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1199,7 +1201,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1224,13 +1226,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>135.3343964518635</v>
+        <v>135.3222619078506</v>
       </c>
       <c r="H9" t="n">
-        <v>92.83156789269626</v>
+        <v>92.71437374394026</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705012</v>
+        <v>19.80516901555396</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1260,13 +1262,13 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>134.3646350838588</v>
+        <v>134.1392412509879</v>
       </c>
       <c r="T9" t="n">
-        <v>192.0665623188214</v>
+        <v>192.01765159098</v>
       </c>
       <c r="U9" t="n">
-        <v>225.8092030868072</v>
+        <v>225.8084047615432</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
@@ -1294,22 +1296,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>55.02239483694977</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>99.58814516867416</v>
+        <v>166.2964268507295</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>104.7965952039006</v>
+        <v>104.4906595130011</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,13 +1338,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>101.1001486205444</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>220.7052287134384</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1354,10 +1356,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1367,16 +1369,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -1418,16 +1420,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695523</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
         <v>250.9057009881284</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1436,7 +1438,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1534,7 +1536,7 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -1546,7 +1548,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
@@ -1585,10 +1587,10 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>135.4684761590174</v>
       </c>
       <c r="W13" t="n">
-        <v>204.4461545268556</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1613,7 +1615,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
@@ -1622,7 +1624,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444135</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1655,16 +1657,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881285</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1762,16 +1764,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>2.029664035374494</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -1783,7 +1785,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,13 +1812,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>105.0006820737989</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -1828,7 +1830,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1850,7 +1852,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
@@ -1892,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695521</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1901,10 +1903,10 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
@@ -2002,25 +2004,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>40.3285337992671</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2062,10 +2064,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>187.5707271127946</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2129,13 +2131,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881285</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2236,10 +2238,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>159.4257716218679</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -2254,10 +2256,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>39.83255574579487</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,16 +2286,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2305,7 +2307,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2476,7 +2478,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>67.10592483573207</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -2485,16 +2487,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>41.02686156550217</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,16 +2526,16 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2567,7 +2569,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187857</v>
       </c>
       <c r="H26" t="n">
         <v>283.1540821444137</v>
@@ -2603,13 +2605,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T26" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U26" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2649,7 +2651,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H27" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2719,10 +2721,10 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>28.75188085812005</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
@@ -2731,7 +2733,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>21.85677025083705</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2779,7 +2781,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2956,19 +2958,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>99.97427419833815</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2998,13 +3000,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>105.6507867899569</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3193,7 +3195,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>78.13809416960363</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
@@ -3232,13 +3234,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
@@ -3247,13 +3249,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>105.989310737304</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3269,13 +3271,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206824</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
         <v>409.8033385187866</v>
@@ -3421,16 +3423,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>32.26041896250414</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
@@ -3439,7 +3441,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856553</v>
@@ -3469,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3481,16 +3483,16 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>187.7920606490816</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3500,16 +3502,16 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634805</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710075</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206829</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722617</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
@@ -3551,16 +3553,16 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695521</v>
       </c>
       <c r="T38" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576155</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701348</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
@@ -3569,7 +3571,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560535</v>
       </c>
     </row>
     <row r="39">
@@ -3661,13 +3663,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -3676,10 +3678,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>6.43453821042729</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,16 +3708,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>158.2465685970616</v>
       </c>
       <c r="U40" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3746,7 +3748,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
         <v>406.8760457417114</v>
@@ -3904,10 +3906,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>19.86507844888341</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
@@ -3916,7 +3918,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3949,22 +3951,22 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>109.1623230749906</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -4025,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4132,28 +4134,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>59.96838802184633</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>33.82891891787568</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4198,7 +4200,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>781.4578466818741</v>
+        <v>1588.214085525555</v>
       </c>
       <c r="C2" t="n">
-        <v>781.4578466818741</v>
+        <v>1219.251568585143</v>
       </c>
       <c r="D2" t="n">
-        <v>522.0185353148695</v>
+        <v>860.9858699783929</v>
       </c>
       <c r="E2" t="n">
-        <v>136.2302827166252</v>
+        <v>475.1976173801486</v>
       </c>
       <c r="F2" t="n">
-        <v>129.2847819674217</v>
+        <v>468.2521166309451</v>
       </c>
       <c r="G2" t="n">
-        <v>117.6204357321147</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="H2" t="n">
-        <v>117.6204357321147</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="I2" t="n">
-        <v>51.24678656800311</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362819</v>
+        <v>293.3053724073759</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816084</v>
+        <v>455.1003844723707</v>
       </c>
       <c r="L2" t="n">
-        <v>795.755353087291</v>
+        <v>1096.123594092265</v>
       </c>
       <c r="M2" t="n">
-        <v>1220.470313923561</v>
+        <v>1392.194160649867</v>
       </c>
       <c r="N2" t="n">
-        <v>1656.671415230817</v>
+        <v>1697.669266885452</v>
       </c>
       <c r="O2" t="n">
-        <v>2055.22848474084</v>
+        <v>2248.314393858358</v>
       </c>
       <c r="P2" t="n">
-        <v>2360.886721764997</v>
+        <v>2448.61872114746</v>
       </c>
       <c r="Q2" t="n">
-        <v>2542.25058172385</v>
+        <v>2550.866182466515</v>
       </c>
       <c r="R2" t="n">
-        <v>2562.339328400155</v>
+        <v>2589.992766140986</v>
       </c>
       <c r="S2" t="n">
-        <v>2437.640120926626</v>
+        <v>2448.259651016315</v>
       </c>
       <c r="T2" t="n">
-        <v>2228.894479532451</v>
+        <v>2236.241780077746</v>
       </c>
       <c r="U2" t="n">
-        <v>2228.894479532451</v>
+        <v>2236.241780077746</v>
       </c>
       <c r="V2" t="n">
-        <v>1897.83159218888</v>
+        <v>2236.241780077746</v>
       </c>
       <c r="W2" t="n">
-        <v>1545.062936918766</v>
+        <v>1978.353417501367</v>
       </c>
       <c r="X2" t="n">
-        <v>1171.597178657686</v>
+        <v>1978.353417501367</v>
       </c>
       <c r="Y2" t="n">
-        <v>781.4578466818741</v>
+        <v>1588.214085525555</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>931.3041410966384</v>
+        <v>949.8902083093635</v>
       </c>
       <c r="C3" t="n">
-        <v>756.8511118155114</v>
+        <v>775.4371790282365</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542603</v>
+        <v>626.5027693669851</v>
       </c>
       <c r="E3" t="n">
-        <v>448.6792471488047</v>
+        <v>467.2653143615296</v>
       </c>
       <c r="F3" t="n">
-        <v>302.1446891756898</v>
+        <v>320.7307563884145</v>
       </c>
       <c r="G3" t="n">
-        <v>165.443278618252</v>
+        <v>183.6293921686807</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057901</v>
+        <v>85.99742130093824</v>
       </c>
       <c r="I3" t="n">
-        <v>51.24678656800311</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="J3" t="n">
-        <v>113.5972052500114</v>
+        <v>77.11538214995046</v>
       </c>
       <c r="K3" t="n">
-        <v>527.264525153022</v>
+        <v>460.3590590626819</v>
       </c>
       <c r="L3" t="n">
-        <v>821.9680821844937</v>
+        <v>797.2999270369288</v>
       </c>
       <c r="M3" t="n">
-        <v>1456.147065963532</v>
+        <v>1438.323136656823</v>
       </c>
       <c r="N3" t="n">
-        <v>1843.432194560477</v>
+        <v>1723.657007090155</v>
       </c>
       <c r="O3" t="n">
-        <v>2175.502629736639</v>
+        <v>2352.385654925576</v>
       </c>
       <c r="P3" t="n">
-        <v>2422.685363568936</v>
+        <v>2524.714615879285</v>
       </c>
       <c r="Q3" t="n">
-        <v>2538.001278676482</v>
+        <v>2589.992766140986</v>
       </c>
       <c r="R3" t="n">
-        <v>2562.339328400155</v>
+        <v>2589.992766140986</v>
       </c>
       <c r="S3" t="n">
-        <v>2426.617474780096</v>
+        <v>2446.841948662051</v>
       </c>
       <c r="T3" t="n">
-        <v>2232.610846175226</v>
+        <v>2251.223226128891</v>
       </c>
       <c r="U3" t="n">
-        <v>2004.520742047138</v>
+        <v>2023.106809259863</v>
       </c>
       <c r="V3" t="n">
-        <v>1769.368633815395</v>
+        <v>1787.95470102812</v>
       </c>
       <c r="W3" t="n">
-        <v>1515.131277087193</v>
+        <v>1533.717344299918</v>
       </c>
       <c r="X3" t="n">
-        <v>1307.27977688166</v>
+        <v>1325.865844094385</v>
       </c>
       <c r="Y3" t="n">
-        <v>1099.519478116707</v>
+        <v>1118.105545329432</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>938.9442613508772</v>
+        <v>501.5496768669633</v>
       </c>
       <c r="C4" t="n">
-        <v>770.0080784229704</v>
+        <v>501.5496768669633</v>
       </c>
       <c r="D4" t="n">
-        <v>619.8914390106346</v>
+        <v>351.4330374546275</v>
       </c>
       <c r="E4" t="n">
-        <v>471.9783454282415</v>
+        <v>203.5199438722344</v>
       </c>
       <c r="F4" t="n">
-        <v>325.0883979303312</v>
+        <v>203.5199438722344</v>
       </c>
       <c r="G4" t="n">
-        <v>157.1019332386097</v>
+        <v>203.5199438722344</v>
       </c>
       <c r="H4" t="n">
-        <v>157.1019332386097</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="I4" t="n">
-        <v>51.24678656800311</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="J4" t="n">
-        <v>76.715959553122</v>
+        <v>54.034527330184</v>
       </c>
       <c r="K4" t="n">
-        <v>248.4064713020476</v>
+        <v>187.5436166159871</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693235</v>
+        <v>413.9157199341311</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096588</v>
+        <v>662.9824862666712</v>
       </c>
       <c r="N4" t="n">
-        <v>1123.088724245823</v>
+        <v>911.5616180092719</v>
       </c>
       <c r="O4" t="n">
-        <v>1383.126566999035</v>
+        <v>1125.148384357427</v>
       </c>
       <c r="P4" t="n">
-        <v>1582.113182171024</v>
+        <v>1284.388078993471</v>
       </c>
       <c r="Q4" t="n">
-        <v>1636.446120074497</v>
+        <v>1311.202309361121</v>
       </c>
       <c r="R4" t="n">
-        <v>1533.86271359008</v>
+        <v>1197.026470958726</v>
       </c>
       <c r="S4" t="n">
-        <v>1337.233965749941</v>
+        <v>1197.026470958726</v>
       </c>
       <c r="T4" t="n">
-        <v>1337.233965749941</v>
+        <v>972.6153117341637</v>
       </c>
       <c r="U4" t="n">
-        <v>1337.233965749941</v>
+        <v>972.6153117341637</v>
       </c>
       <c r="V4" t="n">
-        <v>1337.233965749941</v>
+        <v>972.6153117341637</v>
       </c>
       <c r="W4" t="n">
-        <v>1337.233965749941</v>
+        <v>683.198141697203</v>
       </c>
       <c r="X4" t="n">
-        <v>1337.233965749941</v>
+        <v>683.198141697203</v>
       </c>
       <c r="Y4" t="n">
-        <v>1116.441386606411</v>
+        <v>683.198141697203</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>832.1627361996682</v>
+        <v>1522.305681651088</v>
       </c>
       <c r="C5" t="n">
-        <v>832.1627361996682</v>
+        <v>1522.305681651088</v>
       </c>
       <c r="D5" t="n">
-        <v>473.8970375929177</v>
+        <v>1164.039983044337</v>
       </c>
       <c r="E5" t="n">
-        <v>473.8970375929177</v>
+        <v>778.251730446093</v>
       </c>
       <c r="F5" t="n">
-        <v>62.91113280331017</v>
+        <v>367.2658256564855</v>
       </c>
       <c r="G5" t="n">
-        <v>51.24678656800311</v>
+        <v>355.6243878970215</v>
       </c>
       <c r="H5" t="n">
-        <v>51.24678656800311</v>
+        <v>51.7998553228197</v>
       </c>
       <c r="I5" t="n">
-        <v>51.24678656800311</v>
+        <v>51.7998553228197</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362819</v>
+        <v>189.9868871104782</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816084</v>
+        <v>447.8319447135509</v>
       </c>
       <c r="L5" t="n">
-        <v>795.755353087291</v>
+        <v>804.6133007477379</v>
       </c>
       <c r="M5" t="n">
-        <v>1220.470313923561</v>
+        <v>1233.270741187502</v>
       </c>
       <c r="N5" t="n">
-        <v>1656.671415230817</v>
+        <v>1673.47811553997</v>
       </c>
       <c r="O5" t="n">
-        <v>2055.22848474084</v>
+        <v>2075.81819508206</v>
       </c>
       <c r="P5" t="n">
-        <v>2360.886721764997</v>
+        <v>2384.705143645556</v>
       </c>
       <c r="Q5" t="n">
-        <v>2542.25058172385</v>
+        <v>2568.493631507461</v>
       </c>
       <c r="R5" t="n">
-        <v>2562.339328400155</v>
+        <v>2589.992766140985</v>
       </c>
       <c r="S5" t="n">
-        <v>2562.339328400155</v>
+        <v>2589.992766140985</v>
       </c>
       <c r="T5" t="n">
-        <v>2353.59368700598</v>
+        <v>2381.347406599812</v>
       </c>
       <c r="U5" t="n">
-        <v>2353.59368700598</v>
+        <v>2127.768178542059</v>
       </c>
       <c r="V5" t="n">
-        <v>2022.530799662409</v>
+        <v>2127.768178542059</v>
       </c>
       <c r="W5" t="n">
-        <v>1982.367666500681</v>
+        <v>2127.768178542059</v>
       </c>
       <c r="X5" t="n">
-        <v>1608.901908239602</v>
+        <v>1754.302420280979</v>
       </c>
       <c r="Y5" t="n">
-        <v>1218.76257626379</v>
+        <v>1754.302420280979</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>931.3041410966385</v>
+        <v>931.3045644835107</v>
       </c>
       <c r="C6" t="n">
-        <v>756.8511118155116</v>
+        <v>756.8515352023837</v>
       </c>
       <c r="D6" t="n">
-        <v>607.9167021542603</v>
+        <v>607.9171255411325</v>
       </c>
       <c r="E6" t="n">
-        <v>448.6792471488048</v>
+        <v>448.679670535677</v>
       </c>
       <c r="F6" t="n">
-        <v>302.1446891756898</v>
+        <v>302.145112562562</v>
       </c>
       <c r="G6" t="n">
-        <v>165.443278618252</v>
+        <v>165.4559591202886</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057899</v>
+        <v>71.80507655065198</v>
       </c>
       <c r="I6" t="n">
-        <v>51.24678656800311</v>
+        <v>51.7998553228197</v>
       </c>
       <c r="J6" t="n">
-        <v>113.5972052500114</v>
+        <v>115.285257822616</v>
       </c>
       <c r="K6" t="n">
-        <v>298.3188265310614</v>
+        <v>301.9467472258286</v>
       </c>
       <c r="L6" t="n">
-        <v>593.0223835625332</v>
+        <v>599.2586963421431</v>
       </c>
       <c r="M6" t="n">
-        <v>956.2844025217532</v>
+        <v>965.5645858344685</v>
       </c>
       <c r="N6" t="n">
-        <v>1590.463386300792</v>
+        <v>1355.974147160211</v>
       </c>
       <c r="O6" t="n">
-        <v>1991.864164601821</v>
+        <v>1987.759237993047</v>
       </c>
       <c r="P6" t="n">
-        <v>2239.046898434118</v>
+        <v>2237.235965858066</v>
       </c>
       <c r="Q6" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.061870084021</v>
       </c>
       <c r="R6" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.061870084021</v>
       </c>
       <c r="S6" t="n">
-        <v>2426.617474780096</v>
+        <v>2426.567687002215</v>
       </c>
       <c r="T6" t="n">
-        <v>2232.610846175226</v>
+        <v>2232.610463172942</v>
       </c>
       <c r="U6" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.52116543401</v>
       </c>
       <c r="V6" t="n">
-        <v>1769.368633815395</v>
+        <v>1769.369057202267</v>
       </c>
       <c r="W6" t="n">
-        <v>1515.131277087193</v>
+        <v>1515.131700474065</v>
       </c>
       <c r="X6" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.280200268533</v>
       </c>
       <c r="Y6" t="n">
-        <v>1099.519478116707</v>
+        <v>1099.519901503579</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>477.6642370458055</v>
+        <v>770.2418452737728</v>
       </c>
       <c r="C7" t="n">
-        <v>477.6642370458055</v>
+        <v>770.2418452737728</v>
       </c>
       <c r="D7" t="n">
-        <v>452.7307788730139</v>
+        <v>620.1252058614371</v>
       </c>
       <c r="E7" t="n">
-        <v>452.7307788730139</v>
+        <v>472.2121122790439</v>
       </c>
       <c r="F7" t="n">
-        <v>305.8408313751036</v>
+        <v>325.3221647811336</v>
       </c>
       <c r="G7" t="n">
-        <v>305.8408313751036</v>
+        <v>157.3459760430229</v>
       </c>
       <c r="H7" t="n">
-        <v>157.1019332386097</v>
+        <v>157.3459760430229</v>
       </c>
       <c r="I7" t="n">
-        <v>51.24678656800311</v>
+        <v>51.7998553228197</v>
       </c>
       <c r="J7" t="n">
-        <v>76.715959553122</v>
+        <v>77.98108068080543</v>
       </c>
       <c r="K7" t="n">
-        <v>248.4064713020476</v>
+        <v>250.8417132121971</v>
       </c>
       <c r="L7" t="n">
-        <v>523.6376499693235</v>
+        <v>527.5702436225441</v>
       </c>
       <c r="M7" t="n">
-        <v>824.2194607096588</v>
+        <v>829.7308018317418</v>
       </c>
       <c r="N7" t="n">
-        <v>1123.088724245823</v>
+        <v>1130.141273750633</v>
       </c>
       <c r="O7" t="n">
-        <v>1383.126566999035</v>
+        <v>1391.602671897099</v>
       </c>
       <c r="P7" t="n">
-        <v>1582.113182171024</v>
+        <v>1591.80738463481</v>
       </c>
       <c r="Q7" t="n">
-        <v>1636.446120074497</v>
+        <v>1646.983670153877</v>
       </c>
       <c r="R7" t="n">
-        <v>1533.86271359008</v>
+        <v>1544.862307910903</v>
       </c>
       <c r="S7" t="n">
-        <v>1533.86271359008</v>
+        <v>1348.412641916872</v>
       </c>
       <c r="T7" t="n">
-        <v>1310.884232784815</v>
+        <v>1125.478067458853</v>
       </c>
       <c r="U7" t="n">
-        <v>1021.765895288653</v>
+        <v>1059.659015310733</v>
       </c>
       <c r="V7" t="n">
-        <v>767.0814070827661</v>
+        <v>1059.659015310733</v>
       </c>
       <c r="W7" t="n">
-        <v>477.6642370458055</v>
+        <v>770.2418452737728</v>
       </c>
       <c r="X7" t="n">
-        <v>477.6642370458055</v>
+        <v>770.2418452737728</v>
       </c>
       <c r="Y7" t="n">
-        <v>477.6642370458055</v>
+        <v>770.2418452737728</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>901.3425442071336</v>
+        <v>1568.080387084741</v>
       </c>
       <c r="C8" t="n">
-        <v>859.685290191162</v>
+        <v>1568.080387084741</v>
       </c>
       <c r="D8" t="n">
-        <v>859.685290191162</v>
+        <v>1568.080387084741</v>
       </c>
       <c r="E8" t="n">
-        <v>473.8970375929177</v>
+        <v>1182.292134486497</v>
       </c>
       <c r="F8" t="n">
-        <v>62.91113280331017</v>
+        <v>771.3062296968895</v>
       </c>
       <c r="G8" t="n">
-        <v>51.24678656800311</v>
+        <v>355.6243878970215</v>
       </c>
       <c r="H8" t="n">
-        <v>51.24678656800311</v>
+        <v>51.7998553228197</v>
       </c>
       <c r="I8" t="n">
-        <v>51.24678656800311</v>
+        <v>51.7998553228197</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362819</v>
+        <v>189.9868871104779</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816084</v>
+        <v>447.8319447135508</v>
       </c>
       <c r="L8" t="n">
-        <v>795.7553530872915</v>
+        <v>804.6133007477376</v>
       </c>
       <c r="M8" t="n">
-        <v>1220.470313923562</v>
+        <v>1233.270741187501</v>
       </c>
       <c r="N8" t="n">
-        <v>1656.671415230817</v>
+        <v>1673.47811553997</v>
       </c>
       <c r="O8" t="n">
-        <v>2055.22848474084</v>
+        <v>2075.81819508206</v>
       </c>
       <c r="P8" t="n">
-        <v>2360.886721764997</v>
+        <v>2384.705143645556</v>
       </c>
       <c r="Q8" t="n">
-        <v>2542.25058172385</v>
+        <v>2568.493631507461</v>
       </c>
       <c r="R8" t="n">
-        <v>2562.339328400155</v>
+        <v>2589.992766140985</v>
       </c>
       <c r="S8" t="n">
-        <v>2437.640120926626</v>
+        <v>2465.815585560729</v>
       </c>
       <c r="T8" t="n">
-        <v>2228.894479532451</v>
+        <v>2465.815585560729</v>
       </c>
       <c r="U8" t="n">
-        <v>1975.31341879663</v>
+        <v>2212.236357502976</v>
       </c>
       <c r="V8" t="n">
-        <v>1644.250531453059</v>
+        <v>1920.849042354856</v>
       </c>
       <c r="W8" t="n">
-        <v>1291.481876182945</v>
+        <v>1568.080387084741</v>
       </c>
       <c r="X8" t="n">
-        <v>1291.481876182945</v>
+        <v>1568.080387084741</v>
       </c>
       <c r="Y8" t="n">
-        <v>901.3425442071336</v>
+        <v>1568.080387084741</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3041410966385</v>
+        <v>931.3045644835107</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8511118155116</v>
+        <v>756.8515352023837</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9167021542603</v>
+        <v>607.9171255411325</v>
       </c>
       <c r="E9" t="n">
-        <v>448.6792471488048</v>
+        <v>448.679670535677</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1446891756898</v>
+        <v>302.145112562562</v>
       </c>
       <c r="G9" t="n">
-        <v>165.443278618252</v>
+        <v>165.4559591202886</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057899</v>
+        <v>71.80507655065198</v>
       </c>
       <c r="I9" t="n">
-        <v>51.24678656800311</v>
+        <v>51.7998553228197</v>
       </c>
       <c r="J9" t="n">
-        <v>113.5972052500114</v>
+        <v>115.2852578226161</v>
       </c>
       <c r="K9" t="n">
-        <v>298.3188265310614</v>
+        <v>563.7673318682815</v>
       </c>
       <c r="L9" t="n">
-        <v>593.0223835625332</v>
+        <v>861.0792809845962</v>
       </c>
       <c r="M9" t="n">
-        <v>1227.201367341572</v>
+        <v>1227.385170476922</v>
       </c>
       <c r="N9" t="n">
-        <v>1614.486495938517</v>
+        <v>1627.746635452984</v>
       </c>
       <c r="O9" t="n">
-        <v>1946.556931114679</v>
+        <v>1962.675316168515</v>
       </c>
       <c r="P9" t="n">
-        <v>2447.023413292609</v>
+        <v>2212.152044033533</v>
       </c>
       <c r="Q9" t="n">
-        <v>2562.339328400155</v>
+        <v>2536.977948259489</v>
       </c>
       <c r="R9" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.061870084021</v>
       </c>
       <c r="S9" t="n">
-        <v>2426.617474780096</v>
+        <v>2426.567687002215</v>
       </c>
       <c r="T9" t="n">
-        <v>2232.610846175226</v>
+        <v>2232.610463172942</v>
       </c>
       <c r="U9" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.52116543401</v>
       </c>
       <c r="V9" t="n">
-        <v>1769.368633815395</v>
+        <v>1769.369057202267</v>
       </c>
       <c r="W9" t="n">
-        <v>1515.131277087193</v>
+        <v>1515.131700474065</v>
       </c>
       <c r="X9" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.280200268533</v>
       </c>
       <c r="Y9" t="n">
-        <v>1099.519478116707</v>
+        <v>1099.519901503579</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>871.5518826881197</v>
+        <v>549.8365243120199</v>
       </c>
       <c r="C10" t="n">
-        <v>702.6156997602128</v>
+        <v>380.9003413841131</v>
       </c>
       <c r="D10" t="n">
-        <v>552.499060347877</v>
+        <v>325.3221647811335</v>
       </c>
       <c r="E10" t="n">
-        <v>404.5859667654839</v>
+        <v>325.3221647811335</v>
       </c>
       <c r="F10" t="n">
-        <v>257.6960192675735</v>
+        <v>325.3221647811335</v>
       </c>
       <c r="G10" t="n">
-        <v>157.1019332386097</v>
+        <v>157.3459760430229</v>
       </c>
       <c r="H10" t="n">
-        <v>157.1019332386097</v>
+        <v>157.3459760430229</v>
       </c>
       <c r="I10" t="n">
-        <v>51.24678656800311</v>
+        <v>51.7998553228197</v>
       </c>
       <c r="J10" t="n">
-        <v>76.715959553122</v>
+        <v>77.98108068080545</v>
       </c>
       <c r="K10" t="n">
-        <v>248.4064713020476</v>
+        <v>250.8417132121971</v>
       </c>
       <c r="L10" t="n">
-        <v>523.6376499693235</v>
+        <v>527.5702436225442</v>
       </c>
       <c r="M10" t="n">
-        <v>824.2194607096588</v>
+        <v>829.7308018317419</v>
       </c>
       <c r="N10" t="n">
-        <v>1123.088724245823</v>
+        <v>1130.141273750633</v>
       </c>
       <c r="O10" t="n">
-        <v>1383.126566999035</v>
+        <v>1391.602671897099</v>
       </c>
       <c r="P10" t="n">
-        <v>1582.113182171024</v>
+        <v>1591.80738463481</v>
       </c>
       <c r="Q10" t="n">
-        <v>1636.446120074497</v>
+        <v>1646.983670153878</v>
       </c>
       <c r="R10" t="n">
-        <v>1636.446120074497</v>
+        <v>1544.862307910904</v>
       </c>
       <c r="S10" t="n">
-        <v>1636.446120074497</v>
+        <v>1544.862307910904</v>
       </c>
       <c r="T10" t="n">
-        <v>1636.446120074497</v>
+        <v>1321.927733452885</v>
       </c>
       <c r="U10" t="n">
-        <v>1636.446120074497</v>
+        <v>1321.927733452885</v>
       </c>
       <c r="V10" t="n">
-        <v>1381.76163186861</v>
+        <v>1067.243245246998</v>
       </c>
       <c r="W10" t="n">
-        <v>1092.34446183165</v>
+        <v>777.8260752100373</v>
       </c>
       <c r="X10" t="n">
-        <v>1092.34446183165</v>
+        <v>549.8365243120199</v>
       </c>
       <c r="Y10" t="n">
-        <v>871.5518826881197</v>
+        <v>549.8365243120199</v>
       </c>
     </row>
     <row r="11">
@@ -5021,40 +5023,40 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168609</v>
+        <v>793.773653616861</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
         <v>4194.413870694707</v>
@@ -5115,28 +5117,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J12" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="K12" t="n">
-        <v>95.58405025273903</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L12" t="n">
-        <v>542.9134462654469</v>
+        <v>924.8344286397185</v>
       </c>
       <c r="M12" t="n">
-        <v>1140.291933891999</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N12" t="n">
-        <v>1767.889897446606</v>
+        <v>2149.810879820877</v>
       </c>
       <c r="O12" t="n">
-        <v>2319.799627685893</v>
+        <v>2149.810879820877</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>779.6143379232838</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="C13" t="n">
-        <v>779.6143379232838</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="D13" t="n">
-        <v>779.6143379232838</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408906</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T13" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U13" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V13" t="n">
-        <v>1616.556199993915</v>
+        <v>1551.549009249638</v>
       </c>
       <c r="W13" t="n">
-        <v>1410.044932795071</v>
+        <v>1262.131839212678</v>
       </c>
       <c r="X13" t="n">
-        <v>1182.055381897054</v>
+        <v>1034.14228831466</v>
       </c>
       <c r="Y13" t="n">
-        <v>961.2628027535235</v>
+        <v>813.3497091711303</v>
       </c>
     </row>
     <row r="14">
@@ -5258,40 +5260,40 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362684</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111706</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075799</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694707</v>
@@ -5352,25 +5354,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K15" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L15" t="n">
-        <v>579.1554649516142</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1176.533952578166</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N15" t="n">
-        <v>1804.131916132773</v>
+        <v>1702.07903472198</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190825</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P15" t="n">
         <v>2319.799627685893</v>
@@ -5410,13 +5412,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>808.8888553856862</v>
+        <v>809.0422355233313</v>
       </c>
       <c r="C16" t="n">
-        <v>639.9526724577793</v>
+        <v>640.1060525954244</v>
       </c>
       <c r="D16" t="n">
-        <v>637.9025067654818</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="E16" t="n">
         <v>489.9894131830887</v>
@@ -5425,61 +5427,61 @@
         <v>343.0994656851783</v>
       </c>
       <c r="G16" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>2044.506784258106</v>
+        <v>2091.001250463528</v>
       </c>
       <c r="U16" t="n">
-        <v>1755.431557602304</v>
+        <v>1801.926023807726</v>
       </c>
       <c r="V16" t="n">
-        <v>1500.747069396417</v>
+        <v>1547.241535601839</v>
       </c>
       <c r="W16" t="n">
-        <v>1211.329899359456</v>
+        <v>1257.824365564879</v>
       </c>
       <c r="X16" t="n">
-        <v>1211.329899359456</v>
+        <v>1029.834814666861</v>
       </c>
       <c r="Y16" t="n">
-        <v>990.5373202159259</v>
+        <v>809.0422355233313</v>
       </c>
     </row>
     <row r="17">
@@ -5504,28 +5506,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I17" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
@@ -5552,10 +5554,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5607,13 +5609,13 @@
         <v>1814.118720444889</v>
       </c>
       <c r="O18" t="n">
-        <v>1859.536823237711</v>
+        <v>2366.028450684176</v>
       </c>
       <c r="P18" t="n">
-        <v>2283.159972732779</v>
+        <v>2366.028450684176</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>803.2707707770319</v>
+        <v>552.3777707160738</v>
       </c>
       <c r="C19" t="n">
-        <v>803.2707707770319</v>
+        <v>383.4415877881669</v>
       </c>
       <c r="D19" t="n">
-        <v>653.1541313646961</v>
+        <v>383.4415877881669</v>
       </c>
       <c r="E19" t="n">
-        <v>505.241037782303</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F19" t="n">
-        <v>358.3510902843926</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5710,13 +5712,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1433.701365648819</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>1205.711814750802</v>
+        <v>954.8188146898436</v>
       </c>
       <c r="Y19" t="n">
-        <v>984.9192356072716</v>
+        <v>734.0262355463135</v>
       </c>
     </row>
     <row r="20">
@@ -5729,31 +5731,31 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192601</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111726</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5768,22 +5770,22 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V20" t="n">
         <v>3820.749612123003</v>
@@ -5826,28 +5828,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K21" t="n">
-        <v>506.2737913123336</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L21" t="n">
-        <v>506.2737913123336</v>
+        <v>589.1422692637307</v>
       </c>
       <c r="M21" t="n">
-        <v>1103.652278938886</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N21" t="n">
-        <v>1731.250242493492</v>
+        <v>1540.888753373306</v>
       </c>
       <c r="O21" t="n">
-        <v>2283.159972732779</v>
+        <v>2092.798483612593</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q21" t="n">
         <v>2516.421633107662</v>
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1090.767110287001</v>
+        <v>915.1035305473703</v>
       </c>
       <c r="C22" t="n">
-        <v>929.7309773356195</v>
+        <v>746.1673476194634</v>
       </c>
       <c r="D22" t="n">
-        <v>779.6143379232838</v>
+        <v>596.0507082071276</v>
       </c>
       <c r="E22" t="n">
-        <v>631.7012443408906</v>
+        <v>448.1376146247345</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429803</v>
+        <v>301.2476671268241</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>134.0515678417041</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>2044.506784258106</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="U22" t="n">
-        <v>2044.506784258106</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="V22" t="n">
-        <v>1789.822296052219</v>
+        <v>1653.302830625878</v>
       </c>
       <c r="W22" t="n">
-        <v>1500.405126015258</v>
+        <v>1363.885660588918</v>
       </c>
       <c r="X22" t="n">
-        <v>1272.415575117241</v>
+        <v>1135.8961096909</v>
       </c>
       <c r="Y22" t="n">
-        <v>1272.415575117241</v>
+        <v>915.1035305473703</v>
       </c>
     </row>
     <row r="23">
@@ -5963,43 +5965,43 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6008,7 +6010,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
@@ -6020,19 +6022,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="24">
@@ -6063,28 +6065,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>95.58405025273903</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>95.58405025273903</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L24" t="n">
-        <v>590.9096564684977</v>
+        <v>352.5519571452614</v>
       </c>
       <c r="M24" t="n">
-        <v>1188.28814409505</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N24" t="n">
-        <v>1815.886107649656</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O24" t="n">
-        <v>2319.799627685893</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P24" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.061288060775</v>
@@ -6121,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>916.3099000622261</v>
+        <v>768.5380889459582</v>
       </c>
       <c r="C25" t="n">
-        <v>747.3737171343192</v>
+        <v>700.7543264856228</v>
       </c>
       <c r="D25" t="n">
-        <v>597.2570777219835</v>
+        <v>550.637687073287</v>
       </c>
       <c r="E25" t="n">
-        <v>449.3439841395904</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F25" t="n">
-        <v>302.45403664168</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G25" t="n">
-        <v>135.2579373565599</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>135.2579373565599</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6172,25 +6174,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2379.917379832663</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>2090.842153176861</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1836.157664970974</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="W25" t="n">
-        <v>1546.740494934013</v>
+        <v>1398.968683817745</v>
       </c>
       <c r="X25" t="n">
-        <v>1318.750944035996</v>
+        <v>1170.979132919728</v>
       </c>
       <c r="Y25" t="n">
-        <v>1097.958364892466</v>
+        <v>950.1865537761979</v>
       </c>
     </row>
     <row r="26">
@@ -6200,43 +6202,43 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168602</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
@@ -6245,19 +6247,19 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V26" t="n">
         <v>3820.749612123002</v>
@@ -6269,7 +6271,7 @@
         <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="27">
@@ -6297,34 +6299,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.584050252739</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L27" t="n">
-        <v>738.7889117913853</v>
+        <v>739.5354516872168</v>
       </c>
       <c r="M27" t="n">
-        <v>1336.167399417937</v>
+        <v>1336.913939313768</v>
       </c>
       <c r="N27" t="n">
-        <v>1963.765362972544</v>
+        <v>1964.511902868375</v>
       </c>
       <c r="O27" t="n">
-        <v>2319.799627685893</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P27" t="n">
-        <v>2319.799627685893</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400712</v>
+        <v>3023.484406741616</v>
       </c>
       <c r="C28" t="n">
-        <v>513.8536007400712</v>
+        <v>3023.484406741616</v>
       </c>
       <c r="D28" t="n">
-        <v>513.8536007400712</v>
+        <v>3023.484406741616</v>
       </c>
       <c r="E28" t="n">
-        <v>513.8536007400712</v>
+        <v>2875.571313159222</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429803</v>
+        <v>2728.681365661312</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578602</v>
+        <v>2561.485266376192</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>2419.77343521839</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>2417.922750296628</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>2679.612012822166</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>3070.010606998107</v>
       </c>
       <c r="M28" t="n">
-        <v>1248.150240910809</v>
+        <v>3492.020309729141</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>3909.430181389149</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>4278.959462098134</v>
       </c>
       <c r="P28" t="n">
-        <v>2327.764848853361</v>
+        <v>4571.634917671693</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>4668.755606690676</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>4485.900772345581</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>4266.299307368522</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854706</v>
+        <v>3977.22408071272</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.701365648819</v>
+        <v>3722.539592506833</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611858</v>
+        <v>3433.122422469873</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138411</v>
+        <v>3205.132871571856</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703109</v>
+        <v>3205.132871571856</v>
       </c>
     </row>
     <row r="29">
@@ -6437,22 +6439,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
@@ -6476,7 +6478,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6494,19 +6496,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="30">
@@ -6552,16 +6554,16 @@
         <v>1186.520756890282</v>
       </c>
       <c r="N30" t="n">
-        <v>1344.266747951538</v>
+        <v>1814.118720444889</v>
       </c>
       <c r="O30" t="n">
-        <v>1896.176478190825</v>
+        <v>2366.028450684176</v>
       </c>
       <c r="P30" t="n">
-        <v>2319.799627685893</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400712</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C31" t="n">
-        <v>344.9174178121643</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D31" t="n">
-        <v>194.8007783998286</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E31" t="n">
-        <v>93.81666304797187</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F31" t="n">
-        <v>93.81666304797187</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G31" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6646,25 +6648,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648819</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611858</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138411</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703109</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="32">
@@ -6686,31 +6688,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6719,7 +6721,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
@@ -6774,31 +6776,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K33" t="n">
-        <v>429.5088224239596</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L33" t="n">
-        <v>924.8344286397182</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M33" t="n">
-        <v>1522.21291626627</v>
+        <v>1465.200520057987</v>
       </c>
       <c r="N33" t="n">
-        <v>2001.151557821488</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="O33" t="n">
-        <v>2553.061288060775</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,13 +6834,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3342.537229081859</v>
+        <v>3273.55150334755</v>
       </c>
       <c r="C34" t="n">
-        <v>3173.601046153952</v>
+        <v>3104.615320419643</v>
       </c>
       <c r="D34" t="n">
-        <v>3023.484406741616</v>
+        <v>2954.498681007307</v>
       </c>
       <c r="E34" t="n">
         <v>2875.571313159223</v>
@@ -6880,28 +6882,28 @@
         <v>4690.833152398593</v>
       </c>
       <c r="R34" t="n">
-        <v>4623.787448650995</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S34" t="n">
-        <v>4623.787448650995</v>
+        <v>4507.978318053498</v>
       </c>
       <c r="T34" t="n">
-        <v>4623.787448650995</v>
+        <v>4288.376853076439</v>
       </c>
       <c r="U34" t="n">
-        <v>4334.712221995193</v>
+        <v>3999.301626420637</v>
       </c>
       <c r="V34" t="n">
-        <v>4080.027733789307</v>
+        <v>3744.61713821475</v>
       </c>
       <c r="W34" t="n">
-        <v>3972.967823953646</v>
+        <v>3455.19996817779</v>
       </c>
       <c r="X34" t="n">
-        <v>3744.978273055629</v>
+        <v>3455.19996817779</v>
       </c>
       <c r="Y34" t="n">
-        <v>3524.185693912098</v>
+        <v>3455.19996817779</v>
       </c>
     </row>
     <row r="35">
@@ -6917,10 +6919,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
         <v>793.7736536168611</v>
@@ -6932,10 +6934,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
         <v>852.8523611075807</v>
@@ -6950,7 +6952,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -7020,19 +7022,19 @@
         <v>427.7414352191925</v>
       </c>
       <c r="L36" t="n">
-        <v>923.0670414349511</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M36" t="n">
-        <v>923.0670414349511</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N36" t="n">
-        <v>1344.266747951538</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O36" t="n">
-        <v>1896.176478190825</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P36" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
         <v>2553.061288060775</v>
@@ -7069,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3227.210417279773</v>
+        <v>3050.708758511721</v>
       </c>
       <c r="C37" t="n">
-        <v>3058.274234351866</v>
+        <v>2881.772575583814</v>
       </c>
       <c r="D37" t="n">
-        <v>2908.15759493953</v>
+        <v>2881.772575583814</v>
       </c>
       <c r="E37" t="n">
-        <v>2875.571313159223</v>
+        <v>2733.859482001421</v>
       </c>
       <c r="F37" t="n">
-        <v>2728.681365661313</v>
+        <v>2586.969534503511</v>
       </c>
       <c r="G37" t="n">
-        <v>2561.485266376193</v>
+        <v>2419.773435218391</v>
       </c>
       <c r="H37" t="n">
         <v>2419.773435218391</v>
@@ -7117,28 +7119,28 @@
         <v>4690.833152398593</v>
       </c>
       <c r="R37" t="n">
-        <v>4690.833152398593</v>
+        <v>4623.787448650995</v>
       </c>
       <c r="S37" t="n">
-        <v>4507.978318053498</v>
+        <v>4440.9326143059</v>
       </c>
       <c r="T37" t="n">
-        <v>4288.376853076439</v>
+        <v>4221.331149328841</v>
       </c>
       <c r="U37" t="n">
-        <v>3999.301626420637</v>
+        <v>3932.255922673039</v>
       </c>
       <c r="V37" t="n">
-        <v>3744.61713821475</v>
+        <v>3742.566972522452</v>
       </c>
       <c r="W37" t="n">
-        <v>3455.19996817779</v>
+        <v>3453.149802485491</v>
       </c>
       <c r="X37" t="n">
-        <v>3227.210417279773</v>
+        <v>3453.149802485491</v>
       </c>
       <c r="Y37" t="n">
-        <v>3227.210417279773</v>
+        <v>3232.357223341961</v>
       </c>
     </row>
     <row r="38">
@@ -7154,37 +7156,37 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
@@ -7202,7 +7204,7 @@
         <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U38" t="n">
         <v>4151.812499466573</v>
@@ -7248,31 +7250,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K39" t="n">
-        <v>427.7414352191925</v>
+        <v>221.3431781811722</v>
       </c>
       <c r="L39" t="n">
-        <v>923.0670414349511</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="M39" t="n">
-        <v>1231.938859683105</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N39" t="n">
-        <v>1859.536823237711</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>2977.325134535463</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="C40" t="n">
-        <v>2808.388951607556</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D40" t="n">
-        <v>2658.272312195221</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E40" t="n">
-        <v>2658.272312195221</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F40" t="n">
-        <v>2511.382364697311</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G40" t="n">
-        <v>2344.186265412191</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H40" t="n">
-        <v>2344.186265412191</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>4623.787448650995</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S40" t="n">
-        <v>4440.9326143059</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T40" t="n">
-        <v>4440.9326143059</v>
+        <v>2104.263230450254</v>
       </c>
       <c r="U40" t="n">
-        <v>4151.857387650098</v>
+        <v>2104.263230450254</v>
       </c>
       <c r="V40" t="n">
-        <v>3897.172899444211</v>
+        <v>1849.578742244367</v>
       </c>
       <c r="W40" t="n">
-        <v>3607.75572940725</v>
+        <v>1560.161572207407</v>
       </c>
       <c r="X40" t="n">
-        <v>3379.766178509233</v>
+        <v>1332.172021309389</v>
       </c>
       <c r="Y40" t="n">
-        <v>3158.973599365703</v>
+        <v>1111.379442165859</v>
       </c>
     </row>
     <row r="41">
@@ -7391,7 +7393,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
         <v>1204.759558406469</v>
@@ -7400,19 +7402,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7424,7 +7426,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7500,16 +7502,16 @@
         <v>1670.092171589158</v>
       </c>
       <c r="N42" t="n">
-        <v>1964.511902868375</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="O42" t="n">
-        <v>2516.421633107662</v>
+        <v>2222.001901828445</v>
       </c>
       <c r="P42" t="n">
-        <v>2516.421633107662</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>2985.713220456422</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C43" t="n">
-        <v>2816.777037528515</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D43" t="n">
-        <v>2666.660398116179</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E43" t="n">
-        <v>2646.594662309226</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F43" t="n">
-        <v>2646.594662309226</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G43" t="n">
-        <v>2479.398563024106</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H43" t="n">
-        <v>2337.686731866304</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>4440.9326143059</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>4221.331149328841</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U43" t="n">
-        <v>3932.255922673039</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="V43" t="n">
-        <v>3677.571434467152</v>
+        <v>1797.722346028744</v>
       </c>
       <c r="W43" t="n">
-        <v>3388.154264430192</v>
+        <v>1508.305175991783</v>
       </c>
       <c r="X43" t="n">
-        <v>3388.154264430192</v>
+        <v>1280.315625093766</v>
       </c>
       <c r="Y43" t="n">
-        <v>3167.361685286662</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="44">
@@ -7625,28 +7627,28 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F44" t="n">
-        <v>793.773653616861</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K44" t="n">
         <v>852.8523611075807</v>
@@ -7664,22 +7666,22 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R44" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V44" t="n">
         <v>3820.749612123003</v>
@@ -7722,28 +7724,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516142</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L45" t="n">
-        <v>1074.481071167373</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M45" t="n">
-        <v>1671.859558793925</v>
+        <v>840.8417932021785</v>
       </c>
       <c r="N45" t="n">
-        <v>1859.536823237711</v>
+        <v>1468.439756756785</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2020.349486996072</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2443.97263649114</v>
       </c>
       <c r="Q45" t="n">
         <v>2516.421633107662</v>
@@ -7780,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>2985.713220456422</v>
+        <v>2939.372134388645</v>
       </c>
       <c r="C46" t="n">
-        <v>2816.777037528515</v>
+        <v>2878.798005073648</v>
       </c>
       <c r="D46" t="n">
-        <v>2666.660398116179</v>
+        <v>2728.681365661313</v>
       </c>
       <c r="E46" t="n">
-        <v>2518.747304533786</v>
+        <v>2728.681365661313</v>
       </c>
       <c r="F46" t="n">
-        <v>2371.857357035876</v>
+        <v>2728.681365661313</v>
       </c>
       <c r="G46" t="n">
-        <v>2371.857357035876</v>
+        <v>2561.485266376193</v>
       </c>
       <c r="H46" t="n">
-        <v>2337.686731866304</v>
+        <v>2419.773435218391</v>
       </c>
       <c r="I46" t="n">
         <v>2337.686731866304</v>
@@ -7846,10 +7848,10 @@
         <v>3388.154264430192</v>
       </c>
       <c r="X46" t="n">
-        <v>3388.154264430192</v>
+        <v>3160.164713532175</v>
       </c>
       <c r="Y46" t="n">
-        <v>3167.361685286662</v>
+        <v>2939.372134388645</v>
       </c>
     </row>
   </sheetData>
@@ -7976,13 +7978,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>407.47518020374</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -7991,7 +7993,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>278.3120279356285</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -8000,7 +8002,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8058,19 +8060,19 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>231.2582814363238</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>128.636358304461</v>
       </c>
       <c r="M3" t="n">
-        <v>273.6534998179984</v>
+        <v>380.8926041660674</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -8304,10 +8306,10 @@
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>249.3877325071649</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>70.03064962107845</v>
+        <v>299.8549597144499</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
@@ -8316,7 +8318,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
-        <v>20.93778120154988</v>
+        <v>20.18437503906583</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8532,28 +8534,28 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>273.6534998179983</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>10.05242792961599</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>255.8421700460941</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
-        <v>20.93778120154988</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8696,7 +8698,7 @@
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>-1.26924431238921e-12</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
@@ -23422,7 +23424,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23464,7 +23466,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23473,10 +23475,10 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>116.6691671648106</v>
       </c>
       <c r="W13" t="n">
-        <v>82.07684380973541</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23650,16 +23652,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>146.5858089828379</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -23698,13 +23700,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>112.4047682534894</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23716,7 +23718,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23890,25 +23892,25 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>125.1956044930018</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23950,10 +23952,10 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>38.13892827624252</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24124,10 +24126,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>7.821049476759896</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -24142,10 +24144,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>100.462157100429</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,16 +24174,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24193,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24364,7 +24366,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>100.1408962628958</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -24373,16 +24375,16 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>40.23897475306337</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24412,16 +24414,16 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24607,10 +24609,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>116.6691671648112</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24646,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>44.51847645928465</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24667,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24844,19 +24846,19 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>46.45968844823102</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24886,13 +24888,13 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>111.7546635373313</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25081,7 +25083,7 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>68.29586847696554</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -25120,13 +25122,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25135,13 +25137,13 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>180.533687599287</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25309,16 +25311,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>114.173543684065</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -25327,7 +25329,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -25357,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25369,16 +25371,16 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>64.34558267474637</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25549,13 +25551,13 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -25564,10 +25566,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>74.83129810813824</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,16 +25596,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>59.15888173022665</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25792,10 +25794,10 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>126.5688841976858</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -25804,7 +25806,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25837,22 +25839,22 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>142.9753202488374</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26020,28 +26022,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>107.2784330767815</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>106.4657939283482</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26086,7 +26088,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>708722.7348207157</v>
+        <v>731535.1779719513</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>708722.7348207157</v>
+        <v>708528.912276098</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>708722.7348207157</v>
+        <v>708528.912276098</v>
       </c>
     </row>
     <row r="5">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>691564.1054216162</v>
+        <v>691564.1054216163</v>
       </c>
     </row>
     <row r="9">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>691564.1054216162</v>
+        <v>691564.1054216163</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>691564.1054216163</v>
+        <v>691564.1054216162</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>691564.1054216163</v>
+        <v>691564.1054216162</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>691564.1054216162</v>
+        <v>691564.1054216163</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>691564.1054216162</v>
+        <v>691564.1054216163</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>738937.5928778551</v>
+      </c>
+      <c r="C2" t="n">
+        <v>738937.5928778547</v>
+      </c>
+      <c r="D2" t="n">
         <v>738937.5928778546</v>
-      </c>
-      <c r="C2" t="n">
-        <v>738937.5928778546</v>
-      </c>
-      <c r="D2" t="n">
-        <v>738937.5928778544</v>
       </c>
       <c r="E2" t="n">
         <v>726431.9397210054</v>
       </c>
       <c r="F2" t="n">
-        <v>726431.9397210052</v>
+        <v>726431.9397210054</v>
       </c>
       <c r="G2" t="n">
         <v>726431.9397210054</v>
       </c>
       <c r="H2" t="n">
-        <v>726431.9397210055</v>
+        <v>726431.9397210053</v>
       </c>
       <c r="I2" t="n">
-        <v>726431.9397210055</v>
+        <v>726431.9397210056</v>
       </c>
       <c r="J2" t="n">
-        <v>726431.9397210056</v>
+        <v>726431.9397210052</v>
       </c>
       <c r="K2" t="n">
-        <v>726431.9397210057</v>
+        <v>726431.9397210059</v>
       </c>
       <c r="L2" t="n">
         <v>726431.9397210054</v>
       </c>
       <c r="M2" t="n">
-        <v>726431.9397210055</v>
+        <v>726431.9397210053</v>
       </c>
       <c r="N2" t="n">
-        <v>726431.9397210055</v>
+        <v>726431.9397210057</v>
       </c>
       <c r="O2" t="n">
-        <v>726431.9397210056</v>
+        <v>726431.9397210053</v>
       </c>
       <c r="P2" t="n">
-        <v>726431.9397210056</v>
+        <v>726431.939721005</v>
       </c>
     </row>
     <row r="3">
@@ -26363,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1114751.78357592</v>
+        <v>939682.9358753976</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172764.3597898931</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>507485.4416245458</v>
+        <v>500888.8677457511</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26381,31 +26383,31 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1.741016149026109e-10</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099826</v>
+        <v>169414.0168260478</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>1.655303094594274e-10</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>132607.2937289267</v>
+        <v>130884.4569042353</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>6.548361852765082e-11</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>1.513344614068046e-10</v>
       </c>
     </row>
     <row r="4">
@@ -26415,25 +26417,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>130705.5901165056</v>
+        <v>159785.83881516</v>
       </c>
       <c r="C4" t="n">
-        <v>130705.5901165055</v>
+        <v>129066.754725248</v>
       </c>
       <c r="D4" t="n">
-        <v>130705.5901165056</v>
+        <v>129066.754725248</v>
       </c>
       <c r="E4" t="n">
-        <v>6287.480531695101</v>
+        <v>6287.480531695024</v>
       </c>
       <c r="F4" t="n">
-        <v>6287.48053169507</v>
+        <v>6287.480531695052</v>
       </c>
       <c r="G4" t="n">
-        <v>6287.480531695068</v>
+        <v>6287.480531695051</v>
       </c>
       <c r="H4" t="n">
-        <v>6287.480531695059</v>
+        <v>6287.480531695051</v>
       </c>
       <c r="I4" t="n">
         <v>6287.480531695051</v>
@@ -26451,7 +26453,7 @@
         <v>6287.480531695051</v>
       </c>
       <c r="N4" t="n">
-        <v>6287.480531695051</v>
+        <v>6287.480531695104</v>
       </c>
       <c r="O4" t="n">
         <v>6287.480531695051</v>
@@ -26467,13 +26469,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>92937.77243984472</v>
+        <v>89345.07489699087</v>
       </c>
       <c r="C5" t="n">
-        <v>92937.77243984472</v>
+        <v>93481.08936150957</v>
       </c>
       <c r="D5" t="n">
-        <v>92937.77243984472</v>
+        <v>93481.08936150957</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26519,31 +26521,31 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-599457.5532544155</v>
+        <v>-449876.2567096935</v>
       </c>
       <c r="C6" t="n">
-        <v>515294.2303215044</v>
+        <v>343625.3890012039</v>
       </c>
       <c r="D6" t="n">
-        <v>515294.2303215041</v>
+        <v>516389.748791097</v>
       </c>
       <c r="E6" t="n">
-        <v>111536.4877408574</v>
+        <v>118133.0616196521</v>
       </c>
       <c r="F6" t="n">
+        <v>619021.9293654033</v>
+      </c>
+      <c r="G6" t="n">
+        <v>619021.9293654035</v>
+      </c>
+      <c r="H6" t="n">
         <v>619021.929365403</v>
       </c>
-      <c r="G6" t="n">
-        <v>619021.9293654033</v>
-      </c>
-      <c r="H6" t="n">
-        <v>619021.9293654034</v>
-      </c>
       <c r="I6" t="n">
-        <v>619021.9293654034</v>
+        <v>619021.9293654036</v>
       </c>
       <c r="J6" t="n">
-        <v>451416.7515554209</v>
+        <v>449607.9125393552</v>
       </c>
       <c r="K6" t="n">
         <v>619021.9293654036</v>
@@ -26552,16 +26554,16 @@
         <v>619021.9293654033</v>
       </c>
       <c r="M6" t="n">
-        <v>486414.6356364767</v>
+        <v>488137.4724611678</v>
       </c>
       <c r="N6" t="n">
-        <v>619021.9293654034</v>
+        <v>619021.9293654035</v>
       </c>
       <c r="O6" t="n">
-        <v>619021.9293654035</v>
+        <v>619021.929365403</v>
       </c>
       <c r="P6" t="n">
-        <v>619021.9293654035</v>
+        <v>619021.9293654028</v>
       </c>
     </row>
   </sheetData>
@@ -26719,13 +26721,13 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
     </row>
     <row r="3">
@@ -26735,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175393</v>
+        <v>749.9809564976097</v>
       </c>
       <c r="C3" t="n">
-        <v>934.0648921175393</v>
+        <v>939.7063906498443</v>
       </c>
       <c r="D3" t="n">
-        <v>934.0648921175393</v>
+        <v>939.7063906498444</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26787,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000389</v>
+        <v>647.4981915352464</v>
       </c>
       <c r="C4" t="n">
-        <v>640.5848321000389</v>
+        <v>647.4981915352462</v>
       </c>
       <c r="D4" t="n">
-        <v>640.5848321000389</v>
+        <v>647.4981915352462</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26941,7 +26943,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -26957,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175393</v>
+        <v>749.9809564976097</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>189.7254341522346</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>433.9106082241344</v>
+        <v>428.2691096918296</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26975,7 +26977,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26984,7 +26986,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -26999,7 +27001,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
     </row>
     <row r="4">
@@ -27009,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000389</v>
+        <v>647.4981915352464</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>532.1234559996095</v>
+        <v>525.2100965644022</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000389</v>
+        <v>647.4981915352462</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996095</v>
+        <v>525.2100965644022</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000389</v>
+        <v>647.4981915352464</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996095</v>
+        <v>525.2100965644022</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,10 +27381,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>97.83812336734837</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -27391,13 +27393,13 @@
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>301.0185525624054</v>
+        <v>308.5974454495113</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>94.24014755885173</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27433,16 +27435,16 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.045250128462</v>
+        <v>251.1044530022292</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>93.93148976679782</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27534,10 +27536,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>4.109826178959111</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27546,16 +27548,16 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.6385546828073</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>114.7793764994863</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,28 +27584,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>3.4493800335987</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>200.4475243713015</v>
       </c>
       <c r="T4" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2271541212006</v>
+        <v>286.245260737819</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27613,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>153.057070419888</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -27622,7 +27624,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27631,10 +27633,10 @@
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247047</v>
+        <v>64.83556544767976</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,25 +27666,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>123.4522153987944</v>
+        <v>122.9354087744531</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>309.4794668873026</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27777,19 +27779,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>123.9313494271488</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>147.161060211447</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -27822,16 +27824,16 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>221.0657375930669</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -27853,7 +27855,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>324.0322102951957</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -27865,13 +27867,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247047</v>
+        <v>64.83556544767976</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27904,13 +27906,13 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>206.5589059457607</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>39.2788164734954</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -27919,7 +27921,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28014,19 +28016,19 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>93.59307818126258</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>66.71845487613002</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551288</v>
+        <v>147.161060211447</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -28056,16 +28058,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>194.6624603617375</v>
+        <v>194.4851693340911</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2271541212006</v>
+        <v>286.2265992197056</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -28074,10 +28076,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -30220,25 +30222,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -30271,25 +30273,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
     </row>
     <row r="39">
@@ -31039,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.75503474218106</v>
+        <v>3.014998820090891</v>
       </c>
       <c r="H2" t="n">
-        <v>38.45624955336179</v>
+        <v>30.87735666625584</v>
       </c>
       <c r="I2" t="n">
-        <v>144.7659768979354</v>
+        <v>116.2357420115542</v>
       </c>
       <c r="J2" t="n">
-        <v>318.70387994919</v>
+        <v>255.8942561066895</v>
       </c>
       <c r="K2" t="n">
-        <v>477.6545005857143</v>
+        <v>383.5191561611369</v>
       </c>
       <c r="L2" t="n">
-        <v>592.5726450767381</v>
+        <v>475.7894263014937</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730005</v>
+        <v>529.4074115682851</v>
       </c>
       <c r="N2" t="n">
-        <v>670.0202366342224</v>
+        <v>537.9737769658683</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166596</v>
+        <v>507.9933824485895</v>
       </c>
       <c r="P2" t="n">
-        <v>539.9786897190645</v>
+        <v>433.5605990775956</v>
       </c>
       <c r="Q2" t="n">
-        <v>405.5015080147052</v>
+        <v>325.5859538330904</v>
       </c>
       <c r="R2" t="n">
-        <v>235.8772011235312</v>
+        <v>189.3909196325346</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745099</v>
+        <v>68.70428561282124</v>
       </c>
       <c r="T2" t="n">
-        <v>16.4376645838976</v>
+        <v>13.19815733494788</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3004027793744847</v>
+        <v>0.2411999056072712</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.00912071134716</v>
+        <v>1.613166585674104</v>
       </c>
       <c r="H3" t="n">
-        <v>19.40387634380021</v>
+        <v>15.57979307743148</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436496</v>
+        <v>55.54104253307771</v>
       </c>
       <c r="J3" t="n">
-        <v>189.8178475575841</v>
+        <v>152.4088658859907</v>
       </c>
       <c r="K3" t="n">
-        <v>324.4289352178438</v>
+        <v>260.4910271261556</v>
       </c>
       <c r="L3" t="n">
-        <v>436.2347404177244</v>
+        <v>350.262332560511</v>
       </c>
       <c r="M3" t="n">
-        <v>509.0653662040589</v>
+        <v>408.7396212911972</v>
       </c>
       <c r="N3" t="n">
-        <v>522.5388116762073</v>
+        <v>419.5577428240732</v>
       </c>
       <c r="O3" t="n">
-        <v>478.0209264405675</v>
+        <v>383.8133674257154</v>
       </c>
       <c r="P3" t="n">
-        <v>383.6539365378626</v>
+        <v>308.0440649433295</v>
       </c>
       <c r="Q3" t="n">
-        <v>256.4624964168761</v>
+        <v>205.9192996028909</v>
       </c>
       <c r="R3" t="n">
-        <v>124.7417227624141</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
-        <v>37.31853601997902</v>
+        <v>29.96386179969222</v>
       </c>
       <c r="T3" t="n">
-        <v>8.098166376000172</v>
+        <v>6.502193386993425</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1061293806364542</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.684379313654579</v>
+        <v>1.352424675651427</v>
       </c>
       <c r="H4" t="n">
-        <v>14.97566335231072</v>
+        <v>12.02428484351906</v>
       </c>
       <c r="I4" t="n">
-        <v>50.65387972335772</v>
+        <v>40.67109842777202</v>
       </c>
       <c r="J4" t="n">
-        <v>119.0856174753787</v>
+        <v>95.61642456855589</v>
       </c>
       <c r="K4" t="n">
-        <v>195.6942511682319</v>
+        <v>157.1271577711385</v>
       </c>
       <c r="L4" t="n">
-        <v>250.4212663227908</v>
+        <v>201.0686649600313</v>
       </c>
       <c r="M4" t="n">
-        <v>264.0341136849627</v>
+        <v>211.9987152932505</v>
       </c>
       <c r="N4" t="n">
-        <v>257.7559726067959</v>
+        <v>206.9578596840044</v>
       </c>
       <c r="O4" t="n">
-        <v>238.0793597154673</v>
+        <v>191.15908051844</v>
       </c>
       <c r="P4" t="n">
-        <v>203.7180217169137</v>
+        <v>163.5696171351507</v>
       </c>
       <c r="Q4" t="n">
-        <v>141.0437987097484</v>
+        <v>113.2471244311391</v>
       </c>
       <c r="R4" t="n">
-        <v>75.73581895759587</v>
+        <v>60.80993132519961</v>
       </c>
       <c r="S4" t="n">
-        <v>29.35413767523479</v>
+        <v>23.56907366567077</v>
       </c>
       <c r="T4" t="n">
-        <v>7.196893431069562</v>
+        <v>5.778541795965187</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.07376861867189612</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.75503474218106</v>
+        <v>3.777714133265702</v>
       </c>
       <c r="H5" t="n">
-        <v>38.45624955336179</v>
+        <v>38.68851486730739</v>
       </c>
       <c r="I5" t="n">
-        <v>144.7659768979354</v>
+        <v>145.6403241227262</v>
       </c>
       <c r="J5" t="n">
-        <v>318.70387994919</v>
+        <v>320.6287649182602</v>
       </c>
       <c r="K5" t="n">
-        <v>477.6545005857143</v>
+        <v>480.5394041793975</v>
       </c>
       <c r="L5" t="n">
-        <v>592.5726450767381</v>
+        <v>596.1516230853279</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730005</v>
+        <v>663.3335468027918</v>
       </c>
       <c r="N5" t="n">
-        <v>670.0202366342224</v>
+        <v>674.066977083933</v>
       </c>
       <c r="O5" t="n">
-        <v>632.6811099166596</v>
+        <v>636.5023321712722</v>
       </c>
       <c r="P5" t="n">
-        <v>539.9786897190645</v>
+        <v>543.2400145062751</v>
       </c>
       <c r="Q5" t="n">
-        <v>405.5015080147052</v>
+        <v>407.9506271086969</v>
       </c>
       <c r="R5" t="n">
-        <v>235.8772011235312</v>
+        <v>237.3018354237519</v>
       </c>
       <c r="S5" t="n">
-        <v>85.56785418745099</v>
+        <v>86.08466081179229</v>
       </c>
       <c r="T5" t="n">
-        <v>16.4376645838976</v>
+        <v>16.53694361837062</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3004027793744847</v>
+        <v>0.3022171306612562</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.00912071134716</v>
+        <v>2.021255255360042</v>
       </c>
       <c r="H6" t="n">
-        <v>19.40387634380021</v>
+        <v>19.5210704925562</v>
       </c>
       <c r="I6" t="n">
-        <v>69.17367361436496</v>
+        <v>69.59146383586112</v>
       </c>
       <c r="J6" t="n">
-        <v>189.8178475575841</v>
+        <v>190.9642958583802</v>
       </c>
       <c r="K6" t="n">
-        <v>324.4289352178438</v>
+        <v>326.388397967503</v>
       </c>
       <c r="L6" t="n">
-        <v>436.2347404177244</v>
+        <v>438.8694798973636</v>
       </c>
       <c r="M6" t="n">
-        <v>509.0653662040589</v>
+        <v>512.1399829041651</v>
       </c>
       <c r="N6" t="n">
-        <v>522.5388116762073</v>
+        <v>525.6948043315577</v>
       </c>
       <c r="O6" t="n">
-        <v>478.0209264405675</v>
+        <v>480.908043147001</v>
       </c>
       <c r="P6" t="n">
-        <v>383.6539365378626</v>
+        <v>385.9711022274804</v>
       </c>
       <c r="Q6" t="n">
-        <v>256.4624964168761</v>
+        <v>258.0114603157837</v>
       </c>
       <c r="R6" t="n">
-        <v>124.7417227624141</v>
+        <v>125.4951289248981</v>
       </c>
       <c r="S6" t="n">
-        <v>37.31853601997902</v>
+        <v>37.54392985284989</v>
       </c>
       <c r="T6" t="n">
-        <v>8.098166376000172</v>
+        <v>8.147077103841571</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1329773194315818</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.684379313654579</v>
+        <v>1.694552507729227</v>
       </c>
       <c r="H7" t="n">
-        <v>14.97566335231072</v>
+        <v>15.06611229599259</v>
       </c>
       <c r="I7" t="n">
-        <v>50.65387972335772</v>
+        <v>50.95981541425714</v>
       </c>
       <c r="J7" t="n">
-        <v>119.0856174753787</v>
+        <v>119.8048622964563</v>
       </c>
       <c r="K7" t="n">
-        <v>195.6942511682319</v>
+        <v>196.8761913525411</v>
       </c>
       <c r="L7" t="n">
-        <v>250.4212663227908</v>
+        <v>251.9337428309435</v>
       </c>
       <c r="M7" t="n">
-        <v>264.0341136849627</v>
+        <v>265.6288080979551</v>
       </c>
       <c r="N7" t="n">
-        <v>257.7559726067959</v>
+        <v>259.3127487509645</v>
       </c>
       <c r="O7" t="n">
-        <v>238.0793597154673</v>
+        <v>239.5172944561276</v>
       </c>
       <c r="P7" t="n">
-        <v>203.7180217169137</v>
+        <v>204.9484232984512</v>
       </c>
       <c r="Q7" t="n">
-        <v>141.0437987097484</v>
+        <v>141.8956649881265</v>
       </c>
       <c r="R7" t="n">
-        <v>75.73581895759587</v>
+        <v>76.19324275662505</v>
       </c>
       <c r="S7" t="n">
-        <v>29.35413767523479</v>
+        <v>29.53142870288116</v>
       </c>
       <c r="T7" t="n">
-        <v>7.196893431069562</v>
+        <v>7.240360714843059</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.09243013678523068</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.75503474218106</v>
+        <v>3.777714133265703</v>
       </c>
       <c r="H8" t="n">
-        <v>38.45624955336179</v>
+        <v>38.68851486730739</v>
       </c>
       <c r="I8" t="n">
-        <v>144.7659768979354</v>
+        <v>145.6403241227262</v>
       </c>
       <c r="J8" t="n">
-        <v>318.70387994919</v>
+        <v>320.6287649182603</v>
       </c>
       <c r="K8" t="n">
-        <v>477.6545005857143</v>
+        <v>480.5394041793976</v>
       </c>
       <c r="L8" t="n">
-        <v>592.5726450767381</v>
+        <v>596.151623085328</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730005</v>
+        <v>663.3335468027918</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342224</v>
+        <v>674.0669770839331</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166596</v>
+        <v>636.5023321712722</v>
       </c>
       <c r="P8" t="n">
-        <v>539.9786897190645</v>
+        <v>543.2400145062751</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.5015080147052</v>
+        <v>407.950627108697</v>
       </c>
       <c r="R8" t="n">
-        <v>235.8772011235312</v>
+        <v>237.3018354237519</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745099</v>
+        <v>86.08466081179229</v>
       </c>
       <c r="T8" t="n">
-        <v>16.4376645838976</v>
+        <v>16.53694361837062</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3004027793744847</v>
+        <v>0.3022171306612562</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.00912071134716</v>
+        <v>2.021255255360042</v>
       </c>
       <c r="H9" t="n">
-        <v>19.40387634380021</v>
+        <v>19.52107049255621</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436496</v>
+        <v>69.59146383586112</v>
       </c>
       <c r="J9" t="n">
-        <v>189.8178475575841</v>
+        <v>190.9642958583802</v>
       </c>
       <c r="K9" t="n">
-        <v>324.4289352178438</v>
+        <v>326.3883979675031</v>
       </c>
       <c r="L9" t="n">
-        <v>436.2347404177244</v>
+        <v>438.8694798973637</v>
       </c>
       <c r="M9" t="n">
-        <v>509.0653662040589</v>
+        <v>512.1399829041651</v>
       </c>
       <c r="N9" t="n">
-        <v>522.5388116762073</v>
+        <v>525.6948043315577</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405675</v>
+        <v>480.908043147001</v>
       </c>
       <c r="P9" t="n">
-        <v>383.6539365378626</v>
+        <v>385.9711022274805</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.4624964168761</v>
+        <v>258.0114603157837</v>
       </c>
       <c r="R9" t="n">
-        <v>124.7417227624141</v>
+        <v>125.4951289248981</v>
       </c>
       <c r="S9" t="n">
-        <v>37.31853601997902</v>
+        <v>37.54392985284989</v>
       </c>
       <c r="T9" t="n">
-        <v>8.098166376000172</v>
+        <v>8.147077103841573</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1329773194315818</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.684379313654579</v>
+        <v>1.694552507729227</v>
       </c>
       <c r="H10" t="n">
-        <v>14.97566335231072</v>
+        <v>15.0661122959926</v>
       </c>
       <c r="I10" t="n">
-        <v>50.65387972335772</v>
+        <v>50.95981541425714</v>
       </c>
       <c r="J10" t="n">
-        <v>119.0856174753787</v>
+        <v>119.8048622964564</v>
       </c>
       <c r="K10" t="n">
-        <v>195.6942511682319</v>
+        <v>196.8761913525411</v>
       </c>
       <c r="L10" t="n">
-        <v>250.4212663227908</v>
+        <v>251.9337428309435</v>
       </c>
       <c r="M10" t="n">
-        <v>264.0341136849627</v>
+        <v>265.6288080979551</v>
       </c>
       <c r="N10" t="n">
-        <v>257.7559726067959</v>
+        <v>259.3127487509646</v>
       </c>
       <c r="O10" t="n">
-        <v>238.0793597154673</v>
+        <v>239.5172944561276</v>
       </c>
       <c r="P10" t="n">
-        <v>203.7180217169137</v>
+        <v>204.9484232984512</v>
       </c>
       <c r="Q10" t="n">
-        <v>141.0437987097484</v>
+        <v>141.8956649881265</v>
       </c>
       <c r="R10" t="n">
-        <v>75.73581895759587</v>
+        <v>76.19324275662505</v>
       </c>
       <c r="S10" t="n">
-        <v>29.35413767523479</v>
+        <v>29.53142870288116</v>
       </c>
       <c r="T10" t="n">
-        <v>7.196893431069562</v>
+        <v>7.24036071484306</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.0924301367852307</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,10 +31831,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
         <v>101.3076196007749</v>
@@ -31841,37 +31843,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
-        <v>590.4022545401851</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>541.2980521010957</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,10 +32068,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
         <v>101.3076196007749</v>
@@ -32078,37 +32080,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>235.5705495535876</v>
+        <v>338.6542681503479</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32327,16 +32329,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>188.4731159523455</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>328.9038320421819</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32461,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>401.521336481369</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>489.289183278307</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32783,16 +32785,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>248.7449369209195</v>
       </c>
       <c r="M24" t="n">
         <v>745.5466476862121</v>
@@ -32801,13 +32803,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>651.5998000366021</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
@@ -32935,37 +32937,37 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H26" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J26" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R26" t="n">
         <v>345.4516222043725</v>
@@ -32974,10 +32976,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U26" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33020,40 +33022,40 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K27" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>637.8521160493924</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O27" t="n">
-        <v>502.2268148619681</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.689256441856</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T27" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U27" t="n">
         <v>0.1935814387275954</v>
@@ -33099,28 +33101,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J28" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N28" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P28" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q28" t="n">
         <v>206.5643005515927</v>
@@ -33129,7 +33131,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
@@ -33272,19 +33274,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>290.6810969936921</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>285.8867128925984</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33494,7 +33496,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
         <v>126.8376266666667</v>
@@ -33506,22 +33508,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>689.7436082887214</v>
       </c>
       <c r="N33" t="n">
-        <v>615.1181176946646</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33740,13 +33742,13 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M36" t="n">
-        <v>142.1340339220183</v>
+        <v>669.5976799347666</v>
       </c>
       <c r="N36" t="n">
-        <v>556.7959610899863</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
         <v>700.0808204437243</v>
@@ -33755,7 +33757,7 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
@@ -33968,25 +33970,25 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>264.8708611242914</v>
       </c>
       <c r="L39" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>454.1257695262137</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
         <v>561.8765786214698</v>
@@ -33995,7 +33997,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34220,19 +34222,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>428.7353800421384</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O42" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>232.75998908852</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34357,7 +34359,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34369,31 +34371,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
         <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N45" t="n">
-        <v>320.9147064709964</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>213.1625787491746</v>
       </c>
       <c r="R45" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>137.6579754225037</v>
+        <v>243.944966752077</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407338</v>
+        <v>163.4293051161564</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067509</v>
+        <v>647.4981915352464</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457278</v>
+        <v>299.0611783410124</v>
       </c>
       <c r="N2" t="n">
-        <v>440.6071730376315</v>
+        <v>308.5607133692774</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949728</v>
+        <v>556.2071989625313</v>
       </c>
       <c r="P2" t="n">
-        <v>308.745693963795</v>
+        <v>202.327603322326</v>
       </c>
       <c r="Q2" t="n">
-        <v>183.1958181402557</v>
+        <v>103.2802639586409</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939907</v>
+        <v>39.52180169138492</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,31 +34777,31 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>62.98022089091745</v>
+        <v>25.57123921932399</v>
       </c>
       <c r="K3" t="n">
-        <v>417.8457776798087</v>
+        <v>387.1148251643752</v>
       </c>
       <c r="L3" t="n">
-        <v>297.6803606378502</v>
+        <v>340.3443110850978</v>
       </c>
       <c r="M3" t="n">
-        <v>640.5848321000389</v>
+        <v>647.4981915352464</v>
       </c>
       <c r="N3" t="n">
-        <v>391.197099592874</v>
+        <v>288.2160307407399</v>
       </c>
       <c r="O3" t="n">
-        <v>335.4246819961231</v>
+        <v>635.0794422580004</v>
       </c>
       <c r="P3" t="n">
-        <v>249.6795291235323</v>
+        <v>174.0696575289993</v>
       </c>
       <c r="Q3" t="n">
-        <v>116.4807223308546</v>
+        <v>65.93752551686939</v>
       </c>
       <c r="R3" t="n">
-        <v>24.58388860977094</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34854,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870595</v>
+        <v>2.257244451883111</v>
       </c>
       <c r="K4" t="n">
-        <v>173.4247593423491</v>
+        <v>134.8576659452556</v>
       </c>
       <c r="L4" t="n">
-        <v>278.011291583107</v>
+        <v>228.6586902203474</v>
       </c>
       <c r="M4" t="n">
-        <v>303.6179906468033</v>
+        <v>251.5825922550911</v>
       </c>
       <c r="N4" t="n">
-        <v>301.8881449860245</v>
+        <v>251.090032063233</v>
       </c>
       <c r="O4" t="n">
-        <v>262.664487629507</v>
+        <v>215.7442084324796</v>
       </c>
       <c r="P4" t="n">
-        <v>200.9965809818072</v>
+        <v>160.8481764000442</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.88175545805406</v>
+        <v>27.08508117944467</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>137.6579754225037</v>
+        <v>139.5828603915739</v>
       </c>
       <c r="K5" t="n">
-        <v>257.5646495407338</v>
+        <v>260.449553134417</v>
       </c>
       <c r="L5" t="n">
-        <v>356.8062301067509</v>
+        <v>360.3852081153406</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457278</v>
+        <v>432.9873135755191</v>
       </c>
       <c r="N5" t="n">
-        <v>440.6071730376315</v>
+        <v>444.6539134873421</v>
       </c>
       <c r="O5" t="n">
-        <v>402.5828984949728</v>
+        <v>406.4041207495854</v>
       </c>
       <c r="P5" t="n">
-        <v>308.745693963795</v>
+        <v>312.0070187510055</v>
       </c>
       <c r="Q5" t="n">
-        <v>183.1958181402557</v>
+        <v>185.6449372342475</v>
       </c>
       <c r="R5" t="n">
-        <v>20.29166330939907</v>
+        <v>21.71629760961977</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>62.98022089091745</v>
+        <v>64.12666919171349</v>
       </c>
       <c r="K6" t="n">
-        <v>186.5874962434848</v>
+        <v>188.546958993144</v>
       </c>
       <c r="L6" t="n">
-        <v>297.6803606378502</v>
+        <v>300.3151001174895</v>
       </c>
       <c r="M6" t="n">
-        <v>366.9313322820406</v>
+        <v>370.0059489821468</v>
       </c>
       <c r="N6" t="n">
-        <v>640.5848321000389</v>
+        <v>394.3530922482245</v>
       </c>
       <c r="O6" t="n">
-        <v>405.4553316172015</v>
+        <v>638.1667584170065</v>
       </c>
       <c r="P6" t="n">
-        <v>249.6795291235323</v>
+        <v>251.9966948131502</v>
       </c>
       <c r="Q6" t="n">
-        <v>326.5580100667037</v>
+        <v>328.1069739656112</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870595</v>
+        <v>26.44568217978357</v>
       </c>
       <c r="K7" t="n">
-        <v>173.4247593423491</v>
+        <v>174.6066995266582</v>
       </c>
       <c r="L7" t="n">
-        <v>278.011291583107</v>
+        <v>279.5237680912596</v>
       </c>
       <c r="M7" t="n">
-        <v>303.6179906468033</v>
+        <v>305.2126850597957</v>
       </c>
       <c r="N7" t="n">
-        <v>301.8881449860245</v>
+        <v>303.4449211301932</v>
       </c>
       <c r="O7" t="n">
-        <v>262.664487629507</v>
+        <v>264.1024223701672</v>
       </c>
       <c r="P7" t="n">
-        <v>200.9965809818072</v>
+        <v>202.2269825633446</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.88175545805406</v>
+        <v>55.73362173643208</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.6579754225037</v>
+        <v>139.582860391574</v>
       </c>
       <c r="K8" t="n">
-        <v>257.5646495407338</v>
+        <v>260.449553134417</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067509</v>
+        <v>360.3852081153407</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457278</v>
+        <v>432.9873135755191</v>
       </c>
       <c r="N8" t="n">
-        <v>440.6071730376315</v>
+        <v>444.6539134873422</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949728</v>
+        <v>406.4041207495854</v>
       </c>
       <c r="P8" t="n">
-        <v>308.745693963795</v>
+        <v>312.0070187510055</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.1958181402557</v>
+        <v>185.6449372342475</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939907</v>
+        <v>21.7162976096198</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,31 +35251,31 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>62.98022089091745</v>
+        <v>64.12666919171352</v>
       </c>
       <c r="K9" t="n">
-        <v>186.5874962434848</v>
+        <v>453.0121960057227</v>
       </c>
       <c r="L9" t="n">
-        <v>297.6803606378502</v>
+        <v>300.3151001174895</v>
       </c>
       <c r="M9" t="n">
-        <v>640.5848321000389</v>
+        <v>370.0059489821468</v>
       </c>
       <c r="N9" t="n">
-        <v>391.197099592874</v>
+        <v>404.4055201778405</v>
       </c>
       <c r="O9" t="n">
-        <v>335.4246819961231</v>
+        <v>338.3117987025566</v>
       </c>
       <c r="P9" t="n">
-        <v>505.5216991696265</v>
+        <v>251.9966948131502</v>
       </c>
       <c r="Q9" t="n">
-        <v>116.4807223308546</v>
+        <v>328.1069739656113</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>25.33729477225501</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35328,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870595</v>
+        <v>26.44568217978359</v>
       </c>
       <c r="K10" t="n">
-        <v>173.4247593423491</v>
+        <v>174.6066995266582</v>
       </c>
       <c r="L10" t="n">
-        <v>278.011291583107</v>
+        <v>279.5237680912597</v>
       </c>
       <c r="M10" t="n">
-        <v>303.6179906468033</v>
+        <v>305.2126850597957</v>
       </c>
       <c r="N10" t="n">
-        <v>301.8881449860245</v>
+        <v>303.4449211301932</v>
       </c>
       <c r="O10" t="n">
-        <v>262.664487629507</v>
+        <v>264.1024223701673</v>
       </c>
       <c r="P10" t="n">
-        <v>200.9965809818072</v>
+        <v>202.2269825633447</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.88175545805406</v>
+        <v>55.73362173643211</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35404,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902934</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35483,31 +35485,31 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>451.847874760311</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>407.3236446867654</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35641,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367776</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,7 +35722,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
@@ -35729,22 +35731,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>92.97430510914316</v>
+        <v>196.0580237059035</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35975,16 +35977,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>45.87687150790109</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>188.9220579561604</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36115,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902952</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,34 +36196,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>263.67989750701</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>357.9474711949737</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36358,7 +36360,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367776</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
         <v>632.0799921462688</v>
@@ -36431,16 +36433,16 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>110.1905571410453</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
@@ -36449,13 +36451,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>509.0035555921577</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36589,31 +36591,31 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J26" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L26" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N26" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P26" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R26" t="n">
         <v>129.8660843902404</v>
@@ -36668,34 +36670,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J27" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>499.2977362695183</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O27" t="n">
-        <v>359.6305704175236</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789208</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,7 +36752,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K28" t="n">
         <v>264.3325884096349</v>
@@ -36759,19 +36761,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N28" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P28" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q28" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36841,13 +36843,13 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193519</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
         <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q29" t="n">
         <v>371.5675334924728</v>
@@ -36920,19 +36922,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>159.3393849103587</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>151.9123054782682</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37066,7 +37068,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
         <v>479.454324036777</v>
@@ -37142,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -37154,22 +37156,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>547.609574366703</v>
       </c>
       <c r="N33" t="n">
-        <v>483.7764056113314</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37321,7 +37323,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
         <v>371.5675334924728</v>
@@ -37388,13 +37390,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>527.4636460127483</v>
       </c>
       <c r="N36" t="n">
-        <v>425.454249006653</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
         <v>557.4845759992799</v>
@@ -37403,7 +37405,7 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37543,7 +37545,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367776</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
         <v>632.0799921462688</v>
@@ -37616,25 +37618,25 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678996</v>
+        <v>127.0294221499325</v>
       </c>
       <c r="L39" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>311.9917356041954</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
         <v>427.9021712071395</v>
@@ -37643,7 +37645,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37795,7 +37797,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
         <v>371.5675334924728</v>
@@ -37868,19 +37870,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>297.3936679588052</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>98.78558167418976</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38011,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
         <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,34 +38092,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>189.5729943876631</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>73.18080466315305</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_9_36.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_9_36.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3389875.233742265</v>
+        <v>3385719.047434297</v>
       </c>
     </row>
     <row r="7">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -667,16 +667,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>412.2877386950441</v>
+        <v>12.28773869504415</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>70.66742361733911</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -709,25 +709,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>140.3157839734241</v>
+        <v>140.315783973424</v>
       </c>
       <c r="T2" t="n">
         <v>209.8976922291835</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.1044530022292</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>255.3094789506152</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -755,10 +755,10 @@
         <v>135.7303505775365</v>
       </c>
       <c r="H3" t="n">
-        <v>96.65565115906499</v>
+        <v>96.65565115906496</v>
       </c>
       <c r="I3" t="n">
-        <v>33.85559031833737</v>
+        <v>33.85559031833728</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -816,10 +816,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -828,13 +828,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.6385546828073</v>
       </c>
       <c r="H4" t="n">
-        <v>150.2028876639205</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -864,13 +864,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>113.0340800183712</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>28.15826128764012</v>
       </c>
       <c r="T4" t="n">
-        <v>222.1670476323163</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -879,13 +879,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -895,10 +895,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>229.6767712435926</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -910,13 +910,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>11.52502338186935</v>
+        <v>60.30861894766562</v>
       </c>
       <c r="H5" t="n">
-        <v>300.7862872484598</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>64.83556544767967</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,13 +946,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>122.935408774453</v>
       </c>
       <c r="T5" t="n">
-        <v>206.5589059457607</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.0434357771752</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -964,7 +964,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -995,7 +995,7 @@
         <v>92.71437374394026</v>
       </c>
       <c r="I6" t="n">
-        <v>19.80516901555396</v>
+        <v>19.80516901555391</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1053,19 +1053,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>166.2964268507295</v>
@@ -1074,7 +1074,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>104.4906595130011</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1101,25 +1101,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>101.1001486205444</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>194.4851693340911</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>220.7052287134384</v>
       </c>
       <c r="U7" t="n">
-        <v>65.16086162663871</v>
+        <v>286.2265992197056</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>186.7813025827028</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1132,13 +1132,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -1147,10 +1147,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>411.5250233818693</v>
+        <v>112.1414434103351</v>
       </c>
       <c r="H8" t="n">
-        <v>300.7862872484598</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1183,25 +1183,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>122.9354087744531</v>
+        <v>122.935408774453</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.0434357771752</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>288.4734419966395</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1232,7 +1232,7 @@
         <v>92.71437374394026</v>
       </c>
       <c r="I9" t="n">
-        <v>19.80516901555396</v>
+        <v>19.80516901555391</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1290,28 +1290,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>55.02239483694977</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>100.5827519824194</v>
       </c>
       <c r="G10" t="n">
-        <v>166.2964268507295</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>104.4906595130011</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1338,13 +1338,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.1001486205444</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7052287134384</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1359,7 +1359,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1372,7 +1372,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710094</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1420,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1527,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1587,7 +1587,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>135.4684761590174</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1596,7 +1596,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>186.4328067935332</v>
       </c>
     </row>
     <row r="14">
@@ -1660,7 +1660,7 @@
         <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576173</v>
       </c>
       <c r="U14" t="n">
         <v>250.9057009881286</v>
@@ -1764,28 +1764,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,13 +1812,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>9.146142788179931</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>105.0006820737989</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -1894,13 +1894,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -2010,13 +2010,13 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179931</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2067,7 +2067,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>187.5707271127946</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2095,7 +2095,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2238,25 +2238,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>110.0177171766861</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>39.83255574579487</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2292,7 +2292,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2478,13 +2478,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>67.10592483573207</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179931</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2535,7 +2535,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2569,7 +2569,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187857</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
         <v>283.1540821444137</v>
@@ -2605,13 +2605,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695531</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2651,7 +2651,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H27" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2715,16 +2715,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
@@ -2733,7 +2733,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856555</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>21.85677025083705</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2781,7 +2781,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>161.355549430153</v>
       </c>
     </row>
     <row r="29">
@@ -2842,13 +2842,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2955,13 +2955,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
@@ -2970,7 +2970,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,22 +2997,22 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>105.6507867899569</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>148.0280580960837</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3192,13 +3192,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>78.13809416960363</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
@@ -3207,7 +3207,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>9.146142788179931</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3252,10 +3252,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3271,13 +3271,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417118</v>
       </c>
       <c r="G35" t="n">
         <v>409.8033385187866</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3429,7 +3429,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -3441,10 +3441,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,25 +3471,25 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.1844743892441</v>
+        <v>172.026033500079</v>
       </c>
       <c r="V37" t="n">
-        <v>187.7920606490816</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3502,16 +3502,16 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
@@ -3553,16 +3553,16 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695521</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
-        <v>199.0222304576155</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
@@ -3571,7 +3571,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -3663,25 +3663,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,16 +3708,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>158.2465685970616</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3906,10 +3906,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
@@ -3951,13 +3951,13 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>216.4795114578124</v>
       </c>
       <c r="U43" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>109.1623230749906</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -3966,7 +3966,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4134,13 +4134,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>59.96838802184633</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4155,7 +4155,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4203,7 +4203,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>161.3555494301526</v>
       </c>
     </row>
   </sheetData>
@@ -4306,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1588.214085525555</v>
+        <v>869.766664864017</v>
       </c>
       <c r="C2" t="n">
-        <v>1219.251568585143</v>
+        <v>500.8041479236053</v>
       </c>
       <c r="D2" t="n">
-        <v>860.9858699783929</v>
+        <v>142.5384493168548</v>
       </c>
       <c r="E2" t="n">
-        <v>475.1976173801486</v>
+        <v>142.5384493168548</v>
       </c>
       <c r="F2" t="n">
-        <v>468.2521166309451</v>
+        <v>135.5929485676513</v>
       </c>
       <c r="G2" t="n">
-        <v>51.79985532281972</v>
+        <v>123.1810912999299</v>
       </c>
       <c r="H2" t="n">
         <v>51.79985532281972</v>
@@ -4330,25 +4330,25 @@
         <v>51.79985532281972</v>
       </c>
       <c r="J2" t="n">
-        <v>293.3053724073759</v>
+        <v>125.8997233870233</v>
       </c>
       <c r="K2" t="n">
-        <v>455.1003844723707</v>
+        <v>605.2571586872682</v>
       </c>
       <c r="L2" t="n">
-        <v>1096.123594092265</v>
+        <v>842.8799399054602</v>
       </c>
       <c r="M2" t="n">
-        <v>1392.194160649867</v>
+        <v>1138.950506463063</v>
       </c>
       <c r="N2" t="n">
-        <v>1697.669266885452</v>
+        <v>1444.425612698649</v>
       </c>
       <c r="O2" t="n">
-        <v>2248.314393858358</v>
+        <v>1719.541832015283</v>
       </c>
       <c r="P2" t="n">
-        <v>2448.61872114746</v>
+        <v>2238.426880394154</v>
       </c>
       <c r="Q2" t="n">
         <v>2550.866182466515</v>
@@ -4363,19 +4363,19 @@
         <v>2236.241780077746</v>
       </c>
       <c r="U2" t="n">
-        <v>2236.241780077746</v>
+        <v>1982.600918459333</v>
       </c>
       <c r="V2" t="n">
-        <v>2236.241780077746</v>
+        <v>1982.600918459333</v>
       </c>
       <c r="W2" t="n">
-        <v>1978.353417501367</v>
+        <v>1629.832263189219</v>
       </c>
       <c r="X2" t="n">
-        <v>1978.353417501367</v>
+        <v>1256.366504928139</v>
       </c>
       <c r="Y2" t="n">
-        <v>1588.214085525555</v>
+        <v>1256.366504928139</v>
       </c>
     </row>
     <row r="3">
@@ -4397,37 +4397,37 @@
         <v>467.2653143615296</v>
       </c>
       <c r="F3" t="n">
-        <v>320.7307563884145</v>
+        <v>320.7307563884146</v>
       </c>
       <c r="G3" t="n">
-        <v>183.6293921686807</v>
+        <v>183.6293921686806</v>
       </c>
       <c r="H3" t="n">
-        <v>85.99742130093824</v>
+        <v>85.9974213009382</v>
       </c>
       <c r="I3" t="n">
         <v>51.79985532281972</v>
       </c>
       <c r="J3" t="n">
-        <v>77.11538214995046</v>
+        <v>77.11538214995069</v>
       </c>
       <c r="K3" t="n">
-        <v>460.3590590626819</v>
+        <v>460.3590590626825</v>
       </c>
       <c r="L3" t="n">
-        <v>797.2999270369288</v>
+        <v>966.4070903028432</v>
       </c>
       <c r="M3" t="n">
-        <v>1438.323136656823</v>
+        <v>1230.346621798331</v>
       </c>
       <c r="N3" t="n">
-        <v>1723.657007090155</v>
+        <v>1515.680492231664</v>
       </c>
       <c r="O3" t="n">
-        <v>2352.385654925576</v>
+        <v>2144.409140067085</v>
       </c>
       <c r="P3" t="n">
-        <v>2524.714615879285</v>
+        <v>2316.738101020795</v>
       </c>
       <c r="Q3" t="n">
         <v>2589.992766140986</v>
@@ -4464,22 +4464,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>501.5496768669633</v>
+        <v>833.9774911502419</v>
       </c>
       <c r="C4" t="n">
-        <v>501.5496768669633</v>
+        <v>665.041308222335</v>
       </c>
       <c r="D4" t="n">
-        <v>351.4330374546275</v>
+        <v>514.9246688099993</v>
       </c>
       <c r="E4" t="n">
-        <v>203.5199438722344</v>
+        <v>367.0115752276062</v>
       </c>
       <c r="F4" t="n">
-        <v>203.5199438722344</v>
+        <v>220.1216277296958</v>
       </c>
       <c r="G4" t="n">
-        <v>203.5199438722344</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="H4" t="n">
         <v>51.79985532281972</v>
@@ -4488,52 +4488,52 @@
         <v>51.79985532281972</v>
       </c>
       <c r="J4" t="n">
-        <v>54.034527330184</v>
+        <v>54.03452733018416</v>
       </c>
       <c r="K4" t="n">
-        <v>187.5436166159871</v>
+        <v>187.5436166159875</v>
       </c>
       <c r="L4" t="n">
-        <v>413.9157199341311</v>
+        <v>413.9157199341317</v>
       </c>
       <c r="M4" t="n">
-        <v>662.9824862666712</v>
+        <v>662.9824862666723</v>
       </c>
       <c r="N4" t="n">
-        <v>911.5616180092719</v>
+        <v>911.5616180092733</v>
       </c>
       <c r="O4" t="n">
-        <v>1125.148384357427</v>
+        <v>1125.148384357428</v>
       </c>
       <c r="P4" t="n">
-        <v>1284.388078993471</v>
+        <v>1284.388078993472</v>
       </c>
       <c r="Q4" t="n">
-        <v>1311.202309361121</v>
+        <v>1311.202309361123</v>
       </c>
       <c r="R4" t="n">
-        <v>1197.026470958726</v>
+        <v>1311.202309361123</v>
       </c>
       <c r="S4" t="n">
-        <v>1197.026470958726</v>
+        <v>1282.759621191789</v>
       </c>
       <c r="T4" t="n">
-        <v>972.6153117341637</v>
+        <v>1282.759621191789</v>
       </c>
       <c r="U4" t="n">
-        <v>972.6153117341637</v>
+        <v>1282.759621191789</v>
       </c>
       <c r="V4" t="n">
-        <v>972.6153117341637</v>
+        <v>1282.759621191789</v>
       </c>
       <c r="W4" t="n">
-        <v>683.198141697203</v>
+        <v>1282.759621191789</v>
       </c>
       <c r="X4" t="n">
-        <v>683.198141697203</v>
+        <v>1054.770070293772</v>
       </c>
       <c r="Y4" t="n">
-        <v>683.198141697203</v>
+        <v>833.9774911502419</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1522.305681651088</v>
+        <v>1702.210495323839</v>
       </c>
       <c r="C5" t="n">
-        <v>1522.305681651088</v>
+        <v>1333.247978383427</v>
       </c>
       <c r="D5" t="n">
-        <v>1164.039983044337</v>
+        <v>974.9822797766769</v>
       </c>
       <c r="E5" t="n">
-        <v>778.251730446093</v>
+        <v>589.1940271784326</v>
       </c>
       <c r="F5" t="n">
-        <v>367.2658256564855</v>
+        <v>178.2081223888251</v>
       </c>
       <c r="G5" t="n">
-        <v>355.6243878970215</v>
+        <v>117.2903254719911</v>
       </c>
       <c r="H5" t="n">
-        <v>51.7998553228197</v>
+        <v>117.2903254719911</v>
       </c>
       <c r="I5" t="n">
-        <v>51.7998553228197</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="J5" t="n">
-        <v>189.9868871104782</v>
+        <v>189.9868871104781</v>
       </c>
       <c r="K5" t="n">
-        <v>447.8319447135509</v>
+        <v>447.8319447135512</v>
       </c>
       <c r="L5" t="n">
-        <v>804.6133007477379</v>
+        <v>804.6133007477388</v>
       </c>
       <c r="M5" t="n">
-        <v>1233.270741187502</v>
+        <v>1233.270741187503</v>
       </c>
       <c r="N5" t="n">
-        <v>1673.47811553997</v>
+        <v>1673.478115539972</v>
       </c>
       <c r="O5" t="n">
-        <v>2075.81819508206</v>
+        <v>2075.818195082062</v>
       </c>
       <c r="P5" t="n">
-        <v>2384.705143645556</v>
+        <v>2384.705143645557</v>
       </c>
       <c r="Q5" t="n">
-        <v>2568.493631507461</v>
+        <v>2568.493631507462</v>
       </c>
       <c r="R5" t="n">
-        <v>2589.992766140985</v>
+        <v>2589.992766140986</v>
       </c>
       <c r="S5" t="n">
-        <v>2589.992766140985</v>
+        <v>2465.815585560731</v>
       </c>
       <c r="T5" t="n">
-        <v>2381.347406599812</v>
+        <v>2465.815585560731</v>
       </c>
       <c r="U5" t="n">
-        <v>2127.768178542059</v>
+        <v>2465.815585560731</v>
       </c>
       <c r="V5" t="n">
-        <v>2127.768178542059</v>
+        <v>2465.815585560731</v>
       </c>
       <c r="W5" t="n">
-        <v>2127.768178542059</v>
+        <v>2465.815585560731</v>
       </c>
       <c r="X5" t="n">
-        <v>1754.302420280979</v>
+        <v>2092.349827299651</v>
       </c>
       <c r="Y5" t="n">
-        <v>1754.302420280979</v>
+        <v>1702.210495323839</v>
       </c>
     </row>
     <row r="6">
@@ -4631,40 +4631,40 @@
         <v>607.9171255411325</v>
       </c>
       <c r="E6" t="n">
-        <v>448.679670535677</v>
+        <v>448.6796705356769</v>
       </c>
       <c r="F6" t="n">
-        <v>302.145112562562</v>
+        <v>302.1451125625619</v>
       </c>
       <c r="G6" t="n">
         <v>165.4559591202886</v>
       </c>
       <c r="H6" t="n">
-        <v>71.80507655065198</v>
+        <v>71.80507655065196</v>
       </c>
       <c r="I6" t="n">
-        <v>51.7998553228197</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="J6" t="n">
-        <v>115.285257822616</v>
+        <v>115.2852578226162</v>
       </c>
       <c r="K6" t="n">
-        <v>301.9467472258286</v>
+        <v>563.7673318682818</v>
       </c>
       <c r="L6" t="n">
-        <v>599.2586963421431</v>
+        <v>861.0792809845966</v>
       </c>
       <c r="M6" t="n">
-        <v>965.5645858344685</v>
+        <v>1227.385170476922</v>
       </c>
       <c r="N6" t="n">
-        <v>1355.974147160211</v>
+        <v>1617.794731802665</v>
       </c>
       <c r="O6" t="n">
-        <v>1987.759237993047</v>
+        <v>1952.723412518196</v>
       </c>
       <c r="P6" t="n">
-        <v>2237.235965858066</v>
+        <v>2445.212480716556</v>
       </c>
       <c r="Q6" t="n">
         <v>2562.061870084021</v>
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>770.2418452737728</v>
+        <v>536.6253205712304</v>
       </c>
       <c r="C7" t="n">
-        <v>770.2418452737728</v>
+        <v>367.6891376433235</v>
       </c>
       <c r="D7" t="n">
-        <v>620.1252058614371</v>
+        <v>367.6891376433235</v>
       </c>
       <c r="E7" t="n">
-        <v>472.2121122790439</v>
+        <v>219.7760440609304</v>
       </c>
       <c r="F7" t="n">
-        <v>325.3221647811336</v>
+        <v>219.7760440609304</v>
       </c>
       <c r="G7" t="n">
-        <v>157.3459760430229</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="H7" t="n">
-        <v>157.3459760430229</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="I7" t="n">
-        <v>51.7998553228197</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="J7" t="n">
-        <v>77.98108068080543</v>
+        <v>77.98108068080553</v>
       </c>
       <c r="K7" t="n">
-        <v>250.8417132121971</v>
+        <v>250.8417132121973</v>
       </c>
       <c r="L7" t="n">
-        <v>527.5702436225441</v>
+        <v>527.5702436225445</v>
       </c>
       <c r="M7" t="n">
-        <v>829.7308018317418</v>
+        <v>829.7308018317424</v>
       </c>
       <c r="N7" t="n">
-        <v>1130.141273750633</v>
+        <v>1130.141273750634</v>
       </c>
       <c r="O7" t="n">
         <v>1391.602671897099</v>
       </c>
       <c r="P7" t="n">
-        <v>1591.80738463481</v>
+        <v>1591.807384634811</v>
       </c>
       <c r="Q7" t="n">
-        <v>1646.983670153877</v>
+        <v>1646.983670153878</v>
       </c>
       <c r="R7" t="n">
-        <v>1544.862307910903</v>
+        <v>1646.983670153878</v>
       </c>
       <c r="S7" t="n">
-        <v>1348.412641916872</v>
+        <v>1646.983670153878</v>
       </c>
       <c r="T7" t="n">
-        <v>1125.478067458853</v>
+        <v>1424.04909569586</v>
       </c>
       <c r="U7" t="n">
-        <v>1059.659015310733</v>
+        <v>1134.931318706258</v>
       </c>
       <c r="V7" t="n">
-        <v>1059.659015310733</v>
+        <v>1134.931318706258</v>
       </c>
       <c r="W7" t="n">
-        <v>770.2418452737728</v>
+        <v>946.2633362994875</v>
       </c>
       <c r="X7" t="n">
-        <v>770.2418452737728</v>
+        <v>718.2737854014701</v>
       </c>
       <c r="Y7" t="n">
-        <v>770.2418452737728</v>
+        <v>718.2737854014701</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1568.080387084741</v>
+        <v>1689.076413520798</v>
       </c>
       <c r="C8" t="n">
-        <v>1568.080387084741</v>
+        <v>1320.113896580387</v>
       </c>
       <c r="D8" t="n">
-        <v>1568.080387084741</v>
+        <v>961.8481979736364</v>
       </c>
       <c r="E8" t="n">
-        <v>1182.292134486497</v>
+        <v>576.0599453753921</v>
       </c>
       <c r="F8" t="n">
-        <v>771.3062296968895</v>
+        <v>165.0740405857845</v>
       </c>
       <c r="G8" t="n">
-        <v>355.6243878970215</v>
+        <v>51.79985532281975</v>
       </c>
       <c r="H8" t="n">
-        <v>51.7998553228197</v>
+        <v>51.79985532281975</v>
       </c>
       <c r="I8" t="n">
-        <v>51.7998553228197</v>
+        <v>51.79985532281975</v>
       </c>
       <c r="J8" t="n">
-        <v>189.9868871104779</v>
+        <v>189.9868871104782</v>
       </c>
       <c r="K8" t="n">
-        <v>447.8319447135508</v>
+        <v>447.8319447135514</v>
       </c>
       <c r="L8" t="n">
-        <v>804.6133007477376</v>
+        <v>804.613300747739</v>
       </c>
       <c r="M8" t="n">
-        <v>1233.270741187501</v>
+        <v>1233.270741187503</v>
       </c>
       <c r="N8" t="n">
-        <v>1673.47811553997</v>
+        <v>1673.478115539972</v>
       </c>
       <c r="O8" t="n">
-        <v>2075.81819508206</v>
+        <v>2075.818195082062</v>
       </c>
       <c r="P8" t="n">
-        <v>2384.705143645556</v>
+        <v>2384.705143645558</v>
       </c>
       <c r="Q8" t="n">
-        <v>2568.493631507461</v>
+        <v>2568.493631507464</v>
       </c>
       <c r="R8" t="n">
-        <v>2589.992766140985</v>
+        <v>2589.992766140987</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.815585560729</v>
+        <v>2465.815585560732</v>
       </c>
       <c r="T8" t="n">
-        <v>2465.815585560729</v>
+        <v>2465.815585560732</v>
       </c>
       <c r="U8" t="n">
-        <v>2212.236357502976</v>
+        <v>2465.815585560732</v>
       </c>
       <c r="V8" t="n">
-        <v>1920.849042354856</v>
+        <v>2465.815585560732</v>
       </c>
       <c r="W8" t="n">
-        <v>1568.080387084741</v>
+        <v>2465.815585560732</v>
       </c>
       <c r="X8" t="n">
-        <v>1568.080387084741</v>
+        <v>2465.815585560732</v>
       </c>
       <c r="Y8" t="n">
-        <v>1568.080387084741</v>
+        <v>2075.67625358492</v>
       </c>
     </row>
     <row r="9">
@@ -4877,34 +4877,34 @@
         <v>165.4559591202886</v>
       </c>
       <c r="H9" t="n">
-        <v>71.80507655065198</v>
+        <v>71.80507655065199</v>
       </c>
       <c r="I9" t="n">
-        <v>51.7998553228197</v>
+        <v>51.79985532281975</v>
       </c>
       <c r="J9" t="n">
-        <v>115.2852578226161</v>
+        <v>240.115382809621</v>
       </c>
       <c r="K9" t="n">
-        <v>563.7673318682815</v>
+        <v>426.7768722128337</v>
       </c>
       <c r="L9" t="n">
-        <v>861.0792809845962</v>
+        <v>724.0888213291485</v>
       </c>
       <c r="M9" t="n">
-        <v>1227.385170476922</v>
+        <v>1219.783862516112</v>
       </c>
       <c r="N9" t="n">
-        <v>1627.746635452984</v>
+        <v>1860.807072136006</v>
       </c>
       <c r="O9" t="n">
-        <v>1962.675316168515</v>
+        <v>2195.735752851538</v>
       </c>
       <c r="P9" t="n">
-        <v>2212.152044033533</v>
+        <v>2445.212480716556</v>
       </c>
       <c r="Q9" t="n">
-        <v>2536.977948259489</v>
+        <v>2562.061870084021</v>
       </c>
       <c r="R9" t="n">
         <v>2562.061870084021</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>549.8365243120199</v>
+        <v>472.4514170392436</v>
       </c>
       <c r="C10" t="n">
-        <v>380.9003413841131</v>
+        <v>303.5152341113367</v>
       </c>
       <c r="D10" t="n">
-        <v>325.3221647811335</v>
+        <v>153.3985946990009</v>
       </c>
       <c r="E10" t="n">
-        <v>325.3221647811335</v>
+        <v>153.3985946990009</v>
       </c>
       <c r="F10" t="n">
-        <v>325.3221647811335</v>
+        <v>51.79985532281975</v>
       </c>
       <c r="G10" t="n">
-        <v>157.3459760430229</v>
+        <v>51.79985532281975</v>
       </c>
       <c r="H10" t="n">
-        <v>157.3459760430229</v>
+        <v>51.79985532281975</v>
       </c>
       <c r="I10" t="n">
-        <v>51.7998553228197</v>
+        <v>51.79985532281975</v>
       </c>
       <c r="J10" t="n">
-        <v>77.98108068080545</v>
+        <v>77.98108068080556</v>
       </c>
       <c r="K10" t="n">
-        <v>250.8417132121971</v>
+        <v>250.8417132121973</v>
       </c>
       <c r="L10" t="n">
-        <v>527.5702436225442</v>
+        <v>527.5702436225445</v>
       </c>
       <c r="M10" t="n">
-        <v>829.7308018317419</v>
+        <v>829.7308018317424</v>
       </c>
       <c r="N10" t="n">
-        <v>1130.141273750633</v>
+        <v>1130.141273750634</v>
       </c>
       <c r="O10" t="n">
         <v>1391.602671897099</v>
       </c>
       <c r="P10" t="n">
-        <v>1591.80738463481</v>
+        <v>1591.807384634811</v>
       </c>
       <c r="Q10" t="n">
         <v>1646.983670153878</v>
       </c>
       <c r="R10" t="n">
-        <v>1544.862307910904</v>
+        <v>1646.983670153878</v>
       </c>
       <c r="S10" t="n">
-        <v>1544.862307910904</v>
+        <v>1646.983670153878</v>
       </c>
       <c r="T10" t="n">
-        <v>1321.927733452885</v>
+        <v>1646.983670153878</v>
       </c>
       <c r="U10" t="n">
-        <v>1321.927733452885</v>
+        <v>1646.983670153878</v>
       </c>
       <c r="V10" t="n">
-        <v>1067.243245246998</v>
+        <v>1392.299181947991</v>
       </c>
       <c r="W10" t="n">
-        <v>777.8260752100373</v>
+        <v>1102.882011911031</v>
       </c>
       <c r="X10" t="n">
-        <v>549.8365243120199</v>
+        <v>874.8924610130134</v>
       </c>
       <c r="Y10" t="n">
-        <v>549.8365243120199</v>
+        <v>654.0998818694833</v>
       </c>
     </row>
     <row r="11">
@@ -5017,10 +5017,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004713</v>
@@ -5029,64 +5029,64 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.773653616861</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="12">
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,28 +5114,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273905</v>
+        <v>95.5840502527391</v>
       </c>
       <c r="J12" t="n">
-        <v>95.58405025273905</v>
+        <v>245.2306927803939</v>
       </c>
       <c r="K12" t="n">
-        <v>429.5088224239596</v>
+        <v>579.1554649516146</v>
       </c>
       <c r="L12" t="n">
-        <v>924.8344286397185</v>
+        <v>1074.481071167374</v>
       </c>
       <c r="M12" t="n">
-        <v>1522.21291626627</v>
+        <v>1671.859558793926</v>
       </c>
       <c r="N12" t="n">
-        <v>2149.810879820877</v>
+        <v>2299.457522348533</v>
       </c>
       <c r="O12" t="n">
-        <v>2149.810879820877</v>
+        <v>2299.457522348533</v>
       </c>
       <c r="P12" t="n">
         <v>2553.061288060775</v>
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>631.7012443408905</v>
+        <v>727.9786782557277</v>
       </c>
       <c r="C13" t="n">
-        <v>631.7012443408905</v>
+        <v>559.0424953278208</v>
       </c>
       <c r="D13" t="n">
-        <v>631.7012443408905</v>
+        <v>408.9258559154851</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408905</v>
+        <v>261.012762333092</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429802</v>
+        <v>261.012762333092</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782958</v>
@@ -5208,7 +5208,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N13" t="n">
         <v>1665.560112570818</v>
@@ -5217,13 +5217,13 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q13" t="n">
         <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S13" t="n">
         <v>2197.062545487568</v>
@@ -5235,16 +5235,16 @@
         <v>1688.385853854707</v>
       </c>
       <c r="V13" t="n">
-        <v>1551.549009249638</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W13" t="n">
-        <v>1262.131839212678</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X13" t="n">
-        <v>1034.14228831466</v>
+        <v>916.294644713842</v>
       </c>
       <c r="Y13" t="n">
-        <v>813.3497091711303</v>
+        <v>727.9786782557277</v>
       </c>
     </row>
     <row r="14">
@@ -5257,7 +5257,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004713</v>
@@ -5266,61 +5266,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111706</v>
+        <v>378.1925803111726</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075799</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5351,31 +5351,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>579.1554649516144</v>
+        <v>484.8243144841094</v>
       </c>
       <c r="L15" t="n">
-        <v>1074.481071167373</v>
+        <v>980.1499206998682</v>
       </c>
       <c r="M15" t="n">
-        <v>1074.481071167373</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="N15" t="n">
-        <v>1702.07903472198</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190824</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>809.0422355233313</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C16" t="n">
-        <v>640.1060525954244</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D16" t="n">
-        <v>489.9894131830887</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E16" t="n">
-        <v>489.9894131830887</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F16" t="n">
-        <v>343.0994656851783</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G16" t="n">
-        <v>175.9033664000582</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782958</v>
@@ -5460,28 +5460,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487568</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T16" t="n">
-        <v>2091.001250463528</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U16" t="n">
-        <v>1801.926023807726</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V16" t="n">
-        <v>1547.241535601839</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W16" t="n">
-        <v>1257.824365564879</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X16" t="n">
-        <v>1029.834814666861</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y16" t="n">
-        <v>809.0422355233313</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="17">
@@ -5506,37 +5506,37 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
@@ -5551,13 +5551,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5591,28 +5591,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797187</v>
+        <v>484.8243144841094</v>
       </c>
       <c r="L18" t="n">
-        <v>589.1422692637306</v>
+        <v>980.1499206998682</v>
       </c>
       <c r="M18" t="n">
-        <v>1186.520756890282</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="N18" t="n">
-        <v>1814.118720444889</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O18" t="n">
-        <v>2366.028450684176</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P18" t="n">
-        <v>2366.028450684176</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5649,19 +5649,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>552.3777707160738</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C19" t="n">
-        <v>383.4415877881669</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D19" t="n">
-        <v>383.4415877881669</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E19" t="n">
-        <v>235.5284942057738</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F19" t="n">
-        <v>235.5284942057738</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G19" t="n">
         <v>235.5284942057738</v>
@@ -5673,52 +5673,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X19" t="n">
-        <v>954.8188146898436</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y19" t="n">
-        <v>734.0262355463135</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="20">
@@ -5731,31 +5731,31 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192601</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111726</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5764,10 +5764,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694708</v>
@@ -5776,25 +5776,25 @@
         <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5831,25 +5831,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797187</v>
+        <v>506.2737913123336</v>
       </c>
       <c r="L21" t="n">
-        <v>589.1422692637307</v>
+        <v>506.2737913123336</v>
       </c>
       <c r="M21" t="n">
-        <v>1186.520756890282</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N21" t="n">
-        <v>1540.888753373306</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O21" t="n">
-        <v>2092.798483612593</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P21" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q21" t="n">
         <v>2516.421633107662</v>
@@ -5886,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>915.1035305473703</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C22" t="n">
-        <v>746.1673476194634</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D22" t="n">
-        <v>596.0507082071276</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E22" t="n">
-        <v>448.1376146247345</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F22" t="n">
-        <v>301.2476671268241</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G22" t="n">
-        <v>134.0515678417041</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
         <v>93.81666304797187</v>
@@ -5940,22 +5940,22 @@
         <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>2197.062545487568</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
-        <v>1907.987318831765</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V22" t="n">
-        <v>1653.302830625878</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W22" t="n">
-        <v>1363.885660588918</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X22" t="n">
-        <v>1135.8961096909</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y22" t="n">
-        <v>915.1035305473703</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="23">
@@ -5977,37 +5977,37 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q23" t="n">
         <v>4562.265728852256</v>
@@ -6071,19 +6071,19 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>352.5519571452614</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="M24" t="n">
-        <v>949.9304447718133</v>
+        <v>1174.766565373399</v>
       </c>
       <c r="N24" t="n">
-        <v>1577.52840832642</v>
+        <v>1802.364528928006</v>
       </c>
       <c r="O24" t="n">
-        <v>2129.438138565707</v>
+        <v>2354.274259167293</v>
       </c>
       <c r="P24" t="n">
         <v>2553.061288060775</v>
@@ -6123,19 +6123,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>768.5380889459582</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C25" t="n">
-        <v>700.7543264856228</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D25" t="n">
-        <v>550.637687073287</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G25" t="n">
         <v>235.5284942057738</v>
@@ -6147,52 +6147,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V25" t="n">
-        <v>1688.385853854706</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W25" t="n">
-        <v>1398.968683817745</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X25" t="n">
-        <v>1170.979132919728</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y25" t="n">
-        <v>950.1865537761979</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="26">
@@ -6202,64 +6202,64 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168602</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
         <v>3820.749612123002</v>
@@ -6271,7 +6271,7 @@
         <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="27">
@@ -6299,34 +6299,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.584050252739</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K27" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L27" t="n">
-        <v>739.5354516872168</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="M27" t="n">
-        <v>1336.913939313768</v>
+        <v>1176.533952578166</v>
       </c>
       <c r="N27" t="n">
-        <v>1964.511902868375</v>
+        <v>1804.131916132773</v>
       </c>
       <c r="O27" t="n">
-        <v>2516.421633107662</v>
+        <v>2356.04164637206</v>
       </c>
       <c r="P27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3023.484406741616</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C28" t="n">
-        <v>3023.484406741616</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D28" t="n">
-        <v>3023.484406741616</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E28" t="n">
-        <v>2875.571313159222</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F28" t="n">
-        <v>2728.681365661312</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G28" t="n">
-        <v>2561.485266376192</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>2419.77343521839</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>2679.612012822166</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
-        <v>3492.020309729141</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>3909.430181389149</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>4278.959462098134</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
-        <v>4571.634917671693</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
-        <v>4668.755606690676</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>4485.900772345581</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T28" t="n">
-        <v>4266.299307368522</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U28" t="n">
-        <v>3977.22408071272</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V28" t="n">
-        <v>3722.539592506833</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W28" t="n">
-        <v>3433.122422469873</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X28" t="n">
-        <v>3205.132871571856</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y28" t="n">
-        <v>3205.132871571856</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="29">
@@ -6457,55 +6457,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U29" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6527,7 +6527,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6536,34 +6536,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L30" t="n">
-        <v>589.1422692637306</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1186.520756890282</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1814.118720444889</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>2366.028450684176</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1098.667160263527</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C31" t="n">
-        <v>929.7309773356195</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D31" t="n">
-        <v>779.6143379232838</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E31" t="n">
-        <v>631.7012443408906</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H31" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T31" t="n">
-        <v>2273.199413378161</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U31" t="n">
-        <v>2273.199413378161</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V31" t="n">
-        <v>2018.514925172274</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W31" t="n">
-        <v>1729.097755135313</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X31" t="n">
-        <v>1501.108204237296</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y31" t="n">
-        <v>1280.315625093766</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="32">
@@ -6697,28 +6697,28 @@
         <v>93.8166630479716</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111703</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q32" t="n">
         <v>4562.265728852256</v>
@@ -6779,28 +6779,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>923.0670414349511</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>1465.200520057987</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N33" t="n">
-        <v>2092.798483612594</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O33" t="n">
-        <v>2092.798483612594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3273.55150334755</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C34" t="n">
-        <v>3104.615320419643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D34" t="n">
-        <v>2954.498681007307</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E34" t="n">
-        <v>2875.571313159223</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F34" t="n">
-        <v>2728.681365661313</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G34" t="n">
-        <v>2561.485266376193</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
-        <v>4690.833152398593</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S34" t="n">
-        <v>4507.978318053498</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T34" t="n">
-        <v>4288.376853076439</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U34" t="n">
-        <v>3999.301626420637</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V34" t="n">
-        <v>3744.61713821475</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W34" t="n">
-        <v>3455.19996817779</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X34" t="n">
-        <v>3455.19996817779</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y34" t="n">
-        <v>3455.19996817779</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="35">
@@ -6916,7 +6916,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D35" t="n">
         <v>1590.547811004713</v>
@@ -6931,16 +6931,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6955,31 +6955,31 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7001,7 +7001,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7010,28 +7010,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K36" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L36" t="n">
-        <v>427.7414352191925</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>949.9304447718133</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
         <v>2553.061288060775</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3050.708758511721</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C37" t="n">
-        <v>2881.772575583814</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D37" t="n">
-        <v>2881.772575583814</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E37" t="n">
-        <v>2733.859482001421</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F37" t="n">
-        <v>2586.969534503511</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G37" t="n">
-        <v>2419.773435218391</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H37" t="n">
-        <v>2419.773435218391</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J37" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K37" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L37" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
-        <v>4623.787448650995</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S37" t="n">
-        <v>4440.9326143059</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T37" t="n">
-        <v>4221.331149328841</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="U37" t="n">
-        <v>3932.255922673039</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="V37" t="n">
-        <v>3742.566972522452</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W37" t="n">
-        <v>3453.149802485491</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X37" t="n">
-        <v>3453.149802485491</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y37" t="n">
-        <v>3232.357223341961</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="38">
@@ -7156,40 +7156,40 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7204,7 +7204,7 @@
         <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
         <v>4151.812499466573</v>
@@ -7250,28 +7250,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J39" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K39" t="n">
-        <v>221.3431781811722</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L39" t="n">
-        <v>716.6687843969308</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>716.6687843969308</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
         <v>2553.061288060775</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>929.7309773356195</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C40" t="n">
-        <v>929.7309773356195</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D40" t="n">
-        <v>779.6143379232838</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E40" t="n">
-        <v>631.7012443408906</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T40" t="n">
-        <v>2104.263230450254</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U40" t="n">
-        <v>2104.263230450254</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V40" t="n">
-        <v>1849.578742244367</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W40" t="n">
-        <v>1560.161572207407</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X40" t="n">
-        <v>1332.172021309389</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y40" t="n">
-        <v>1111.379442165859</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="41">
@@ -7402,19 +7402,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J41" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7487,28 +7487,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1670.092171589158</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>2222.001901828445</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
         <v>2553.061288060775</v>
@@ -7545,16 +7545,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1098.667160263527</v>
+        <v>803.8641191832229</v>
       </c>
       <c r="C43" t="n">
-        <v>929.7309773356195</v>
+        <v>634.927936255316</v>
       </c>
       <c r="D43" t="n">
-        <v>779.6143379232838</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E43" t="n">
-        <v>631.7012443408906</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F43" t="n">
         <v>484.8112968429803</v>
@@ -7599,22 +7599,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2197.062545487567</v>
+        <v>1978.396372297858</v>
       </c>
       <c r="U43" t="n">
-        <v>1907.987318831765</v>
+        <v>1978.396372297858</v>
       </c>
       <c r="V43" t="n">
-        <v>1797.722346028744</v>
+        <v>1723.711884091971</v>
       </c>
       <c r="W43" t="n">
-        <v>1508.305175991783</v>
+        <v>1434.29471405501</v>
       </c>
       <c r="X43" t="n">
-        <v>1280.315625093766</v>
+        <v>1206.305163156993</v>
       </c>
       <c r="Y43" t="n">
-        <v>1280.315625093766</v>
+        <v>985.5125840134626</v>
       </c>
     </row>
     <row r="44">
@@ -7627,19 +7627,19 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797189</v>
@@ -7648,7 +7648,7 @@
         <v>95.34095638192599</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
         <v>852.8523611075807</v>
@@ -7657,40 +7657,40 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R44" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7724,31 +7724,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>243.4633055756266</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>840.8417932021785</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N45" t="n">
-        <v>1468.439756756785</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O45" t="n">
-        <v>2020.349486996072</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2443.97263649114</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>2939.372134388645</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C46" t="n">
-        <v>2878.798005073648</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D46" t="n">
-        <v>2728.681365661313</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E46" t="n">
-        <v>2728.681365661313</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F46" t="n">
-        <v>2728.681365661313</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G46" t="n">
-        <v>2561.485266376193</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>4440.9326143059</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>4221.331149328841</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>3932.255922673039</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>3677.571434467152</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>3388.154264430192</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>3160.164713532175</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>2939.372134388645</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
   </sheetData>
@@ -7978,13 +7978,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>320.77012448005</v>
       </c>
       <c r="L2" t="n">
-        <v>407.47518020374</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -7993,13 +7993,13 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>278.3120279356285</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R2" t="n">
         <v>65.71641987298243</v>
@@ -8063,10 +8063,10 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>128.636358304461</v>
+        <v>299.4516747346764</v>
       </c>
       <c r="M3" t="n">
-        <v>380.8926041660674</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -8078,7 +8078,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8297,7 +8297,7 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8309,16 +8309,16 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>299.8549597144499</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>245.4670104377187</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>20.18437503906583</v>
+        <v>20.18437503906576</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8531,19 +8531,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>130.6961128228668</v>
       </c>
       <c r="N9" t="n">
-        <v>10.05242792961599</v>
+        <v>253.1450992870222</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
@@ -8552,10 +8552,10 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>45.52166981132082</v>
+        <v>20.18437503906576</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8698,7 +8698,7 @@
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>-1.26924431238921e-12</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
@@ -23415,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23475,7 +23475,7 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>116.6691671648106</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23484,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>32.15184655856163</v>
       </c>
     </row>
     <row r="14">
@@ -23652,28 +23652,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,13 +23700,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>112.4047682534894</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23898,19 +23898,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23955,7 +23955,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>38.13892827624252</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24126,25 +24126,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>57.22910392194177</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>100.462157100429</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856552</v>
@@ -24180,7 +24180,7 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24366,13 +24366,13 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>100.1408962628958</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -24384,7 +24384,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24423,7 +24423,7 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24603,16 +24603,16 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24621,7 +24621,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>44.51847645928465</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24669,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>57.22910392194177</v>
       </c>
     </row>
     <row r="29">
@@ -24843,13 +24843,13 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24888,19 +24888,19 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>111.7546635373313</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>138.4949402405073</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25080,13 +25080,13 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>68.29586847696554</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -25095,7 +25095,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25140,10 +25140,10 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25317,7 +25317,7 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -25329,7 +25329,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -25359,25 +25359,25 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>114.1584408891651</v>
       </c>
       <c r="V37" t="n">
-        <v>64.34558267474637</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25551,25 +25551,25 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,16 +25596,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>59.15888173022665</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25794,10 +25794,10 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -25839,13 +25839,13 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0.925938869475857</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
-        <v>142.9753202488374</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -25854,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26022,13 +26022,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>107.2784330767815</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -26043,7 +26043,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26091,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
     </row>
   </sheetData>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>731535.1779719513</v>
+        <v>731535.1779719512</v>
       </c>
     </row>
     <row r="3">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>691564.1054216163</v>
+        <v>691564.1054216162</v>
       </c>
     </row>
     <row r="9">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>691564.1054216163</v>
+        <v>691564.1054216162</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>691564.1054216162</v>
+        <v>691564.1054216163</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>691564.1054216163</v>
+        <v>691564.1054216162</v>
       </c>
     </row>
     <row r="15">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>691564.1054216163</v>
+        <v>691564.1054216162</v>
       </c>
     </row>
   </sheetData>
@@ -26316,46 +26316,46 @@
         <v>738937.5928778551</v>
       </c>
       <c r="C2" t="n">
-        <v>738937.5928778547</v>
+        <v>738937.5928778549</v>
       </c>
       <c r="D2" t="n">
-        <v>738937.5928778546</v>
+        <v>738937.5928778549</v>
       </c>
       <c r="E2" t="n">
         <v>726431.9397210054</v>
       </c>
       <c r="F2" t="n">
-        <v>726431.9397210054</v>
+        <v>726431.939721005</v>
       </c>
       <c r="G2" t="n">
         <v>726431.9397210054</v>
       </c>
       <c r="H2" t="n">
+        <v>726431.9397210055</v>
+      </c>
+      <c r="I2" t="n">
         <v>726431.9397210053</v>
       </c>
-      <c r="I2" t="n">
-        <v>726431.9397210056</v>
-      </c>
       <c r="J2" t="n">
+        <v>726431.9397210055</v>
+      </c>
+      <c r="K2" t="n">
+        <v>726431.9397210053</v>
+      </c>
+      <c r="L2" t="n">
         <v>726431.9397210052</v>
       </c>
-      <c r="K2" t="n">
-        <v>726431.9397210059</v>
-      </c>
-      <c r="L2" t="n">
+      <c r="M2" t="n">
         <v>726431.9397210054</v>
       </c>
-      <c r="M2" t="n">
+      <c r="N2" t="n">
+        <v>726431.9397210054</v>
+      </c>
+      <c r="O2" t="n">
+        <v>726431.9397210054</v>
+      </c>
+      <c r="P2" t="n">
         <v>726431.9397210053</v>
-      </c>
-      <c r="N2" t="n">
-        <v>726431.9397210057</v>
-      </c>
-      <c r="O2" t="n">
-        <v>726431.9397210053</v>
-      </c>
-      <c r="P2" t="n">
-        <v>726431.939721005</v>
       </c>
     </row>
     <row r="3">
@@ -26365,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>939682.9358753976</v>
+        <v>939682.9358753987</v>
       </c>
       <c r="C3" t="n">
-        <v>172764.3597898931</v>
+        <v>172764.3597898926</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>500888.8677457511</v>
+        <v>500888.8677457508</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26383,16 +26383,16 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>1.741016149026109e-10</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>169414.0168260478</v>
+        <v>169414.0168260481</v>
       </c>
       <c r="K3" t="n">
-        <v>1.655303094594274e-10</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -26401,13 +26401,13 @@
         <v>130884.4569042353</v>
       </c>
       <c r="N3" t="n">
-        <v>6.548361852765082e-11</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>1.513344614068046e-10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26417,19 +26417,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>159785.83881516</v>
+        <v>159785.8388151599</v>
       </c>
       <c r="C4" t="n">
-        <v>129066.754725248</v>
+        <v>129066.7547252479</v>
       </c>
       <c r="D4" t="n">
-        <v>129066.754725248</v>
+        <v>129066.7547252479</v>
       </c>
       <c r="E4" t="n">
-        <v>6287.480531695024</v>
+        <v>6287.48053169497</v>
       </c>
       <c r="F4" t="n">
-        <v>6287.480531695052</v>
+        <v>6287.480531694995</v>
       </c>
       <c r="G4" t="n">
         <v>6287.480531695051</v>
@@ -26444,22 +26444,22 @@
         <v>6287.480531695051</v>
       </c>
       <c r="K4" t="n">
-        <v>6287.480531695051</v>
+        <v>6287.480531695052</v>
       </c>
       <c r="L4" t="n">
         <v>6287.480531695051</v>
       </c>
       <c r="M4" t="n">
-        <v>6287.480531695051</v>
+        <v>6287.480531695052</v>
       </c>
       <c r="N4" t="n">
-        <v>6287.480531695104</v>
+        <v>6287.480531695052</v>
       </c>
       <c r="O4" t="n">
-        <v>6287.480531695051</v>
+        <v>6287.480531695052</v>
       </c>
       <c r="P4" t="n">
-        <v>6287.480531695051</v>
+        <v>6287.480531695052</v>
       </c>
     </row>
     <row r="5">
@@ -26469,16 +26469,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>89345.07489699087</v>
+        <v>89345.0748969909</v>
       </c>
       <c r="C5" t="n">
-        <v>93481.08936150957</v>
+        <v>93481.0893615096</v>
       </c>
       <c r="D5" t="n">
-        <v>93481.08936150957</v>
+        <v>93481.08936150963</v>
       </c>
       <c r="E5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="F5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-449876.2567096935</v>
+        <v>-449876.2567096944</v>
       </c>
       <c r="C6" t="n">
-        <v>343625.3890012039</v>
+        <v>343625.3890012049</v>
       </c>
       <c r="D6" t="n">
-        <v>516389.748791097</v>
+        <v>516389.7487910974</v>
       </c>
       <c r="E6" t="n">
-        <v>118133.0616196521</v>
+        <v>117785.6823652955</v>
       </c>
       <c r="F6" t="n">
-        <v>619021.9293654033</v>
+        <v>618674.5501110462</v>
       </c>
       <c r="G6" t="n">
-        <v>619021.9293654035</v>
+        <v>618674.5501110464</v>
       </c>
       <c r="H6" t="n">
-        <v>619021.929365403</v>
+        <v>618674.5501110464</v>
       </c>
       <c r="I6" t="n">
-        <v>619021.9293654036</v>
+        <v>618674.5501110462</v>
       </c>
       <c r="J6" t="n">
-        <v>449607.9125393552</v>
+        <v>449260.5332849983</v>
       </c>
       <c r="K6" t="n">
-        <v>619021.9293654036</v>
+        <v>618674.5501110461</v>
       </c>
       <c r="L6" t="n">
-        <v>619021.9293654033</v>
+        <v>618674.5501110461</v>
       </c>
       <c r="M6" t="n">
-        <v>488137.4724611678</v>
+        <v>487790.0932068109</v>
       </c>
       <c r="N6" t="n">
-        <v>619021.9293654035</v>
+        <v>618674.5501110463</v>
       </c>
       <c r="O6" t="n">
-        <v>619021.929365403</v>
+        <v>618674.5501110464</v>
       </c>
       <c r="P6" t="n">
-        <v>619021.9293654028</v>
+        <v>618674.5501110462</v>
       </c>
     </row>
   </sheetData>
@@ -26721,13 +26721,13 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>749.9809564976097</v>
+        <v>749.9809564976108</v>
       </c>
       <c r="C3" t="n">
-        <v>939.7063906498443</v>
+        <v>939.7063906498448</v>
       </c>
       <c r="D3" t="n">
-        <v>939.7063906498444</v>
+        <v>939.7063906498448</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26789,19 +26789,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>647.4981915352464</v>
+        <v>647.4981915352465</v>
       </c>
       <c r="C4" t="n">
-        <v>647.4981915352462</v>
+        <v>647.4981915352465</v>
       </c>
       <c r="D4" t="n">
-        <v>647.4981915352462</v>
+        <v>647.4981915352469</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099648</v>
@@ -26816,13 +26816,13 @@
         <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="L4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="N4" t="n">
         <v>1172.708288099648</v>
@@ -26943,7 +26943,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -26959,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>749.9809564976097</v>
+        <v>749.9809564976108</v>
       </c>
       <c r="C3" t="n">
-        <v>189.7254341522346</v>
+        <v>189.725434152234</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>428.2691096918296</v>
+        <v>428.2691096918294</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26977,7 +26977,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26986,7 +26986,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -27001,7 +27001,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>647.4981915352464</v>
+        <v>647.4981915352465</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>525.2100965644022</v>
+        <v>525.210096564402</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>647.4981915352462</v>
+        <v>647.4981915352465</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>647.4981915352464</v>
+        <v>647.4981915352465</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>525.2100965644022</v>
+        <v>525.210096564402</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -27387,19 +27387,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>308.5974454495113</v>
+        <v>237.9300218321721</v>
       </c>
       <c r="I2" t="n">
-        <v>94.24014755885173</v>
+        <v>94.24014755885155</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27435,19 +27435,19 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.1044530022292</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>93.93148976679782</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27536,10 +27536,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27548,16 +27548,16 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.6385546828073</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>150.2028876639205</v>
       </c>
       <c r="I4" t="n">
-        <v>114.7793764994863</v>
+        <v>114.7793764994862</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,13 +27584,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>3.4493800335987</v>
+        <v>116.4834600519698</v>
       </c>
       <c r="S4" t="n">
-        <v>200.4475243713015</v>
+        <v>172.2892630836614</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>222.1670476323163</v>
       </c>
       <c r="U4" t="n">
         <v>286.245260737819</v>
@@ -27599,13 +27599,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27615,10 +27615,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>153.057070419888</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -27630,13 +27630,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>351.2164044342037</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>300.7862872484598</v>
       </c>
       <c r="I5" t="n">
-        <v>64.83556544767976</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,13 +27666,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>122.9354087744531</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>206.5589059457607</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.0434357771752</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -27684,7 +27684,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27773,19 +27773,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -27794,7 +27794,7 @@
         <v>147.161060211447</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>104.4906595130011</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,25 +27821,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>101.1001486205444</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>194.4851693340911</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>221.0657375930669</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>99.74169575388819</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27852,13 +27852,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27867,13 +27867,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>299.3835799715342</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>300.7862872484598</v>
       </c>
       <c r="I8" t="n">
-        <v>64.83556544767976</v>
+        <v>64.83556544767967</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27909,19 +27909,19 @@
         <v>206.5589059457607</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.0434357771752</v>
       </c>
       <c r="V8" t="n">
-        <v>39.2788164734954</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28010,28 +28010,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>93.59307818126258</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>44.83829604051188</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.2964268507295</v>
       </c>
       <c r="H10" t="n">
         <v>147.161060211447</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>104.4906595130011</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,13 +28058,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>101.1001486205444</v>
       </c>
       <c r="S10" t="n">
         <v>194.4851693340911</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>220.7052287134384</v>
       </c>
       <c r="U10" t="n">
         <v>286.2265992197056</v>
@@ -28079,7 +28079,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28092,7 +28092,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>-1.478428093796983e-12</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -28380,7 +28380,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>-1.250555214937776e-12</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -30222,25 +30222,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -30273,25 +30273,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.014998820090891</v>
+        <v>3.014998820090895</v>
       </c>
       <c r="H2" t="n">
-        <v>30.87735666625584</v>
+        <v>30.87735666625589</v>
       </c>
       <c r="I2" t="n">
-        <v>116.2357420115542</v>
+        <v>116.2357420115544</v>
       </c>
       <c r="J2" t="n">
-        <v>255.8942561066895</v>
+        <v>255.8942561066899</v>
       </c>
       <c r="K2" t="n">
-        <v>383.5191561611369</v>
+        <v>383.5191561611376</v>
       </c>
       <c r="L2" t="n">
-        <v>475.7894263014937</v>
+        <v>475.7894263014944</v>
       </c>
       <c r="M2" t="n">
-        <v>529.4074115682851</v>
+        <v>529.4074115682859</v>
       </c>
       <c r="N2" t="n">
-        <v>537.9737769658683</v>
+        <v>537.9737769658691</v>
       </c>
       <c r="O2" t="n">
-        <v>507.9933824485895</v>
+        <v>507.9933824485902</v>
       </c>
       <c r="P2" t="n">
-        <v>433.5605990775956</v>
+        <v>433.5605990775962</v>
       </c>
       <c r="Q2" t="n">
-        <v>325.5859538330904</v>
+        <v>325.5859538330909</v>
       </c>
       <c r="R2" t="n">
-        <v>189.3909196325346</v>
+        <v>189.3909196325349</v>
       </c>
       <c r="S2" t="n">
-        <v>68.70428561282124</v>
+        <v>68.70428561282135</v>
       </c>
       <c r="T2" t="n">
-        <v>13.19815733494788</v>
+        <v>13.1981573349479</v>
       </c>
       <c r="U2" t="n">
-        <v>0.2411999056072712</v>
+        <v>0.2411999056072716</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.613166585674104</v>
+        <v>1.613166585674106</v>
       </c>
       <c r="H3" t="n">
-        <v>15.57979307743148</v>
+        <v>15.5797930774315</v>
       </c>
       <c r="I3" t="n">
-        <v>55.54104253307771</v>
+        <v>55.54104253307779</v>
       </c>
       <c r="J3" t="n">
-        <v>152.4088658859907</v>
+        <v>152.4088658859909</v>
       </c>
       <c r="K3" t="n">
-        <v>260.4910271261556</v>
+        <v>260.491027126156</v>
       </c>
       <c r="L3" t="n">
-        <v>350.262332560511</v>
+        <v>350.2623325605116</v>
       </c>
       <c r="M3" t="n">
-        <v>408.7396212911972</v>
+        <v>408.7396212911979</v>
       </c>
       <c r="N3" t="n">
-        <v>419.5577428240732</v>
+        <v>419.5577428240738</v>
       </c>
       <c r="O3" t="n">
-        <v>383.8133674257154</v>
+        <v>383.813367425716</v>
       </c>
       <c r="P3" t="n">
-        <v>308.0440649433295</v>
+        <v>308.04406494333</v>
       </c>
       <c r="Q3" t="n">
-        <v>205.9192996028909</v>
+        <v>205.9192996028912</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526431</v>
+        <v>100.1578341526432</v>
       </c>
       <c r="S3" t="n">
-        <v>29.96386179969222</v>
+        <v>29.96386179969226</v>
       </c>
       <c r="T3" t="n">
-        <v>6.502193386993425</v>
+        <v>6.502193386993435</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1061293806364542</v>
+        <v>0.1061293806364544</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.352424675651427</v>
+        <v>1.352424675651429</v>
       </c>
       <c r="H4" t="n">
-        <v>12.02428484351906</v>
+        <v>12.02428484351908</v>
       </c>
       <c r="I4" t="n">
-        <v>40.67109842777202</v>
+        <v>40.67109842777208</v>
       </c>
       <c r="J4" t="n">
-        <v>95.61642456855589</v>
+        <v>95.61642456855604</v>
       </c>
       <c r="K4" t="n">
-        <v>157.1271577711385</v>
+        <v>157.1271577711387</v>
       </c>
       <c r="L4" t="n">
-        <v>201.0686649600313</v>
+        <v>201.0686649600316</v>
       </c>
       <c r="M4" t="n">
-        <v>211.9987152932505</v>
+        <v>211.9987152932508</v>
       </c>
       <c r="N4" t="n">
-        <v>206.9578596840044</v>
+        <v>206.9578596840047</v>
       </c>
       <c r="O4" t="n">
-        <v>191.15908051844</v>
+        <v>191.1590805184402</v>
       </c>
       <c r="P4" t="n">
-        <v>163.5696171351507</v>
+        <v>163.569617135151</v>
       </c>
       <c r="Q4" t="n">
-        <v>113.2471244311391</v>
+        <v>113.2471244311392</v>
       </c>
       <c r="R4" t="n">
-        <v>60.80993132519961</v>
+        <v>60.8099313251997</v>
       </c>
       <c r="S4" t="n">
-        <v>23.56907366567077</v>
+        <v>23.56907366567081</v>
       </c>
       <c r="T4" t="n">
-        <v>5.778541795965187</v>
+        <v>5.778541795965196</v>
       </c>
       <c r="U4" t="n">
-        <v>0.07376861867189612</v>
+        <v>0.07376861867189623</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.777714133265702</v>
+        <v>3.777714133265705</v>
       </c>
       <c r="H5" t="n">
-        <v>38.68851486730739</v>
+        <v>38.68851486730741</v>
       </c>
       <c r="I5" t="n">
         <v>145.6403241227262</v>
       </c>
       <c r="J5" t="n">
-        <v>320.6287649182602</v>
+        <v>320.6287649182604</v>
       </c>
       <c r="K5" t="n">
-        <v>480.5394041793975</v>
+        <v>480.5394041793978</v>
       </c>
       <c r="L5" t="n">
-        <v>596.1516230853279</v>
+        <v>596.1516230853282</v>
       </c>
       <c r="M5" t="n">
-        <v>663.3335468027918</v>
+        <v>663.3335468027922</v>
       </c>
       <c r="N5" t="n">
-        <v>674.066977083933</v>
+        <v>674.0669770839335</v>
       </c>
       <c r="O5" t="n">
-        <v>636.5023321712722</v>
+        <v>636.5023321712725</v>
       </c>
       <c r="P5" t="n">
-        <v>543.2400145062751</v>
+        <v>543.2400145062753</v>
       </c>
       <c r="Q5" t="n">
-        <v>407.9506271086969</v>
+        <v>407.9506271086972</v>
       </c>
       <c r="R5" t="n">
-        <v>237.3018354237519</v>
+        <v>237.301835423752</v>
       </c>
       <c r="S5" t="n">
-        <v>86.08466081179229</v>
+        <v>86.08466081179233</v>
       </c>
       <c r="T5" t="n">
-        <v>16.53694361837062</v>
+        <v>16.53694361837063</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3022171306612562</v>
+        <v>0.3022171306612563</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.021255255360042</v>
+        <v>2.021255255360044</v>
       </c>
       <c r="H6" t="n">
-        <v>19.5210704925562</v>
+        <v>19.52107049255621</v>
       </c>
       <c r="I6" t="n">
-        <v>69.59146383586112</v>
+        <v>69.59146383586116</v>
       </c>
       <c r="J6" t="n">
-        <v>190.9642958583802</v>
+        <v>190.9642958583803</v>
       </c>
       <c r="K6" t="n">
-        <v>326.388397967503</v>
+        <v>326.3883979675032</v>
       </c>
       <c r="L6" t="n">
-        <v>438.8694798973636</v>
+        <v>438.8694798973639</v>
       </c>
       <c r="M6" t="n">
-        <v>512.1399829041651</v>
+        <v>512.1399829041653</v>
       </c>
       <c r="N6" t="n">
-        <v>525.6948043315577</v>
+        <v>525.694804331558</v>
       </c>
       <c r="O6" t="n">
-        <v>480.908043147001</v>
+        <v>480.9080431470013</v>
       </c>
       <c r="P6" t="n">
-        <v>385.9711022274804</v>
+        <v>385.9711022274806</v>
       </c>
       <c r="Q6" t="n">
-        <v>258.0114603157837</v>
+        <v>258.0114603157838</v>
       </c>
       <c r="R6" t="n">
-        <v>125.4951289248981</v>
+        <v>125.4951289248982</v>
       </c>
       <c r="S6" t="n">
-        <v>37.54392985284989</v>
+        <v>37.54392985284991</v>
       </c>
       <c r="T6" t="n">
-        <v>8.147077103841571</v>
+        <v>8.147077103841577</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1329773194315818</v>
+        <v>0.1329773194315819</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.694552507729227</v>
+        <v>1.694552507729228</v>
       </c>
       <c r="H7" t="n">
-        <v>15.06611229599259</v>
+        <v>15.0661122959926</v>
       </c>
       <c r="I7" t="n">
-        <v>50.95981541425714</v>
+        <v>50.95981541425717</v>
       </c>
       <c r="J7" t="n">
-        <v>119.8048622964563</v>
+        <v>119.8048622964564</v>
       </c>
       <c r="K7" t="n">
-        <v>196.8761913525411</v>
+        <v>196.8761913525412</v>
       </c>
       <c r="L7" t="n">
-        <v>251.9337428309435</v>
+        <v>251.9337428309437</v>
       </c>
       <c r="M7" t="n">
-        <v>265.6288080979551</v>
+        <v>265.6288080979552</v>
       </c>
       <c r="N7" t="n">
-        <v>259.3127487509645</v>
+        <v>259.3127487509647</v>
       </c>
       <c r="O7" t="n">
-        <v>239.5172944561276</v>
+        <v>239.5172944561277</v>
       </c>
       <c r="P7" t="n">
-        <v>204.9484232984512</v>
+        <v>204.9484232984513</v>
       </c>
       <c r="Q7" t="n">
-        <v>141.8956649881265</v>
+        <v>141.8956649881266</v>
       </c>
       <c r="R7" t="n">
-        <v>76.19324275662505</v>
+        <v>76.1932427566251</v>
       </c>
       <c r="S7" t="n">
-        <v>29.53142870288116</v>
+        <v>29.53142870288118</v>
       </c>
       <c r="T7" t="n">
-        <v>7.240360714843059</v>
+        <v>7.240360714843064</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09243013678523068</v>
+        <v>0.09243013678523074</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.777714133265703</v>
+        <v>3.777714133265705</v>
       </c>
       <c r="H8" t="n">
-        <v>38.68851486730739</v>
+        <v>38.68851486730741</v>
       </c>
       <c r="I8" t="n">
         <v>145.6403241227262</v>
       </c>
       <c r="J8" t="n">
-        <v>320.6287649182603</v>
+        <v>320.6287649182604</v>
       </c>
       <c r="K8" t="n">
-        <v>480.5394041793976</v>
+        <v>480.5394041793978</v>
       </c>
       <c r="L8" t="n">
-        <v>596.151623085328</v>
+        <v>596.1516230853282</v>
       </c>
       <c r="M8" t="n">
-        <v>663.3335468027918</v>
+        <v>663.3335468027922</v>
       </c>
       <c r="N8" t="n">
-        <v>674.0669770839331</v>
+        <v>674.0669770839335</v>
       </c>
       <c r="O8" t="n">
-        <v>636.5023321712722</v>
+        <v>636.5023321712725</v>
       </c>
       <c r="P8" t="n">
-        <v>543.2400145062751</v>
+        <v>543.2400145062753</v>
       </c>
       <c r="Q8" t="n">
-        <v>407.950627108697</v>
+        <v>407.9506271086972</v>
       </c>
       <c r="R8" t="n">
-        <v>237.3018354237519</v>
+        <v>237.301835423752</v>
       </c>
       <c r="S8" t="n">
-        <v>86.08466081179229</v>
+        <v>86.08466081179233</v>
       </c>
       <c r="T8" t="n">
-        <v>16.53694361837062</v>
+        <v>16.53694361837063</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3022171306612562</v>
+        <v>0.3022171306612563</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.021255255360042</v>
+        <v>2.021255255360044</v>
       </c>
       <c r="H9" t="n">
         <v>19.52107049255621</v>
       </c>
       <c r="I9" t="n">
-        <v>69.59146383586112</v>
+        <v>69.59146383586116</v>
       </c>
       <c r="J9" t="n">
-        <v>190.9642958583802</v>
+        <v>190.9642958583803</v>
       </c>
       <c r="K9" t="n">
-        <v>326.3883979675031</v>
+        <v>326.3883979675032</v>
       </c>
       <c r="L9" t="n">
-        <v>438.8694798973637</v>
+        <v>438.8694798973639</v>
       </c>
       <c r="M9" t="n">
-        <v>512.1399829041651</v>
+        <v>512.1399829041653</v>
       </c>
       <c r="N9" t="n">
-        <v>525.6948043315577</v>
+        <v>525.694804331558</v>
       </c>
       <c r="O9" t="n">
-        <v>480.908043147001</v>
+        <v>480.9080431470013</v>
       </c>
       <c r="P9" t="n">
-        <v>385.9711022274805</v>
+        <v>385.9711022274806</v>
       </c>
       <c r="Q9" t="n">
-        <v>258.0114603157837</v>
+        <v>258.0114603157838</v>
       </c>
       <c r="R9" t="n">
-        <v>125.4951289248981</v>
+        <v>125.4951289248982</v>
       </c>
       <c r="S9" t="n">
-        <v>37.54392985284989</v>
+        <v>37.54392985284991</v>
       </c>
       <c r="T9" t="n">
-        <v>8.147077103841573</v>
+        <v>8.147077103841577</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1329773194315818</v>
+        <v>0.1329773194315819</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.694552507729227</v>
+        <v>1.694552507729228</v>
       </c>
       <c r="H10" t="n">
         <v>15.0661122959926</v>
       </c>
       <c r="I10" t="n">
-        <v>50.95981541425714</v>
+        <v>50.95981541425717</v>
       </c>
       <c r="J10" t="n">
         <v>119.8048622964564</v>
       </c>
       <c r="K10" t="n">
-        <v>196.8761913525411</v>
+        <v>196.8761913525412</v>
       </c>
       <c r="L10" t="n">
-        <v>251.9337428309435</v>
+        <v>251.9337428309437</v>
       </c>
       <c r="M10" t="n">
-        <v>265.6288080979551</v>
+        <v>265.6288080979552</v>
       </c>
       <c r="N10" t="n">
-        <v>259.3127487509646</v>
+        <v>259.3127487509647</v>
       </c>
       <c r="O10" t="n">
-        <v>239.5172944561276</v>
+        <v>239.5172944561277</v>
       </c>
       <c r="P10" t="n">
-        <v>204.9484232984512</v>
+        <v>204.9484232984513</v>
       </c>
       <c r="Q10" t="n">
-        <v>141.8956649881265</v>
+        <v>141.8956649881266</v>
       </c>
       <c r="R10" t="n">
-        <v>76.19324275662505</v>
+        <v>76.1932427566251</v>
       </c>
       <c r="S10" t="n">
-        <v>29.53142870288116</v>
+        <v>29.53142870288118</v>
       </c>
       <c r="T10" t="n">
-        <v>7.24036071484306</v>
+        <v>7.240360714843064</v>
       </c>
       <c r="U10" t="n">
-        <v>0.0924301367852307</v>
+        <v>0.09243013678523074</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,40 +31752,40 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S11" t="n">
         <v>125.3175546292901</v>
@@ -31794,7 +31794,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31840,25 +31840,25 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O12" t="n">
         <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
-        <v>541.2980521010957</v>
+        <v>390.1398273256862</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
@@ -31867,7 +31867,7 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
@@ -31910,13 +31910,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H13" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J13" t="n">
         <v>174.4056633796262</v>
@@ -31934,7 +31934,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P13" t="n">
         <v>298.3532140417315</v>
@@ -31946,7 +31946,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
@@ -32074,31 +32074,31 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422586</v>
+        <v>381.6404378718163</v>
       </c>
       <c r="L15" t="n">
         <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O15" t="n">
-        <v>338.6542681503479</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P15" t="n">
         <v>561.8765786214699</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32238,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>379.8551982710414</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q18" t="n">
-        <v>328.9038320421819</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32414,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32551,28 +32551,28 @@
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>403.3065760821439</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
         <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>489.289183278307</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
         <v>700.0808204437244</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R21" t="n">
         <v>182.6892564418561</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32712,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,10 +32779,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
         <v>99.52238</v>
@@ -32791,22 +32791,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>248.7449369209195</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>334.7693860946154</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
@@ -32815,13 +32815,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,49 +32937,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J26" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162559</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U26" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33016,49 +33016,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>637.8521160493924</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437242</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>332.9841464938401</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.689256441856</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,46 +33098,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P28" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33186,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33253,49 +33253,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>285.8867128925984</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33362,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33423,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33490,49 +33490,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
         <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
-        <v>689.7436082887214</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>465.7451325200306</v>
       </c>
       <c r="O33" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33599,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33660,31 +33660,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33727,34 +33727,34 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>669.5976799347666</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
@@ -33763,13 +33763,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33836,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,43 +33885,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33964,49 +33964,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>264.8708611242914</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34073,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34207,7 +34207,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
@@ -34222,16 +34222,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>232.75998908852</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>145.679503963964</v>
@@ -34359,7 +34359,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34371,31 +34371,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34438,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862122</v>
+        <v>444.2274915982894</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>213.1625787491746</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34547,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>243.944966752077</v>
+        <v>74.84835158000359</v>
       </c>
       <c r="K2" t="n">
-        <v>163.4293051161564</v>
+        <v>484.199429596207</v>
       </c>
       <c r="L2" t="n">
-        <v>647.4981915352464</v>
+        <v>240.0230113315071</v>
       </c>
       <c r="M2" t="n">
-        <v>299.0611783410124</v>
+        <v>299.0611783410131</v>
       </c>
       <c r="N2" t="n">
-        <v>308.5607133692774</v>
+        <v>308.5607133692782</v>
       </c>
       <c r="O2" t="n">
-        <v>556.2071989625313</v>
+        <v>277.8951710269035</v>
       </c>
       <c r="P2" t="n">
-        <v>202.327603322326</v>
+        <v>524.1263114938092</v>
       </c>
       <c r="Q2" t="n">
-        <v>103.2802639586409</v>
+        <v>315.5952546185461</v>
       </c>
       <c r="R2" t="n">
-        <v>39.52180169138492</v>
+        <v>39.52180169138521</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>25.57123921932399</v>
+        <v>25.57123921932421</v>
       </c>
       <c r="K3" t="n">
-        <v>387.1148251643752</v>
+        <v>387.1148251643756</v>
       </c>
       <c r="L3" t="n">
-        <v>340.3443110850978</v>
+        <v>511.1596275153138</v>
       </c>
       <c r="M3" t="n">
-        <v>647.4981915352464</v>
+        <v>266.6055873691795</v>
       </c>
       <c r="N3" t="n">
-        <v>288.2160307407399</v>
+        <v>288.2160307407405</v>
       </c>
       <c r="O3" t="n">
-        <v>635.0794422580004</v>
+        <v>635.0794422580011</v>
       </c>
       <c r="P3" t="n">
-        <v>174.0696575289993</v>
+        <v>174.0696575289998</v>
       </c>
       <c r="Q3" t="n">
-        <v>65.93752551686939</v>
+        <v>276.0148132527188</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>2.257244451883111</v>
+        <v>2.257244451883267</v>
       </c>
       <c r="K4" t="n">
-        <v>134.8576659452556</v>
+        <v>134.8576659452559</v>
       </c>
       <c r="L4" t="n">
-        <v>228.6586902203474</v>
+        <v>228.6586902203478</v>
       </c>
       <c r="M4" t="n">
-        <v>251.5825922550911</v>
+        <v>251.5825922550914</v>
       </c>
       <c r="N4" t="n">
-        <v>251.090032063233</v>
+        <v>251.0900320632333</v>
       </c>
       <c r="O4" t="n">
-        <v>215.7442084324796</v>
+        <v>215.7442084324799</v>
       </c>
       <c r="P4" t="n">
-        <v>160.8481764000442</v>
+        <v>160.8481764000445</v>
       </c>
       <c r="Q4" t="n">
-        <v>27.08508117944467</v>
+        <v>27.08508117944484</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>139.5828603915739</v>
+        <v>139.5828603915741</v>
       </c>
       <c r="K5" t="n">
-        <v>260.449553134417</v>
+        <v>260.4495531344173</v>
       </c>
       <c r="L5" t="n">
-        <v>360.3852081153406</v>
+        <v>360.385208115341</v>
       </c>
       <c r="M5" t="n">
-        <v>432.9873135755191</v>
+        <v>432.9873135755195</v>
       </c>
       <c r="N5" t="n">
-        <v>444.6539134873421</v>
+        <v>444.6539134873425</v>
       </c>
       <c r="O5" t="n">
-        <v>406.4041207495854</v>
+        <v>406.4041207495858</v>
       </c>
       <c r="P5" t="n">
-        <v>312.0070187510055</v>
+        <v>312.0070187510051</v>
       </c>
       <c r="Q5" t="n">
-        <v>185.6449372342475</v>
+        <v>185.6449372342477</v>
       </c>
       <c r="R5" t="n">
-        <v>21.71629760961977</v>
+        <v>21.71629760961991</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>64.12666919171349</v>
+        <v>64.1266691917136</v>
       </c>
       <c r="K6" t="n">
-        <v>188.546958993144</v>
+        <v>453.0121960057228</v>
       </c>
       <c r="L6" t="n">
-        <v>300.3151001174895</v>
+        <v>300.3151001174897</v>
       </c>
       <c r="M6" t="n">
-        <v>370.0059489821468</v>
+        <v>370.005948982147</v>
       </c>
       <c r="N6" t="n">
-        <v>394.3530922482245</v>
+        <v>394.3530922482247</v>
       </c>
       <c r="O6" t="n">
-        <v>638.1667584170065</v>
+        <v>338.3117987025568</v>
       </c>
       <c r="P6" t="n">
-        <v>251.9966948131502</v>
+        <v>497.4637052508691</v>
       </c>
       <c r="Q6" t="n">
-        <v>328.1069739656112</v>
+        <v>118.0296862297623</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35093,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>26.44568217978357</v>
+        <v>26.44568217978365</v>
       </c>
       <c r="K7" t="n">
-        <v>174.6066995266582</v>
+        <v>174.6066995266583</v>
       </c>
       <c r="L7" t="n">
-        <v>279.5237680912596</v>
+        <v>279.5237680912598</v>
       </c>
       <c r="M7" t="n">
-        <v>305.2126850597957</v>
+        <v>305.2126850597958</v>
       </c>
       <c r="N7" t="n">
-        <v>303.4449211301932</v>
+        <v>303.4449211301933</v>
       </c>
       <c r="O7" t="n">
-        <v>264.1024223701672</v>
+        <v>264.1024223701674</v>
       </c>
       <c r="P7" t="n">
-        <v>202.2269825633446</v>
+        <v>202.2269825633448</v>
       </c>
       <c r="Q7" t="n">
-        <v>55.73362173643208</v>
+        <v>55.73362173643217</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>139.582860391574</v>
+        <v>139.5828603915741</v>
       </c>
       <c r="K8" t="n">
-        <v>260.449553134417</v>
+        <v>260.4495531344173</v>
       </c>
       <c r="L8" t="n">
-        <v>360.3852081153407</v>
+        <v>360.385208115341</v>
       </c>
       <c r="M8" t="n">
-        <v>432.9873135755191</v>
+        <v>432.9873135755195</v>
       </c>
       <c r="N8" t="n">
-        <v>444.6539134873422</v>
+        <v>444.6539134873425</v>
       </c>
       <c r="O8" t="n">
-        <v>406.4041207495854</v>
+        <v>406.4041207495858</v>
       </c>
       <c r="P8" t="n">
-        <v>312.0070187510055</v>
+        <v>312.0070187510058</v>
       </c>
       <c r="Q8" t="n">
-        <v>185.6449372342475</v>
+        <v>185.6449372342477</v>
       </c>
       <c r="R8" t="n">
-        <v>21.7162976096198</v>
+        <v>21.71629760961991</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,31 +35251,31 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>64.12666919171352</v>
+        <v>190.2177045321224</v>
       </c>
       <c r="K9" t="n">
-        <v>453.0121960057227</v>
+        <v>188.5469589931442</v>
       </c>
       <c r="L9" t="n">
-        <v>300.3151001174895</v>
+        <v>300.3151001174897</v>
       </c>
       <c r="M9" t="n">
-        <v>370.0059489821468</v>
+        <v>500.7020618050138</v>
       </c>
       <c r="N9" t="n">
-        <v>404.4055201778405</v>
+        <v>647.4981915352469</v>
       </c>
       <c r="O9" t="n">
-        <v>338.3117987025566</v>
+        <v>338.3117987025568</v>
       </c>
       <c r="P9" t="n">
-        <v>251.9966948131502</v>
+        <v>251.9966948131504</v>
       </c>
       <c r="Q9" t="n">
-        <v>328.1069739656113</v>
+        <v>118.0296862297623</v>
       </c>
       <c r="R9" t="n">
-        <v>25.33729477225501</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>26.44568217978359</v>
+        <v>26.44568217978365</v>
       </c>
       <c r="K10" t="n">
-        <v>174.6066995266582</v>
+        <v>174.6066995266583</v>
       </c>
       <c r="L10" t="n">
-        <v>279.5237680912597</v>
+        <v>279.5237680912598</v>
       </c>
       <c r="M10" t="n">
-        <v>305.2126850597957</v>
+        <v>305.2126850597958</v>
       </c>
       <c r="N10" t="n">
-        <v>303.4449211301932</v>
+        <v>303.4449211301933</v>
       </c>
       <c r="O10" t="n">
-        <v>264.1024223701673</v>
+        <v>264.1024223701674</v>
       </c>
       <c r="P10" t="n">
-        <v>202.2269825633447</v>
+        <v>202.2269825633448</v>
       </c>
       <c r="Q10" t="n">
-        <v>55.73362173643211</v>
+        <v>55.73362173643217</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35406,31 +35406,31 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902934</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P11" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R11" t="n">
         <v>129.8660843902405</v>
@@ -35485,28 +35485,28 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674331</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>407.3236446867654</v>
+        <v>256.165419911356</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35567,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K13" t="n">
         <v>264.332588409635</v>
@@ -35579,7 +35579,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O13" t="n">
         <v>373.2618997060455</v>
@@ -35722,31 +35722,31 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>243.7989988974573</v>
       </c>
       <c r="L15" t="n">
         <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>196.0580237059035</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P15" t="n">
         <v>427.9021712071396</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,31 +35959,31 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>242.0137592966825</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q18" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36144,7 +36144,7 @@
         <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>265.4651371077849</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>357.9474711949737</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
         <v>557.48457599928</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R21" t="n">
         <v>37.00975247789214</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36439,22 +36439,22 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>110.1905571410453</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>200.7949786802852</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317227</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J26" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367769</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902946</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243158</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,34 +36670,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774901</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J27" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>499.2977362695183</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992797</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>199.0097390795098</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789208</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36752,28 +36752,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q28" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,34 +36907,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>151.9123054782682</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37147,31 +37147,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
-        <v>547.609574366703</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,28 +37381,28 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
-        <v>527.4636460127483</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,31 +37618,31 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>127.0294221499325</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37855,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37870,16 +37870,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>98.78558167418976</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,34 +38092,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>302.093457676271</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>73.18080466315305</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_9_36.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_9_36.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3385719.047434297</v>
+        <v>3387479.577737083</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283183</v>
+        <v>416855.1052283186</v>
       </c>
     </row>
     <row r="9">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>272.7888244133945</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -667,16 +667,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
         <v>12.28773869504415</v>
       </c>
       <c r="H2" t="n">
-        <v>70.66742361733911</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -709,13 +709,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>140.315783973424</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>209.8976922291835</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.1044530022292</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -816,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -831,7 +831,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.6385546828073</v>
+        <v>14.9648357885101</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -867,7 +867,7 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>28.15826128764012</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -910,13 +910,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>60.30861894766562</v>
+        <v>11.52502338186935</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>158.7162633552376</v>
       </c>
       <c r="I5" t="n">
-        <v>64.83556544767967</v>
+        <v>64.83556544767973</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>122.935408774453</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -961,7 +961,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -995,7 +995,7 @@
         <v>92.71437374394026</v>
       </c>
       <c r="I6" t="n">
-        <v>19.80516901555391</v>
+        <v>19.80516901555394</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1053,10 +1053,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1074,7 +1074,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>104.4906595130011</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1104,19 +1104,19 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>194.4851693340911</v>
       </c>
       <c r="T7" t="n">
-        <v>220.7052287134384</v>
+        <v>203.4518604057858</v>
       </c>
       <c r="U7" t="n">
         <v>286.2265992197056</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>186.7813025827028</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -1147,7 +1147,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>112.1414434103351</v>
+        <v>11.52502338186935</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1198,10 +1198,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>117.1232580060487</v>
       </c>
     </row>
     <row r="9">
@@ -1232,7 +1232,7 @@
         <v>92.71437374394026</v>
       </c>
       <c r="I9" t="n">
-        <v>19.80516901555391</v>
+        <v>19.80516901555394</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1299,13 +1299,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>100.5827519824194</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>60.86538463674658</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -1372,7 +1372,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710094</v>
+        <v>365.2728917710085</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695526</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1539,7 +1539,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
@@ -1575,13 +1575,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012164</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>106.2078024559166</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
@@ -1596,7 +1596,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>186.4328067935332</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1660,7 +1660,7 @@
         <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576173</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
         <v>250.9057009881286</v>
@@ -1897,10 +1897,10 @@
         <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -2019,7 +2019,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>9.146142788179931</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2095,7 +2095,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2241,22 +2241,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>110.0177171766861</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>102.1557845699818</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>9.146142788179931</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2730,7 +2730,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2781,7 +2781,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>161.355549430153</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2842,13 +2842,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2967,10 +2967,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3012,7 +3012,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>148.0280580960837</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>9.146142788179931</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3246,7 +3246,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>194.9085394018857</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -3277,7 +3277,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417118</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
         <v>409.8033385187866</v>
@@ -3429,22 +3429,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,16 +3471,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>172.026033500079</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3678,7 +3678,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>83.06560892428213</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3903,7 +3903,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3918,7 +3918,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,16 +3945,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>216.4795114578124</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -4152,7 +4152,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4203,7 +4203,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>161.3555494301526</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4306,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>869.766664864017</v>
+        <v>1588.214085525555</v>
       </c>
       <c r="C2" t="n">
-        <v>500.8041479236053</v>
+        <v>1219.251568585143</v>
       </c>
       <c r="D2" t="n">
-        <v>142.5384493168548</v>
+        <v>860.9858699783929</v>
       </c>
       <c r="E2" t="n">
-        <v>142.5384493168548</v>
+        <v>475.1976173801486</v>
       </c>
       <c r="F2" t="n">
-        <v>135.5929485676513</v>
+        <v>64.2117125905411</v>
       </c>
       <c r="G2" t="n">
-        <v>123.1810912999299</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="H2" t="n">
         <v>51.79985532281972</v>
@@ -4333,49 +4333,49 @@
         <v>125.8997233870233</v>
       </c>
       <c r="K2" t="n">
-        <v>605.2571586872682</v>
+        <v>287.6947354520187</v>
       </c>
       <c r="L2" t="n">
-        <v>842.8799399054602</v>
+        <v>730.2783389764052</v>
       </c>
       <c r="M2" t="n">
-        <v>1138.950506463063</v>
+        <v>1371.301548596299</v>
       </c>
       <c r="N2" t="n">
-        <v>1444.425612698649</v>
+        <v>2012.324758216193</v>
       </c>
       <c r="O2" t="n">
-        <v>1719.541832015283</v>
+        <v>2287.440977532828</v>
       </c>
       <c r="P2" t="n">
-        <v>2238.426880394154</v>
+        <v>2487.745304821931</v>
       </c>
       <c r="Q2" t="n">
-        <v>2550.866182466515</v>
+        <v>2589.992766140986</v>
       </c>
       <c r="R2" t="n">
         <v>2589.992766140986</v>
       </c>
       <c r="S2" t="n">
-        <v>2448.259651016315</v>
+        <v>2589.992766140986</v>
       </c>
       <c r="T2" t="n">
-        <v>2236.241780077746</v>
+        <v>2589.992766140986</v>
       </c>
       <c r="U2" t="n">
-        <v>1982.600918459333</v>
+        <v>2589.992766140986</v>
       </c>
       <c r="V2" t="n">
-        <v>1982.600918459333</v>
+        <v>2589.992766140986</v>
       </c>
       <c r="W2" t="n">
-        <v>1629.832263189219</v>
+        <v>2237.224110870872</v>
       </c>
       <c r="X2" t="n">
-        <v>1256.366504928139</v>
+        <v>1863.758352609792</v>
       </c>
       <c r="Y2" t="n">
-        <v>1256.366504928139</v>
+        <v>1863.758352609792</v>
       </c>
     </row>
     <row r="3">
@@ -4385,25 +4385,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>949.8902083093635</v>
+        <v>949.8902083093631</v>
       </c>
       <c r="C3" t="n">
-        <v>775.4371790282365</v>
+        <v>775.4371790282361</v>
       </c>
       <c r="D3" t="n">
-        <v>626.5027693669851</v>
+        <v>626.5027693669849</v>
       </c>
       <c r="E3" t="n">
-        <v>467.2653143615296</v>
+        <v>467.2653143615294</v>
       </c>
       <c r="F3" t="n">
-        <v>320.7307563884146</v>
+        <v>320.7307563884145</v>
       </c>
       <c r="G3" t="n">
         <v>183.6293921686806</v>
       </c>
       <c r="H3" t="n">
-        <v>85.9974213009382</v>
+        <v>85.99742130093821</v>
       </c>
       <c r="I3" t="n">
         <v>51.79985532281972</v>
@@ -4415,19 +4415,19 @@
         <v>460.3590590626825</v>
       </c>
       <c r="L3" t="n">
-        <v>966.4070903028432</v>
+        <v>1037.081874165938</v>
       </c>
       <c r="M3" t="n">
-        <v>1230.346621798331</v>
+        <v>1301.021405661426</v>
       </c>
       <c r="N3" t="n">
-        <v>1515.680492231664</v>
+        <v>1586.355276094759</v>
       </c>
       <c r="O3" t="n">
-        <v>2144.409140067085</v>
+        <v>2037.107513972038</v>
       </c>
       <c r="P3" t="n">
-        <v>2316.738101020795</v>
+        <v>2524.714615879285</v>
       </c>
       <c r="Q3" t="n">
         <v>2589.992766140986</v>
@@ -4442,7 +4442,7 @@
         <v>2251.223226128891</v>
       </c>
       <c r="U3" t="n">
-        <v>2023.106809259863</v>
+        <v>2023.106809259862</v>
       </c>
       <c r="V3" t="n">
         <v>1787.95470102812</v>
@@ -4454,7 +4454,7 @@
         <v>1325.865844094385</v>
       </c>
       <c r="Y3" t="n">
-        <v>1118.105545329432</v>
+        <v>1118.105545329431</v>
       </c>
     </row>
     <row r="4">
@@ -4464,19 +4464,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>833.9774911502419</v>
+        <v>680.7717144893356</v>
       </c>
       <c r="C4" t="n">
-        <v>665.041308222335</v>
+        <v>511.8355315614288</v>
       </c>
       <c r="D4" t="n">
-        <v>514.9246688099993</v>
+        <v>361.718892149093</v>
       </c>
       <c r="E4" t="n">
-        <v>367.0115752276062</v>
+        <v>213.8057985666999</v>
       </c>
       <c r="F4" t="n">
-        <v>220.1216277296958</v>
+        <v>66.91585106878952</v>
       </c>
       <c r="G4" t="n">
         <v>51.79985532281972</v>
@@ -4515,25 +4515,25 @@
         <v>1311.202309361123</v>
       </c>
       <c r="S4" t="n">
-        <v>1282.759621191789</v>
+        <v>1311.202309361123</v>
       </c>
       <c r="T4" t="n">
-        <v>1282.759621191789</v>
+        <v>1311.202309361123</v>
       </c>
       <c r="U4" t="n">
-        <v>1282.759621191789</v>
+        <v>1311.202309361123</v>
       </c>
       <c r="V4" t="n">
-        <v>1282.759621191789</v>
+        <v>1311.202309361123</v>
       </c>
       <c r="W4" t="n">
-        <v>1282.759621191789</v>
+        <v>1311.202309361123</v>
       </c>
       <c r="X4" t="n">
-        <v>1054.770070293772</v>
+        <v>1083.212758463106</v>
       </c>
       <c r="Y4" t="n">
-        <v>833.9774911502419</v>
+        <v>862.4201793195754</v>
       </c>
     </row>
     <row r="5">
@@ -4543,37 +4543,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1702.210495323839</v>
+        <v>1813.253594101053</v>
       </c>
       <c r="C5" t="n">
-        <v>1333.247978383427</v>
+        <v>1444.291077160641</v>
       </c>
       <c r="D5" t="n">
-        <v>974.9822797766769</v>
+        <v>1086.025378553891</v>
       </c>
       <c r="E5" t="n">
-        <v>589.1940271784326</v>
+        <v>700.2371259556462</v>
       </c>
       <c r="F5" t="n">
-        <v>178.2081223888251</v>
+        <v>289.2512211660386</v>
       </c>
       <c r="G5" t="n">
-        <v>117.2903254719911</v>
+        <v>277.6097834065746</v>
       </c>
       <c r="H5" t="n">
-        <v>117.2903254719911</v>
+        <v>117.2903254719912</v>
       </c>
       <c r="I5" t="n">
         <v>51.79985532281972</v>
       </c>
       <c r="J5" t="n">
-        <v>189.9868871104781</v>
+        <v>189.9868871104791</v>
       </c>
       <c r="K5" t="n">
-        <v>447.8319447135512</v>
+        <v>447.8319447135521</v>
       </c>
       <c r="L5" t="n">
-        <v>804.6133007477388</v>
+        <v>804.6133007477395</v>
       </c>
       <c r="M5" t="n">
         <v>1233.270741187503</v>
@@ -4594,25 +4594,25 @@
         <v>2589.992766140986</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.815585560731</v>
+        <v>2589.992766140986</v>
       </c>
       <c r="T5" t="n">
-        <v>2465.815585560731</v>
+        <v>2589.992766140986</v>
       </c>
       <c r="U5" t="n">
-        <v>2465.815585560731</v>
+        <v>2589.992766140986</v>
       </c>
       <c r="V5" t="n">
-        <v>2465.815585560731</v>
+        <v>2589.992766140986</v>
       </c>
       <c r="W5" t="n">
-        <v>2465.815585560731</v>
+        <v>2589.992766140986</v>
       </c>
       <c r="X5" t="n">
-        <v>2092.349827299651</v>
+        <v>2589.992766140986</v>
       </c>
       <c r="Y5" t="n">
-        <v>1702.210495323839</v>
+        <v>2199.853434165174</v>
       </c>
     </row>
     <row r="6">
@@ -4631,40 +4631,40 @@
         <v>607.9171255411325</v>
       </c>
       <c r="E6" t="n">
-        <v>448.6796705356769</v>
+        <v>448.679670535677</v>
       </c>
       <c r="F6" t="n">
-        <v>302.1451125625619</v>
+        <v>302.145112562562</v>
       </c>
       <c r="G6" t="n">
         <v>165.4559591202886</v>
       </c>
       <c r="H6" t="n">
-        <v>71.80507655065196</v>
+        <v>71.80507655065199</v>
       </c>
       <c r="I6" t="n">
         <v>51.79985532281972</v>
       </c>
       <c r="J6" t="n">
-        <v>115.2852578226162</v>
+        <v>240.1153828096209</v>
       </c>
       <c r="K6" t="n">
-        <v>563.7673318682818</v>
+        <v>598.8031573431335</v>
       </c>
       <c r="L6" t="n">
-        <v>861.0792809845966</v>
+        <v>896.1151064594483</v>
       </c>
       <c r="M6" t="n">
-        <v>1227.385170476922</v>
+        <v>1262.420995951774</v>
       </c>
       <c r="N6" t="n">
-        <v>1617.794731802665</v>
+        <v>1652.830557277516</v>
       </c>
       <c r="O6" t="n">
-        <v>1952.723412518196</v>
+        <v>1987.759237993047</v>
       </c>
       <c r="P6" t="n">
-        <v>2445.212480716556</v>
+        <v>2237.235965858066</v>
       </c>
       <c r="Q6" t="n">
         <v>2562.061870084021</v>
@@ -4701,49 +4701,49 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>536.6253205712304</v>
+        <v>473.2352583635267</v>
       </c>
       <c r="C7" t="n">
-        <v>367.6891376433235</v>
+        <v>473.2352583635267</v>
       </c>
       <c r="D7" t="n">
-        <v>367.6891376433235</v>
+        <v>473.2352583635267</v>
       </c>
       <c r="E7" t="n">
-        <v>219.7760440609304</v>
+        <v>325.3221647811336</v>
       </c>
       <c r="F7" t="n">
-        <v>219.7760440609304</v>
+        <v>325.3221647811336</v>
       </c>
       <c r="G7" t="n">
-        <v>51.79985532281972</v>
+        <v>157.3459760430229</v>
       </c>
       <c r="H7" t="n">
-        <v>51.79985532281972</v>
+        <v>157.3459760430229</v>
       </c>
       <c r="I7" t="n">
         <v>51.79985532281972</v>
       </c>
       <c r="J7" t="n">
-        <v>77.98108068080553</v>
+        <v>77.98108068080549</v>
       </c>
       <c r="K7" t="n">
-        <v>250.8417132121973</v>
+        <v>250.8417132121972</v>
       </c>
       <c r="L7" t="n">
-        <v>527.5702436225445</v>
+        <v>527.5702436225444</v>
       </c>
       <c r="M7" t="n">
-        <v>829.7308018317424</v>
+        <v>829.7308018317422</v>
       </c>
       <c r="N7" t="n">
-        <v>1130.141273750634</v>
+        <v>1130.141273750633</v>
       </c>
       <c r="O7" t="n">
         <v>1391.602671897099</v>
       </c>
       <c r="P7" t="n">
-        <v>1591.807384634811</v>
+        <v>1591.80738463481</v>
       </c>
       <c r="Q7" t="n">
         <v>1646.983670153878</v>
@@ -4752,25 +4752,25 @@
         <v>1646.983670153878</v>
       </c>
       <c r="S7" t="n">
-        <v>1646.983670153878</v>
+        <v>1450.534004159847</v>
       </c>
       <c r="T7" t="n">
-        <v>1424.04909569586</v>
+        <v>1245.027074457033</v>
       </c>
       <c r="U7" t="n">
-        <v>1134.931318706258</v>
+        <v>955.9092974674309</v>
       </c>
       <c r="V7" t="n">
-        <v>1134.931318706258</v>
+        <v>701.224809261544</v>
       </c>
       <c r="W7" t="n">
-        <v>946.2633362994875</v>
+        <v>701.224809261544</v>
       </c>
       <c r="X7" t="n">
-        <v>718.2737854014701</v>
+        <v>473.2352583635267</v>
       </c>
       <c r="Y7" t="n">
-        <v>718.2737854014701</v>
+        <v>473.2352583635267</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1689.076413520798</v>
+        <v>1587.443666017298</v>
       </c>
       <c r="C8" t="n">
-        <v>1320.113896580387</v>
+        <v>1218.481149076886</v>
       </c>
       <c r="D8" t="n">
-        <v>961.8481979736364</v>
+        <v>860.2154504701355</v>
       </c>
       <c r="E8" t="n">
-        <v>576.0599453753921</v>
+        <v>474.4271978718913</v>
       </c>
       <c r="F8" t="n">
-        <v>165.0740405857845</v>
+        <v>63.44129308228371</v>
       </c>
       <c r="G8" t="n">
-        <v>51.79985532281975</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="H8" t="n">
-        <v>51.79985532281975</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="I8" t="n">
-        <v>51.79985532281975</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="J8" t="n">
         <v>189.9868871104782</v>
       </c>
       <c r="K8" t="n">
-        <v>447.8319447135514</v>
+        <v>447.8319447135512</v>
       </c>
       <c r="L8" t="n">
-        <v>804.613300747739</v>
+        <v>804.6133007477385</v>
       </c>
       <c r="M8" t="n">
         <v>1233.270741187503</v>
       </c>
       <c r="N8" t="n">
-        <v>1673.478115539972</v>
+        <v>1673.478115539971</v>
       </c>
       <c r="O8" t="n">
-        <v>2075.818195082062</v>
+        <v>2075.818195082061</v>
       </c>
       <c r="P8" t="n">
-        <v>2384.705143645558</v>
+        <v>2384.705143645557</v>
       </c>
       <c r="Q8" t="n">
-        <v>2568.493631507464</v>
+        <v>2568.493631507462</v>
       </c>
       <c r="R8" t="n">
-        <v>2589.992766140987</v>
+        <v>2589.992766140986</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.815585560732</v>
+        <v>2465.81558556073</v>
       </c>
       <c r="T8" t="n">
-        <v>2465.815585560732</v>
+        <v>2465.81558556073</v>
       </c>
       <c r="U8" t="n">
-        <v>2465.815585560732</v>
+        <v>2465.81558556073</v>
       </c>
       <c r="V8" t="n">
-        <v>2465.815585560732</v>
+        <v>2465.81558556073</v>
       </c>
       <c r="W8" t="n">
-        <v>2465.815585560732</v>
+        <v>2465.81558556073</v>
       </c>
       <c r="X8" t="n">
-        <v>2465.815585560732</v>
+        <v>2092.34982729965</v>
       </c>
       <c r="Y8" t="n">
-        <v>2075.67625358492</v>
+        <v>1974.043506081419</v>
       </c>
     </row>
     <row r="9">
@@ -4880,28 +4880,28 @@
         <v>71.80507655065199</v>
       </c>
       <c r="I9" t="n">
-        <v>51.79985532281975</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="J9" t="n">
-        <v>240.115382809621</v>
+        <v>240.1153828096209</v>
       </c>
       <c r="K9" t="n">
-        <v>426.7768722128337</v>
+        <v>598.8031573431335</v>
       </c>
       <c r="L9" t="n">
-        <v>724.0888213291485</v>
+        <v>896.1151064594483</v>
       </c>
       <c r="M9" t="n">
-        <v>1219.783862516112</v>
+        <v>1262.420995951774</v>
       </c>
       <c r="N9" t="n">
-        <v>1860.807072136006</v>
+        <v>1652.830557277516</v>
       </c>
       <c r="O9" t="n">
-        <v>2195.735752851538</v>
+        <v>1987.759237993047</v>
       </c>
       <c r="P9" t="n">
-        <v>2445.212480716556</v>
+        <v>2237.235965858066</v>
       </c>
       <c r="Q9" t="n">
         <v>2562.061870084021</v>
@@ -4938,49 +4938,49 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>472.4514170392436</v>
+        <v>727.1359052451301</v>
       </c>
       <c r="C10" t="n">
-        <v>303.5152341113367</v>
+        <v>558.1997223172232</v>
       </c>
       <c r="D10" t="n">
-        <v>153.3985946990009</v>
+        <v>408.0830829048874</v>
       </c>
       <c r="E10" t="n">
-        <v>153.3985946990009</v>
+        <v>260.1699893224943</v>
       </c>
       <c r="F10" t="n">
-        <v>51.79985532281975</v>
+        <v>113.2800418245839</v>
       </c>
       <c r="G10" t="n">
-        <v>51.79985532281975</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="H10" t="n">
-        <v>51.79985532281975</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="I10" t="n">
-        <v>51.79985532281975</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="J10" t="n">
-        <v>77.98108068080556</v>
+        <v>77.98108068080549</v>
       </c>
       <c r="K10" t="n">
-        <v>250.8417132121973</v>
+        <v>250.8417132121972</v>
       </c>
       <c r="L10" t="n">
-        <v>527.5702436225445</v>
+        <v>527.5702436225444</v>
       </c>
       <c r="M10" t="n">
-        <v>829.7308018317424</v>
+        <v>829.7308018317422</v>
       </c>
       <c r="N10" t="n">
-        <v>1130.141273750634</v>
+        <v>1130.141273750633</v>
       </c>
       <c r="O10" t="n">
         <v>1391.602671897099</v>
       </c>
       <c r="P10" t="n">
-        <v>1591.807384634811</v>
+        <v>1591.80738463481</v>
       </c>
       <c r="Q10" t="n">
         <v>1646.983670153878</v>
@@ -4998,16 +4998,16 @@
         <v>1646.983670153878</v>
       </c>
       <c r="V10" t="n">
-        <v>1392.299181947991</v>
+        <v>1646.983670153878</v>
       </c>
       <c r="W10" t="n">
-        <v>1102.882011911031</v>
+        <v>1357.566500116917</v>
       </c>
       <c r="X10" t="n">
-        <v>874.8924610130134</v>
+        <v>1129.5769492189</v>
       </c>
       <c r="Y10" t="n">
-        <v>654.0998818694833</v>
+        <v>908.7843700753698</v>
       </c>
     </row>
     <row r="11">
@@ -5017,10 +5017,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004713</v>
@@ -5029,25 +5029,25 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332389</v>
       </c>
       <c r="M11" t="n">
         <v>2206.55866301478</v>
@@ -5065,28 +5065,28 @@
         <v>4562.265728852257</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T11" t="n">
         <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="12">
@@ -5114,31 +5114,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>95.5840502527391</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J12" t="n">
-        <v>245.2306927803939</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>579.1554649516146</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>1074.481071167374</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1671.859558793926</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N12" t="n">
-        <v>2299.457522348533</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="O12" t="n">
-        <v>2299.457522348533</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>727.9786782557277</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C13" t="n">
-        <v>559.0424953278208</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D13" t="n">
-        <v>408.9258559154851</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E13" t="n">
-        <v>261.012762333092</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F13" t="n">
-        <v>261.012762333092</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782958</v>
@@ -5208,7 +5208,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
         <v>1665.560112570818</v>
@@ -5217,34 +5217,34 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
         <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832664</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510509</v>
+        <v>2156.827640693835</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854707</v>
+        <v>1867.752414038033</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.70136564882</v>
+        <v>1613.067925832146</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611859</v>
+        <v>1323.650755795185</v>
       </c>
       <c r="X13" t="n">
-        <v>916.294644713842</v>
+        <v>1095.661204897168</v>
       </c>
       <c r="Y13" t="n">
-        <v>727.9786782557277</v>
+        <v>874.8686257536381</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111726</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="15">
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5351,28 +5351,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>484.8243144841094</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>980.1499206998682</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1577.52840832642</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N15" t="n">
-        <v>1577.52840832642</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O15" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
         <v>2553.061288060775</v>
@@ -5415,25 +5415,25 @@
         <v>571.6607764188008</v>
       </c>
       <c r="C16" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D16" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E16" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F16" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G16" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782958</v>
@@ -5518,25 +5518,25 @@
         <v>378.1925803111716</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
@@ -5591,25 +5591,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>484.8243144841094</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>980.1499206998682</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>1577.52840832642</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N18" t="n">
-        <v>1577.52840832642</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O18" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
         <v>2553.061288060775</v>
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C19" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D19" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E19" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H19" t="n">
         <v>93.81666304797187</v>
@@ -5697,28 +5697,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V19" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W19" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X19" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y19" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="20">
@@ -5734,13 +5734,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
@@ -5749,31 +5749,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
@@ -5788,13 +5788,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5834,19 +5834,19 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>506.2737913123336</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>506.2737913123336</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="M21" t="n">
-        <v>1103.652278938886</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="N21" t="n">
-        <v>1731.250242493492</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O21" t="n">
-        <v>2283.159972732779</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P21" t="n">
         <v>2283.159972732779</v>
@@ -5889,19 +5889,19 @@
         <v>513.8536007400717</v>
       </c>
       <c r="C22" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D22" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E22" t="n">
-        <v>402.7245934908938</v>
+        <v>197.0043242297717</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
         <v>93.81666304797187</v>
@@ -5977,22 +5977,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6001,16 +6001,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
@@ -6025,13 +6025,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6074,16 +6074,16 @@
         <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>577.3880777468471</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>1174.766565373399</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N24" t="n">
-        <v>1802.364528928006</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O24" t="n">
-        <v>2354.274259167293</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
         <v>2553.061288060775</v>
@@ -6126,16 +6126,16 @@
         <v>571.6607764188008</v>
       </c>
       <c r="C25" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D25" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G25" t="n">
         <v>235.5284942057738</v>
@@ -6147,28 +6147,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
         <v>2437.724555511392</v>
@@ -6214,34 +6214,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6302,25 +6302,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516144</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L27" t="n">
-        <v>579.1554649516144</v>
+        <v>352.5519571452614</v>
       </c>
       <c r="M27" t="n">
-        <v>1176.533952578166</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N27" t="n">
-        <v>1804.131916132773</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O27" t="n">
-        <v>2356.04164637206</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P27" t="n">
         <v>2553.061288060775</v>
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E28" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H28" t="n">
         <v>93.81666304797187</v>
@@ -6384,52 +6384,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6439,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="30">
@@ -6527,7 +6527,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6536,31 +6536,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N30" t="n">
-        <v>2299.457522348532</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O30" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q30" t="n">
         <v>2553.061288060775</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>653.7474797708871</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D31" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E31" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578601</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1284.178074642674</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1056.188523744657</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>835.3959446011269</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6688,40 +6688,40 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111703</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
@@ -6776,22 +6776,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K33" t="n">
-        <v>577.3880777468471</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L33" t="n">
-        <v>1072.713683962606</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M33" t="n">
-        <v>1670.092171589158</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N33" t="n">
-        <v>2001.151557821488</v>
+        <v>2149.810879820877</v>
       </c>
       <c r="O33" t="n">
         <v>2553.061288060775</v>
@@ -6837,16 +6837,16 @@
         <v>571.6607764188008</v>
       </c>
       <c r="C34" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D34" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E34" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G34" t="n">
         <v>235.5284942057738</v>
@@ -6858,40 +6858,40 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
         <v>1491.508541327549</v>
@@ -6916,7 +6916,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
         <v>1590.547811004713</v>
@@ -6931,16 +6931,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192599</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111716</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6955,22 +6955,22 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
         <v>3820.749612123003</v>
@@ -7001,7 +7001,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7010,25 +7010,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N36" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O36" t="n">
         <v>2553.061288060775</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1098.667160263526</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>929.7309773356194</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>779.6143379232836</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E37" t="n">
-        <v>631.7012443408905</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578601</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2446.963083580261</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>2273.199413378161</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>2018.514925172274</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1729.097755135313</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7162,34 +7162,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7250,22 +7250,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N39" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O39" t="n">
         <v>2553.061288060775</v>
@@ -7308,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400717</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D40" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E40" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F40" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G40" t="n">
-        <v>177.7213185270447</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
         <v>93.81666304797187</v>
@@ -7332,52 +7332,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487568</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510509</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854707</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.70136564882</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611859</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138415</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703114</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="41">
@@ -7408,22 +7408,22 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
         <v>3640.42229106801</v>
@@ -7487,25 +7487,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516142</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L42" t="n">
-        <v>1074.481071167373</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M42" t="n">
-        <v>1671.859558793925</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N42" t="n">
-        <v>2299.457522348532</v>
+        <v>1963.765362972544</v>
       </c>
       <c r="O42" t="n">
-        <v>2553.061288060775</v>
+        <v>2515.675093211831</v>
       </c>
       <c r="P42" t="n">
         <v>2553.061288060775</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>803.8641191832229</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C43" t="n">
-        <v>634.927936255316</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D43" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E43" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7593,28 +7593,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T43" t="n">
-        <v>1978.396372297858</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U43" t="n">
-        <v>1978.396372297858</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V43" t="n">
-        <v>1723.711884091971</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W43" t="n">
-        <v>1434.29471405501</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X43" t="n">
-        <v>1206.305163156993</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y43" t="n">
-        <v>985.5125840134626</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="44">
@@ -7639,16 +7639,16 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
         <v>852.8523611075807</v>
@@ -7736,10 +7736,10 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
         <v>2553.061288060775</v>
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D46" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7851,7 +7851,7 @@
         <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -7981,28 +7981,28 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>320.77012448005</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>207.0311336426206</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>348.4370131942334</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>338.9374781659683</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>65.71641987298243</v>
+        <v>26.19461818159724</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8063,7 +8063,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>299.4516747346764</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -8072,13 +8072,13 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>393.8623192767295</v>
+        <v>214.0881678038583</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8294,10 +8294,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>173.7639243740404</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8312,13 +8312,13 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>245.4670104377187</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
-        <v>20.18437503906576</v>
+        <v>20.1843750390658</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8534,16 +8534,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>173.7639243740404</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>130.6961128228668</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>253.1450992870222</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
@@ -8552,10 +8552,10 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
-        <v>20.18437503906576</v>
+        <v>20.1843750390658</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8932,7 +8932,7 @@
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>-3.282327221323107e-14</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
@@ -23427,7 +23427,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23436,7 +23436,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,13 +23463,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>111.1976478713717</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23484,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>32.15184655856163</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23907,7 +23907,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856552</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>57.22910392194173</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -24129,22 +24129,22 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>57.22910392194177</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>43.26526345294945</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856552</v>
@@ -24384,7 +24384,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>57.22910392194173</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24618,10 +24618,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24669,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>57.22910392194177</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24855,10 +24855,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24900,7 +24900,7 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>138.4949402405073</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25095,7 +25095,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>57.22910392194173</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25134,7 +25134,7 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>57.22910392194228</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25317,22 +25317,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,16 +25359,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>114.1584408891651</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25566,10 +25566,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>57.22910392194173</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25791,7 +25791,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -25806,7 +25806,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,16 +25833,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0.925938869475857</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26040,7 +26040,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -26091,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>691564.1054216162</v>
+        <v>691564.1054216161</v>
       </c>
     </row>
     <row r="9">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>691564.1054216163</v>
+        <v>691564.1054216162</v>
       </c>
     </row>
     <row r="14">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>738937.5928778554</v>
+      </c>
+      <c r="C2" t="n">
+        <v>738937.5928778553</v>
+      </c>
+      <c r="D2" t="n">
         <v>738937.5928778551</v>
       </c>
-      <c r="C2" t="n">
-        <v>738937.5928778549</v>
-      </c>
-      <c r="D2" t="n">
-        <v>738937.5928778549</v>
-      </c>
       <c r="E2" t="n">
+        <v>726431.9397210052</v>
+      </c>
+      <c r="F2" t="n">
         <v>726431.9397210054</v>
-      </c>
-      <c r="F2" t="n">
-        <v>726431.939721005</v>
       </c>
       <c r="G2" t="n">
         <v>726431.9397210054</v>
       </c>
       <c r="H2" t="n">
-        <v>726431.9397210055</v>
+        <v>726431.9397210052</v>
       </c>
       <c r="I2" t="n">
         <v>726431.9397210053</v>
       </c>
       <c r="J2" t="n">
+        <v>726431.9397210054</v>
+      </c>
+      <c r="K2" t="n">
+        <v>726431.9397210054</v>
+      </c>
+      <c r="L2" t="n">
         <v>726431.9397210055</v>
-      </c>
-      <c r="K2" t="n">
-        <v>726431.9397210053</v>
-      </c>
-      <c r="L2" t="n">
-        <v>726431.9397210052</v>
       </c>
       <c r="M2" t="n">
         <v>726431.9397210054</v>
       </c>
       <c r="N2" t="n">
-        <v>726431.9397210054</v>
+        <v>726431.939721005</v>
       </c>
       <c r="O2" t="n">
-        <v>726431.9397210054</v>
+        <v>726431.939721005</v>
       </c>
       <c r="P2" t="n">
-        <v>726431.9397210053</v>
+        <v>726431.9397210052</v>
       </c>
     </row>
     <row r="3">
@@ -26368,13 +26368,13 @@
         <v>939682.9358753987</v>
       </c>
       <c r="C3" t="n">
-        <v>172764.3597898926</v>
+        <v>172764.3597898923</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>500888.8677457508</v>
+        <v>500888.867745751</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26423,28 +26423,28 @@
         <v>129066.7547252479</v>
       </c>
       <c r="D4" t="n">
-        <v>129066.7547252479</v>
+        <v>129066.754725248</v>
       </c>
       <c r="E4" t="n">
-        <v>6287.48053169497</v>
+        <v>6287.480531695011</v>
       </c>
       <c r="F4" t="n">
-        <v>6287.480531694995</v>
+        <v>6287.480531695025</v>
       </c>
       <c r="G4" t="n">
-        <v>6287.480531695051</v>
+        <v>6287.480531695026</v>
       </c>
       <c r="H4" t="n">
         <v>6287.480531695051</v>
       </c>
       <c r="I4" t="n">
-        <v>6287.480531695051</v>
+        <v>6287.480531695052</v>
       </c>
       <c r="J4" t="n">
         <v>6287.480531695051</v>
       </c>
       <c r="K4" t="n">
-        <v>6287.480531695052</v>
+        <v>6287.480531695051</v>
       </c>
       <c r="L4" t="n">
         <v>6287.480531695051</v>
@@ -26475,10 +26475,10 @@
         <v>93481.0893615096</v>
       </c>
       <c r="D5" t="n">
-        <v>93481.08936150963</v>
+        <v>93481.0893615096</v>
       </c>
       <c r="E5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="F5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-449876.2567096944</v>
+        <v>-449876.256709694</v>
       </c>
       <c r="C6" t="n">
-        <v>343625.3890012049</v>
+        <v>343625.3890012054</v>
       </c>
       <c r="D6" t="n">
-        <v>516389.7487910974</v>
+        <v>516389.7487910975</v>
       </c>
       <c r="E6" t="n">
-        <v>117785.6823652955</v>
+        <v>118098.3236942163</v>
       </c>
       <c r="F6" t="n">
-        <v>618674.5501110462</v>
+        <v>618987.1914399676</v>
       </c>
       <c r="G6" t="n">
-        <v>618674.5501110464</v>
+        <v>618987.1914399676</v>
       </c>
       <c r="H6" t="n">
-        <v>618674.5501110464</v>
+        <v>618987.1914399674</v>
       </c>
       <c r="I6" t="n">
-        <v>618674.5501110462</v>
+        <v>618987.1914399676</v>
       </c>
       <c r="J6" t="n">
-        <v>449260.5332849983</v>
+        <v>449573.1746139193</v>
       </c>
       <c r="K6" t="n">
-        <v>618674.5501110461</v>
+        <v>618987.1914399676</v>
       </c>
       <c r="L6" t="n">
-        <v>618674.5501110461</v>
+        <v>618987.1914399677</v>
       </c>
       <c r="M6" t="n">
-        <v>487790.0932068109</v>
+        <v>488102.7345357322</v>
       </c>
       <c r="N6" t="n">
-        <v>618674.5501110463</v>
+        <v>618987.1914399673</v>
       </c>
       <c r="O6" t="n">
-        <v>618674.5501110464</v>
+        <v>618987.1914399673</v>
       </c>
       <c r="P6" t="n">
-        <v>618674.5501110462</v>
+        <v>618987.1914399674</v>
       </c>
     </row>
   </sheetData>
@@ -26740,10 +26740,10 @@
         <v>749.9809564976108</v>
       </c>
       <c r="C3" t="n">
-        <v>939.7063906498448</v>
+        <v>939.7063906498445</v>
       </c>
       <c r="D3" t="n">
-        <v>939.7063906498448</v>
+        <v>939.7063906498445</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26795,13 +26795,13 @@
         <v>647.4981915352465</v>
       </c>
       <c r="D4" t="n">
-        <v>647.4981915352469</v>
+        <v>647.4981915352464</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099648</v>
@@ -26816,13 +26816,13 @@
         <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
         <v>1172.708288099648</v>
@@ -26962,13 +26962,13 @@
         <v>749.9809564976108</v>
       </c>
       <c r="C3" t="n">
-        <v>189.725434152234</v>
+        <v>189.7254341522337</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>428.2691096918294</v>
+        <v>428.2691096918295</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>525.210096564402</v>
+        <v>525.2100965644022</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>647.4981915352465</v>
+        <v>647.4981915352466</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>525.210096564402</v>
+        <v>525.2100965644022</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>109.945017250086</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -27387,16 +27387,16 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>237.9300218321721</v>
+        <v>308.5974454495113</v>
       </c>
       <c r="I2" t="n">
         <v>94.24014755885155</v>
@@ -27429,13 +27429,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>140.315783973424</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>209.8976922291835</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.1044530022292</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -27536,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27551,7 +27551,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>151.6737188942972</v>
       </c>
       <c r="H4" t="n">
         <v>150.2028876639205</v>
@@ -27587,7 +27587,7 @@
         <v>116.4834600519698</v>
       </c>
       <c r="S4" t="n">
-        <v>172.2892630836614</v>
+        <v>200.4475243713015</v>
       </c>
       <c r="T4" t="n">
         <v>222.1670476323163</v>
@@ -27615,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -27630,10 +27630,10 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>351.2164044342037</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>300.7862872484598</v>
+        <v>142.0700238932221</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27666,7 +27666,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>122.935408774453</v>
       </c>
       <c r="T5" t="n">
         <v>206.5589059457607</v>
@@ -27681,7 +27681,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27773,10 +27773,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -27794,7 +27794,7 @@
         <v>147.161060211447</v>
       </c>
       <c r="I7" t="n">
-        <v>104.4906595130011</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27824,19 +27824,19 @@
         <v>101.1001486205444</v>
       </c>
       <c r="S7" t="n">
-        <v>194.4851693340911</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>17.25336830765261</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>99.74169575388819</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27867,13 +27867,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>299.3835799715342</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>300.7862872484598</v>
       </c>
       <c r="I8" t="n">
-        <v>64.83556544767967</v>
+        <v>64.83556544767973</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27918,10 +27918,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>269.1146806500049</v>
       </c>
     </row>
     <row r="9">
@@ -28019,13 +28019,13 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>44.83829604051188</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.2964268507295</v>
+        <v>105.4310422139829</v>
       </c>
       <c r="H10" t="n">
         <v>147.161060211447</v>
@@ -28070,7 +28070,7 @@
         <v>286.2265992197056</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -28092,7 +28092,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>-1.478428093796983e-12</v>
+        <v>-9.003997547551989e-13</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -28380,7 +28380,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>-1.250555214937776e-12</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.777714133265705</v>
+        <v>3.777714133265703</v>
       </c>
       <c r="H5" t="n">
-        <v>38.68851486730741</v>
+        <v>38.6885148673074</v>
       </c>
       <c r="I5" t="n">
         <v>145.6403241227262</v>
       </c>
       <c r="J5" t="n">
-        <v>320.6287649182604</v>
+        <v>320.6287649182603</v>
       </c>
       <c r="K5" t="n">
-        <v>480.5394041793978</v>
+        <v>480.5394041793976</v>
       </c>
       <c r="L5" t="n">
-        <v>596.1516230853282</v>
+        <v>596.1516230853281</v>
       </c>
       <c r="M5" t="n">
-        <v>663.3335468027922</v>
+        <v>663.3335468027919</v>
       </c>
       <c r="N5" t="n">
-        <v>674.0669770839335</v>
+        <v>674.0669770839332</v>
       </c>
       <c r="O5" t="n">
-        <v>636.5023321712725</v>
+        <v>636.5023321712723</v>
       </c>
       <c r="P5" t="n">
-        <v>543.2400145062753</v>
+        <v>543.2400145062752</v>
       </c>
       <c r="Q5" t="n">
-        <v>407.9506271086972</v>
+        <v>407.950627108697</v>
       </c>
       <c r="R5" t="n">
         <v>237.301835423752</v>
       </c>
       <c r="S5" t="n">
-        <v>86.08466081179233</v>
+        <v>86.0846608117923</v>
       </c>
       <c r="T5" t="n">
-        <v>16.53694361837063</v>
+        <v>16.53694361837062</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3022171306612563</v>
+        <v>0.3022171306612562</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.021255255360044</v>
+        <v>2.021255255360043</v>
       </c>
       <c r="H6" t="n">
         <v>19.52107049255621</v>
       </c>
       <c r="I6" t="n">
-        <v>69.59146383586116</v>
+        <v>69.59146383586113</v>
       </c>
       <c r="J6" t="n">
-        <v>190.9642958583803</v>
+        <v>190.9642958583802</v>
       </c>
       <c r="K6" t="n">
-        <v>326.3883979675032</v>
+        <v>326.3883979675031</v>
       </c>
       <c r="L6" t="n">
-        <v>438.8694798973639</v>
+        <v>438.8694798973638</v>
       </c>
       <c r="M6" t="n">
-        <v>512.1399829041653</v>
+        <v>512.1399829041652</v>
       </c>
       <c r="N6" t="n">
-        <v>525.694804331558</v>
+        <v>525.6948043315579</v>
       </c>
       <c r="O6" t="n">
-        <v>480.9080431470013</v>
+        <v>480.9080431470011</v>
       </c>
       <c r="P6" t="n">
-        <v>385.9711022274806</v>
+        <v>385.9711022274805</v>
       </c>
       <c r="Q6" t="n">
-        <v>258.0114603157838</v>
+        <v>258.0114603157837</v>
       </c>
       <c r="R6" t="n">
         <v>125.4951289248982</v>
       </c>
       <c r="S6" t="n">
-        <v>37.54392985284991</v>
+        <v>37.54392985284989</v>
       </c>
       <c r="T6" t="n">
-        <v>8.147077103841577</v>
+        <v>8.147077103841573</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1329773194315819</v>
+        <v>0.1329773194315818</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31442,43 +31442,43 @@
         <v>15.0661122959926</v>
       </c>
       <c r="I7" t="n">
-        <v>50.95981541425717</v>
+        <v>50.95981541425715</v>
       </c>
       <c r="J7" t="n">
         <v>119.8048622964564</v>
       </c>
       <c r="K7" t="n">
-        <v>196.8761913525412</v>
+        <v>196.8761913525411</v>
       </c>
       <c r="L7" t="n">
-        <v>251.9337428309437</v>
+        <v>251.9337428309436</v>
       </c>
       <c r="M7" t="n">
-        <v>265.6288080979552</v>
+        <v>265.6288080979551</v>
       </c>
       <c r="N7" t="n">
-        <v>259.3127487509647</v>
+        <v>259.3127487509646</v>
       </c>
       <c r="O7" t="n">
-        <v>239.5172944561277</v>
+        <v>239.5172944561276</v>
       </c>
       <c r="P7" t="n">
-        <v>204.9484232984513</v>
+        <v>204.9484232984512</v>
       </c>
       <c r="Q7" t="n">
-        <v>141.8956649881266</v>
+        <v>141.8956649881265</v>
       </c>
       <c r="R7" t="n">
-        <v>76.1932427566251</v>
+        <v>76.19324275662507</v>
       </c>
       <c r="S7" t="n">
-        <v>29.53142870288118</v>
+        <v>29.53142870288116</v>
       </c>
       <c r="T7" t="n">
-        <v>7.240360714843064</v>
+        <v>7.240360714843061</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09243013678523074</v>
+        <v>0.0924301367852307</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.777714133265705</v>
+        <v>3.777714133265703</v>
       </c>
       <c r="H8" t="n">
-        <v>38.68851486730741</v>
+        <v>38.6885148673074</v>
       </c>
       <c r="I8" t="n">
         <v>145.6403241227262</v>
       </c>
       <c r="J8" t="n">
-        <v>320.6287649182604</v>
+        <v>320.6287649182603</v>
       </c>
       <c r="K8" t="n">
-        <v>480.5394041793978</v>
+        <v>480.5394041793976</v>
       </c>
       <c r="L8" t="n">
-        <v>596.1516230853282</v>
+        <v>596.1516230853281</v>
       </c>
       <c r="M8" t="n">
-        <v>663.3335468027922</v>
+        <v>663.3335468027919</v>
       </c>
       <c r="N8" t="n">
-        <v>674.0669770839335</v>
+        <v>674.0669770839332</v>
       </c>
       <c r="O8" t="n">
-        <v>636.5023321712725</v>
+        <v>636.5023321712723</v>
       </c>
       <c r="P8" t="n">
-        <v>543.2400145062753</v>
+        <v>543.2400145062752</v>
       </c>
       <c r="Q8" t="n">
-        <v>407.9506271086972</v>
+        <v>407.950627108697</v>
       </c>
       <c r="R8" t="n">
         <v>237.301835423752</v>
       </c>
       <c r="S8" t="n">
-        <v>86.08466081179233</v>
+        <v>86.0846608117923</v>
       </c>
       <c r="T8" t="n">
-        <v>16.53694361837063</v>
+        <v>16.53694361837062</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3022171306612563</v>
+        <v>0.3022171306612562</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.021255255360044</v>
+        <v>2.021255255360043</v>
       </c>
       <c r="H9" t="n">
         <v>19.52107049255621</v>
       </c>
       <c r="I9" t="n">
-        <v>69.59146383586116</v>
+        <v>69.59146383586113</v>
       </c>
       <c r="J9" t="n">
-        <v>190.9642958583803</v>
+        <v>190.9642958583802</v>
       </c>
       <c r="K9" t="n">
-        <v>326.3883979675032</v>
+        <v>326.3883979675031</v>
       </c>
       <c r="L9" t="n">
-        <v>438.8694798973639</v>
+        <v>438.8694798973638</v>
       </c>
       <c r="M9" t="n">
-        <v>512.1399829041653</v>
+        <v>512.1399829041652</v>
       </c>
       <c r="N9" t="n">
-        <v>525.694804331558</v>
+        <v>525.6948043315579</v>
       </c>
       <c r="O9" t="n">
-        <v>480.9080431470013</v>
+        <v>480.9080431470011</v>
       </c>
       <c r="P9" t="n">
-        <v>385.9711022274806</v>
+        <v>385.9711022274805</v>
       </c>
       <c r="Q9" t="n">
-        <v>258.0114603157838</v>
+        <v>258.0114603157837</v>
       </c>
       <c r="R9" t="n">
         <v>125.4951289248982</v>
       </c>
       <c r="S9" t="n">
-        <v>37.54392985284991</v>
+        <v>37.54392985284989</v>
       </c>
       <c r="T9" t="n">
-        <v>8.147077103841577</v>
+        <v>8.147077103841573</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1329773194315819</v>
+        <v>0.1329773194315818</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31679,43 +31679,43 @@
         <v>15.0661122959926</v>
       </c>
       <c r="I10" t="n">
-        <v>50.95981541425717</v>
+        <v>50.95981541425715</v>
       </c>
       <c r="J10" t="n">
         <v>119.8048622964564</v>
       </c>
       <c r="K10" t="n">
-        <v>196.8761913525412</v>
+        <v>196.8761913525411</v>
       </c>
       <c r="L10" t="n">
-        <v>251.9337428309437</v>
+        <v>251.9337428309436</v>
       </c>
       <c r="M10" t="n">
-        <v>265.6288080979552</v>
+        <v>265.6288080979551</v>
       </c>
       <c r="N10" t="n">
-        <v>259.3127487509647</v>
+        <v>259.3127487509646</v>
       </c>
       <c r="O10" t="n">
-        <v>239.5172944561277</v>
+        <v>239.5172944561276</v>
       </c>
       <c r="P10" t="n">
-        <v>204.9484232984513</v>
+        <v>204.9484232984512</v>
       </c>
       <c r="Q10" t="n">
-        <v>141.8956649881266</v>
+        <v>141.8956649881265</v>
       </c>
       <c r="R10" t="n">
-        <v>76.1932427566251</v>
+        <v>76.19324275662507</v>
       </c>
       <c r="S10" t="n">
-        <v>29.53142870288118</v>
+        <v>29.53142870288116</v>
       </c>
       <c r="T10" t="n">
-        <v>7.240360714843064</v>
+        <v>7.240360714843061</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09243013678523074</v>
+        <v>0.0924301367852307</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,40 +31752,40 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162564</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
         <v>125.3175546292901</v>
@@ -31794,7 +31794,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31837,37 +31837,37 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071787</v>
+        <v>359.7096985496632</v>
       </c>
       <c r="O12" t="n">
         <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
-        <v>390.1398273256862</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
@@ -31910,13 +31910,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
         <v>174.4056633796262</v>
@@ -31934,7 +31934,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P13" t="n">
         <v>298.3532140417315</v>
@@ -31946,7 +31946,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
@@ -32080,7 +32080,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>381.6404378718163</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
         <v>638.8832749473073</v>
@@ -32089,13 +32089,13 @@
         <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -32311,13 +32311,13 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>379.8551982710414</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
         <v>638.8832749473073</v>
@@ -32326,13 +32326,13 @@
         <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -32469,7 +32469,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J20" t="n">
         <v>466.7546155663283</v>
@@ -32554,13 +32554,13 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>403.3065760821439</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>242.2322097768135</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N21" t="n">
         <v>765.2790490071786</v>
@@ -32569,7 +32569,7 @@
         <v>700.0808204437244</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q21" t="n">
         <v>375.5996128485291</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32712,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,10 +32779,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
         <v>99.52238</v>
@@ -32791,22 +32791,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P24" t="n">
-        <v>334.7693860946154</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
@@ -32815,13 +32815,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,43 +32937,43 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J26" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33016,34 +33016,34 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>248.7449369209195</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>332.9841464938401</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
@@ -33052,13 +33052,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33125,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33186,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33253,49 +33253,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>230.1272937575231</v>
       </c>
       <c r="O30" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33362,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33423,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33490,31 +33490,31 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>465.7451325200306</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437244</v>
+        <v>549.9198891312103</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33526,13 +33526,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33599,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,43 +33648,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33727,31 +33727,31 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -33763,13 +33763,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33836,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,43 +33885,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33964,31 +33964,31 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -34000,13 +34000,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34073,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34207,13 +34207,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
         <v>638.8832749473072</v>
@@ -34225,10 +34225,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>171.7382405950817</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
@@ -34456,13 +34456,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>444.2274915982894</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -34701,28 +34701,28 @@
         <v>74.84835158000359</v>
       </c>
       <c r="K2" t="n">
-        <v>484.199429596207</v>
+        <v>163.429305116157</v>
       </c>
       <c r="L2" t="n">
-        <v>240.0230113315071</v>
+        <v>447.0541449741277</v>
       </c>
       <c r="M2" t="n">
-        <v>299.0611783410131</v>
+        <v>647.4981915352465</v>
       </c>
       <c r="N2" t="n">
-        <v>308.5607133692782</v>
+        <v>647.4981915352465</v>
       </c>
       <c r="O2" t="n">
         <v>277.8951710269035</v>
       </c>
       <c r="P2" t="n">
-        <v>524.1263114938092</v>
+        <v>202.3276033223266</v>
       </c>
       <c r="Q2" t="n">
-        <v>315.5952546185461</v>
+        <v>103.2802639586414</v>
       </c>
       <c r="R2" t="n">
-        <v>39.52180169138521</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34783,7 +34783,7 @@
         <v>387.1148251643756</v>
       </c>
       <c r="L3" t="n">
-        <v>511.1596275153138</v>
+        <v>582.5482980840966</v>
       </c>
       <c r="M3" t="n">
         <v>266.6055873691795</v>
@@ -34792,13 +34792,13 @@
         <v>288.2160307407405</v>
       </c>
       <c r="O3" t="n">
-        <v>635.0794422580011</v>
+        <v>455.3052907851298</v>
       </c>
       <c r="P3" t="n">
-        <v>174.0696575289998</v>
+        <v>492.5324261689369</v>
       </c>
       <c r="Q3" t="n">
-        <v>276.0148132527188</v>
+        <v>65.9375255168697</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>139.5828603915741</v>
+        <v>139.582860391574</v>
       </c>
       <c r="K5" t="n">
-        <v>260.4495531344173</v>
+        <v>260.4495531344171</v>
       </c>
       <c r="L5" t="n">
-        <v>360.385208115341</v>
+        <v>360.3852081153408</v>
       </c>
       <c r="M5" t="n">
-        <v>432.9873135755195</v>
+        <v>432.9873135755192</v>
       </c>
       <c r="N5" t="n">
-        <v>444.6539134873425</v>
+        <v>444.6539134873423</v>
       </c>
       <c r="O5" t="n">
-        <v>406.4041207495858</v>
+        <v>406.4041207495856</v>
       </c>
       <c r="P5" t="n">
-        <v>312.0070187510051</v>
+        <v>312.0070187510057</v>
       </c>
       <c r="Q5" t="n">
-        <v>185.6449372342477</v>
+        <v>185.6449372342475</v>
       </c>
       <c r="R5" t="n">
-        <v>21.71629760961991</v>
+        <v>21.71629760961983</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>64.1266691917136</v>
+        <v>190.2177045321224</v>
       </c>
       <c r="K6" t="n">
-        <v>453.0121960057228</v>
+        <v>362.3108833671845</v>
       </c>
       <c r="L6" t="n">
-        <v>300.3151001174897</v>
+        <v>300.3151001174896</v>
       </c>
       <c r="M6" t="n">
-        <v>370.005948982147</v>
+        <v>370.0059489821469</v>
       </c>
       <c r="N6" t="n">
-        <v>394.3530922482247</v>
+        <v>394.3530922482246</v>
       </c>
       <c r="O6" t="n">
-        <v>338.3117987025568</v>
+        <v>338.3117987025566</v>
       </c>
       <c r="P6" t="n">
-        <v>497.4637052508691</v>
+        <v>251.9966948131503</v>
       </c>
       <c r="Q6" t="n">
-        <v>118.0296862297623</v>
+        <v>328.1069739656113</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35093,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>26.44568217978365</v>
+        <v>26.4456821797836</v>
       </c>
       <c r="K7" t="n">
         <v>174.6066995266583</v>
       </c>
       <c r="L7" t="n">
-        <v>279.5237680912598</v>
+        <v>279.5237680912597</v>
       </c>
       <c r="M7" t="n">
-        <v>305.2126850597958</v>
+        <v>305.2126850597957</v>
       </c>
       <c r="N7" t="n">
-        <v>303.4449211301933</v>
+        <v>303.4449211301932</v>
       </c>
       <c r="O7" t="n">
-        <v>264.1024223701674</v>
+        <v>264.1024223701673</v>
       </c>
       <c r="P7" t="n">
-        <v>202.2269825633448</v>
+        <v>202.2269825633447</v>
       </c>
       <c r="Q7" t="n">
-        <v>55.73362173643217</v>
+        <v>55.73362173643211</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>139.5828603915741</v>
+        <v>139.582860391574</v>
       </c>
       <c r="K8" t="n">
-        <v>260.4495531344173</v>
+        <v>260.4495531344171</v>
       </c>
       <c r="L8" t="n">
-        <v>360.385208115341</v>
+        <v>360.3852081153408</v>
       </c>
       <c r="M8" t="n">
-        <v>432.9873135755195</v>
+        <v>432.9873135755192</v>
       </c>
       <c r="N8" t="n">
-        <v>444.6539134873425</v>
+        <v>444.6539134873423</v>
       </c>
       <c r="O8" t="n">
-        <v>406.4041207495858</v>
+        <v>406.4041207495856</v>
       </c>
       <c r="P8" t="n">
-        <v>312.0070187510058</v>
+        <v>312.0070187510057</v>
       </c>
       <c r="Q8" t="n">
-        <v>185.6449372342477</v>
+        <v>185.6449372342475</v>
       </c>
       <c r="R8" t="n">
-        <v>21.71629760961991</v>
+        <v>21.71629760961983</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35254,25 +35254,25 @@
         <v>190.2177045321224</v>
       </c>
       <c r="K9" t="n">
-        <v>188.5469589931442</v>
+        <v>362.3108833671845</v>
       </c>
       <c r="L9" t="n">
-        <v>300.3151001174897</v>
+        <v>300.3151001174896</v>
       </c>
       <c r="M9" t="n">
-        <v>500.7020618050138</v>
+        <v>370.0059489821469</v>
       </c>
       <c r="N9" t="n">
-        <v>647.4981915352469</v>
+        <v>394.3530922482246</v>
       </c>
       <c r="O9" t="n">
-        <v>338.3117987025568</v>
+        <v>338.3117987025566</v>
       </c>
       <c r="P9" t="n">
-        <v>251.9966948131504</v>
+        <v>251.9966948131503</v>
       </c>
       <c r="Q9" t="n">
-        <v>118.0296862297623</v>
+        <v>328.1069739656113</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>26.44568217978365</v>
+        <v>26.4456821797836</v>
       </c>
       <c r="K10" t="n">
         <v>174.6066995266583</v>
       </c>
       <c r="L10" t="n">
-        <v>279.5237680912598</v>
+        <v>279.5237680912597</v>
       </c>
       <c r="M10" t="n">
-        <v>305.2126850597958</v>
+        <v>305.2126850597957</v>
       </c>
       <c r="N10" t="n">
-        <v>303.4449211301933</v>
+        <v>303.4449211301932</v>
       </c>
       <c r="O10" t="n">
-        <v>264.1024223701674</v>
+        <v>264.1024223701673</v>
       </c>
       <c r="P10" t="n">
-        <v>202.2269825633448</v>
+        <v>202.2269825633447</v>
       </c>
       <c r="Q10" t="n">
-        <v>55.73362173643217</v>
+        <v>55.73362173643211</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35406,31 +35406,31 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367772</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462692</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902951</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243163</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
         <v>129.8660843902405</v>
@@ -35485,31 +35485,31 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774943</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674332</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238455</v>
+        <v>228.3679864663299</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>256.165419911356</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
         <v>264.332588409635</v>
@@ -35579,7 +35579,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
         <v>373.2618997060455</v>
@@ -35652,7 +35652,7 @@
         <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462675</v>
       </c>
       <c r="M14" t="n">
         <v>735.300110790295</v>
@@ -35728,7 +35728,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>243.7989988974573</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
         <v>500.3288951674331</v>
@@ -35737,13 +35737,13 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35886,7 +35886,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367756</v>
       </c>
       <c r="L17" t="n">
         <v>632.079992146269</v>
@@ -35907,7 +35907,7 @@
         <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,13 +35959,13 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>242.0137592966825</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
         <v>500.3288951674331</v>
@@ -35974,13 +35974,13 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36117,7 +36117,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
@@ -36144,7 +36144,7 @@
         <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36202,13 +36202,13 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>265.4651371077849</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>103.6778299969394</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
         <v>633.9373369238454</v>
@@ -36217,7 +36217,7 @@
         <v>557.48457599928</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q21" t="n">
         <v>235.6178387625076</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36442,19 +36442,19 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P24" t="n">
-        <v>200.7949786802852</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
         <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,28 +36670,28 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>110.1905571410453</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>199.0097390795098</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36916,22 +36916,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>98.78558167418976</v>
       </c>
       <c r="O30" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193519</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,25 +37144,25 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>334.4034204366973</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.48457599928</v>
+        <v>407.3236446867659</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37390,16 +37390,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37627,16 +37627,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37855,13 +37855,13 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>500.328895167433</v>
@@ -37873,10 +37873,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>37.7638331807514</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -38104,13 +38104,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>302.093457676271</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
